--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -16,7 +16,7 @@
     <sheet name="hidden" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fragments!$A$2:$Z$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fragments!$A$2:$Z$45</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="233">
   <si>
     <t>name</t>
   </si>
@@ -718,6 +718,15 @@
   </si>
   <si>
     <t>Créez votre profil</t>
+  </si>
+  <si>
+    <t>auth.resetLinkExpired</t>
+  </si>
+  <si>
+    <t>Deze link is niet meer geldig.</t>
+  </si>
+  <si>
+    <t>Ce lien n'est plus valable.</t>
   </si>
 </sst>
 </file>
@@ -1093,11 +1102,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z84"/>
+  <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1507,21 +1516,21 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="E29" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1535,623 +1544,623 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32" s="3">
+        <v>37</v>
+      </c>
+      <c r="B32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>187</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
+        <v>186</v>
+      </c>
+      <c r="B33" s="3">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>182</v>
-      </c>
-      <c r="B37" s="3">
+        <v>49</v>
+      </c>
+      <c r="B37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="E39" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B41" s="3">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="E42" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43">
+        <v>176</v>
+      </c>
+      <c r="B43" s="3">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="E43" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>183</v>
-      </c>
-      <c r="B44" s="3">
+        <v>50</v>
+      </c>
+      <c r="B44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>184</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B45" s="3">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="E45" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46">
+        <v>206</v>
+      </c>
+      <c r="B46" s="3">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>68</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
         <v>70</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" s="3">
-        <v>0</v>
-      </c>
-      <c r="D50" t="s">
-        <v>131</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B51" s="3">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>140</v>
-      </c>
-      <c r="E53" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B54" s="3">
         <v>1</v>
       </c>
       <c r="D54" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
         <v>143</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>144</v>
-      </c>
-      <c r="B55" s="3">
-        <v>0</v>
-      </c>
-      <c r="D55" t="s">
-        <v>146</v>
-      </c>
-      <c r="E55" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E56" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E57" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E58" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E59" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E60" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E61" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E62" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63">
+        <v>147</v>
+      </c>
+      <c r="B63" s="3">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="E63" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E64" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E65" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E66" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E67" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E70" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="E71" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>93</v>
       </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
         <v>95</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B73" s="3">
-        <v>0</v>
-      </c>
-      <c r="D73" t="s">
-        <v>104</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B74" s="3">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B75" s="3">
         <v>0</v>
@@ -2160,132 +2169,146 @@
         <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B76" s="3">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B77" s="3">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B78" s="3">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B79" s="3">
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B81" s="3">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B82" s="3">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B83" s="3">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>122</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B84" s="3">
-        <v>0</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="B85" s="3">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
         <v>125</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>124</v>
       </c>
     </row>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freek/dev/github/blender/database/seeds/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandedeyne/Sites/blender/database/seeds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="47500" windowHeight="21740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
@@ -537,9 +537,6 @@
     <t>auth.passwordConfirm</t>
   </si>
   <si>
-    <t>auth.logInError</t>
-  </si>
-  <si>
     <t>Les données ne sont pas correctes.</t>
   </si>
   <si>
@@ -727,6 +724,9 @@
   </si>
   <si>
     <t>Ce lien n'est plus valable.</t>
+  </si>
+  <si>
+    <t>auth.failed</t>
   </si>
 </sst>
 </file>
@@ -1104,9 +1104,9 @@
   </sheetPr>
   <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1159,13 +1159,13 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>189</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>190</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
@@ -1173,16 +1173,16 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" t="s">
         <v>197</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -1196,26 +1196,26 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" t="s">
         <v>200</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E5" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -1226,16 +1226,16 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" t="s">
         <v>191</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -1274,26 +1274,26 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" t="s">
         <v>169</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1307,49 +1307,49 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" t="s">
         <v>203</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E13" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>213</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>217</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
         <v>215</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1368,16 +1368,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" t="s">
         <v>194</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1438,24 +1438,24 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
         <v>209</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
         <v>211</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1469,7 +1469,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1483,7 +1483,7 @@
         <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1511,21 +1511,21 @@
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
         <v>230</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>231</v>
-      </c>
-      <c r="E29" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1539,7 +1539,7 @@
         <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1553,7 +1553,7 @@
         <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1572,16 +1572,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" t="s">
         <v>186</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>188</v>
-      </c>
-      <c r="E33" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1642,7 +1642,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
@@ -1656,21 +1656,21 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" t="s">
         <v>179</v>
-      </c>
-      <c r="B39" s="3">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>181</v>
-      </c>
-      <c r="E39" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
@@ -1679,12 +1679,12 @@
         <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B41" s="3">
         <v>0</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -1712,16 +1712,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" t="s">
         <v>176</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1740,30 +1740,30 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" t="s">
         <v>183</v>
-      </c>
-      <c r="B45" s="3">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46" t="s">
         <v>206</v>
-      </c>
-      <c r="B46" s="3">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>208</v>
-      </c>
-      <c r="E46" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2386,13 +2386,13 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" t="s">
         <v>220</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>221</v>
-      </c>
-      <c r="E3" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="442">
   <si>
     <t>name</t>
   </si>
@@ -687,15 +687,6 @@
     <t>auth.linkValidUntil</t>
   </si>
   <si>
-    <t>nieuwe hidden</t>
-  </si>
-  <si>
-    <t>qsdfqsd</t>
-  </si>
-  <si>
-    <t>sdfsdf</t>
-  </si>
-  <si>
     <t>auth.logout.title</t>
   </si>
   <si>
@@ -727,6 +718,642 @@
   </si>
   <si>
     <t>auth.failed</t>
+  </si>
+  <si>
+    <t>back.addFile</t>
+  </si>
+  <si>
+    <t>back.addImage</t>
+  </si>
+  <si>
+    <t>back.articles.downloads</t>
+  </si>
+  <si>
+    <t>back.articles.images</t>
+  </si>
+  <si>
+    <t>back.articles.location</t>
+  </si>
+  <si>
+    <t>back.articles.name</t>
+  </si>
+  <si>
+    <t>back.articles.new</t>
+  </si>
+  <si>
+    <t>back.articles.online</t>
+  </si>
+  <si>
+    <t>back.articles.publish_date</t>
+  </si>
+  <si>
+    <t>back.articles.save</t>
+  </si>
+  <si>
+    <t>back.articles.singular</t>
+  </si>
+  <si>
+    <t>back.articles.tags</t>
+  </si>
+  <si>
+    <t>back.articles.text</t>
+  </si>
+  <si>
+    <t>back.articles.title</t>
+  </si>
+  <si>
+    <t>back.backUsers.administrator</t>
+  </si>
+  <si>
+    <t>back.backUsers.automaticCredentialsMailInfo</t>
+  </si>
+  <si>
+    <t>back.backUsers.first_name</t>
+  </si>
+  <si>
+    <t>back.backUsers.gravatarInfo</t>
+  </si>
+  <si>
+    <t>back.backUsers.justNow</t>
+  </si>
+  <si>
+    <t>back.backUsers.last_name</t>
+  </si>
+  <si>
+    <t>back.backUsers.lastActivity</t>
+  </si>
+  <si>
+    <t>back.backUsers.locale</t>
+  </si>
+  <si>
+    <t>back.backUsers.name</t>
+  </si>
+  <si>
+    <t>back.backUsers.neverLoggedIn</t>
+  </si>
+  <si>
+    <t>back.backUsers.new</t>
+  </si>
+  <si>
+    <t>back.backUsers.password</t>
+  </si>
+  <si>
+    <t>back.backUsers.passwordChangeInfo</t>
+  </si>
+  <si>
+    <t>back.backUsers.passwordConfirmation</t>
+  </si>
+  <si>
+    <t>back.backUsers.passwordMailSent</t>
+  </si>
+  <si>
+    <t>back.backUsers.save</t>
+  </si>
+  <si>
+    <t>back.backUsers.title</t>
+  </si>
+  <si>
+    <t>back.change</t>
+  </si>
+  <si>
+    <t>back.environment.production</t>
+  </si>
+  <si>
+    <t>back.environment.test</t>
+  </si>
+  <si>
+    <t>back.events.activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model </t>
+  </si>
+  <si>
+    <t>name werd geactiveerd</t>
+  </si>
+  <si>
+    <t>back.events.created</t>
+  </si>
+  <si>
+    <t>name werd aangemaakt</t>
+  </si>
+  <si>
+    <t>back.events.deleted</t>
+  </si>
+  <si>
+    <t>name werd verwijderd</t>
+  </si>
+  <si>
+    <t>back.events.updated</t>
+  </si>
+  <si>
+    <t>name werd bijgewerkt</t>
+  </si>
+  <si>
+    <t>back.formResponses.download</t>
+  </si>
+  <si>
+    <t>back.formResponses.info</t>
+  </si>
+  <si>
+    <t>recipients&lt;/strong&gt;. Download hier de backup van alle reacties als .xlsx-bestand (Excel).</t>
+  </si>
+  <si>
+    <t>back.formResponses.title</t>
+  </si>
+  <si>
+    <t>back.fragments.content</t>
+  </si>
+  <si>
+    <t>back.fragments.name</t>
+  </si>
+  <si>
+    <t>back.fragments.save</t>
+  </si>
+  <si>
+    <t>back.fragments.text</t>
+  </si>
+  <si>
+    <t>back.fragments.title</t>
+  </si>
+  <si>
+    <t>back.frontUsers.automaticCredentialsMailInfo</t>
+  </si>
+  <si>
+    <t>back.frontUsers.first_name</t>
+  </si>
+  <si>
+    <t>back.frontUsers.justNow</t>
+  </si>
+  <si>
+    <t>back.frontUsers.last_name</t>
+  </si>
+  <si>
+    <t>back.frontUsers.lastActivity</t>
+  </si>
+  <si>
+    <t>back.frontUsers.locale</t>
+  </si>
+  <si>
+    <t>back.frontUsers.member</t>
+  </si>
+  <si>
+    <t>back.frontUsers.name</t>
+  </si>
+  <si>
+    <t>back.frontUsers.neverLoggedIn</t>
+  </si>
+  <si>
+    <t>back.frontUsers.new</t>
+  </si>
+  <si>
+    <t>back.frontUsers.passwordChangeInfo</t>
+  </si>
+  <si>
+    <t>back.frontUsers.passwordMailSent</t>
+  </si>
+  <si>
+    <t>back.frontUsers.save</t>
+  </si>
+  <si>
+    <t>back.frontUsers.sendResetLink</t>
+  </si>
+  <si>
+    <t>back.frontUsers.title</t>
+  </si>
+  <si>
+    <t>back.locationpicker.search</t>
+  </si>
+  <si>
+    <t>back.locationpicker.submit</t>
+  </si>
+  <si>
+    <t>back.log.description</t>
+  </si>
+  <si>
+    <t>back.log.fullLog</t>
+  </si>
+  <si>
+    <t>back.log.recentActivity</t>
+  </si>
+  <si>
+    <t>back.log.time</t>
+  </si>
+  <si>
+    <t>back.log.user</t>
+  </si>
+  <si>
+    <t>back.name</t>
+  </si>
+  <si>
+    <t>back.newsItems.downloads</t>
+  </si>
+  <si>
+    <t>back.newsItems.images</t>
+  </si>
+  <si>
+    <t>back.newsItems.name</t>
+  </si>
+  <si>
+    <t>back.newsItems.new</t>
+  </si>
+  <si>
+    <t>back.newsItems.news_category</t>
+  </si>
+  <si>
+    <t>back.newsItems.news_tag</t>
+  </si>
+  <si>
+    <t>back.newsItems.online</t>
+  </si>
+  <si>
+    <t>back.newsItems.publish_date</t>
+  </si>
+  <si>
+    <t>back.newsItems.save</t>
+  </si>
+  <si>
+    <t>back.newsItems.singular</t>
+  </si>
+  <si>
+    <t>back.newsItems.tags</t>
+  </si>
+  <si>
+    <t>back.newsItems.text</t>
+  </si>
+  <si>
+    <t>back.newsItems.title</t>
+  </si>
+  <si>
+    <t>back.people.career</t>
+  </si>
+  <si>
+    <t>back.people.email</t>
+  </si>
+  <si>
+    <t>back.people.function</t>
+  </si>
+  <si>
+    <t>back.people.images</t>
+  </si>
+  <si>
+    <t>back.people.name</t>
+  </si>
+  <si>
+    <t>back.people.new</t>
+  </si>
+  <si>
+    <t>back.people.online</t>
+  </si>
+  <si>
+    <t>back.people.save</t>
+  </si>
+  <si>
+    <t>back.people.singular</t>
+  </si>
+  <si>
+    <t>back.people.telephone</t>
+  </si>
+  <si>
+    <t>back.people.title</t>
+  </si>
+  <si>
+    <t>back.people.type</t>
+  </si>
+  <si>
+    <t>back.since</t>
+  </si>
+  <si>
+    <t>back.statistics.browsers</t>
+  </si>
+  <si>
+    <t>back.statistics.keyword</t>
+  </si>
+  <si>
+    <t>back.statistics.menuTitle</t>
+  </si>
+  <si>
+    <t>back.statistics.mostUsedBrowsers</t>
+  </si>
+  <si>
+    <t>back.statistics.mostUsedKeywords</t>
+  </si>
+  <si>
+    <t>back.statistics.mostVisitedPages</t>
+  </si>
+  <si>
+    <t>back.statistics.noData</t>
+  </si>
+  <si>
+    <t>back.statistics.notConfigured</t>
+  </si>
+  <si>
+    <t>back.statistics.numberOfVisitors</t>
+  </si>
+  <si>
+    <t>back.statistics.page</t>
+  </si>
+  <si>
+    <t>back.statistics.sessions</t>
+  </si>
+  <si>
+    <t>back.statistics.source</t>
+  </si>
+  <si>
+    <t>back.statistics.sources</t>
+  </si>
+  <si>
+    <t>back.statistics.title</t>
+  </si>
+  <si>
+    <t>back.statistics.visitors</t>
+  </si>
+  <si>
+    <t>back.statistics.visits</t>
+  </si>
+  <si>
+    <t>back.tags.description</t>
+  </si>
+  <si>
+    <t>back.tags.name</t>
+  </si>
+  <si>
+    <t>back.tags.new</t>
+  </si>
+  <si>
+    <t>back.tags.online</t>
+  </si>
+  <si>
+    <t>back.tags.save</t>
+  </si>
+  <si>
+    <t>back.tags.singular</t>
+  </si>
+  <si>
+    <t>back.tags.title</t>
+  </si>
+  <si>
+    <t>back.tags.type</t>
+  </si>
+  <si>
+    <t>back.tags.types.news_category</t>
+  </si>
+  <si>
+    <t>back.tags.types.news_tag</t>
+  </si>
+  <si>
+    <t>Voeg bestand toe</t>
+  </si>
+  <si>
+    <t>Voeg afbeelding toe</t>
+  </si>
+  <si>
+    <t>Downloads</t>
+  </si>
+  <si>
+    <t>Afbeeldingen</t>
+  </si>
+  <si>
+    <t>Locatie</t>
+  </si>
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>Nieuw artikel</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Publicatiedatum</t>
+  </si>
+  <si>
+    <t>Bewaar artikel</t>
+  </si>
+  <si>
+    <t>Artikel</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Tekst</t>
+  </si>
+  <si>
+    <t>Artikels</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>Zodra je deze nieuwe administrator bewaart, zullen we hem/haar een e-mail sturen met een link om het wachtwoord in te stellen.</t>
+  </si>
+  <si>
+    <t>Je kan deze avatar instellen op</t>
+  </si>
+  <si>
+    <t>Zonet</t>
+  </si>
+  <si>
+    <t>Laatste activiteit</t>
+  </si>
+  <si>
+    <t>Taal</t>
+  </si>
+  <si>
+    <t>Nog niet ingelogd</t>
+  </si>
+  <si>
+    <t>Nieuwe administrator</t>
+  </si>
+  <si>
+    <t>Vul onderstaande velden enkel in als je het wachtwoord wil wijzigen.</t>
+  </si>
+  <si>
+    <t>Er is een mail verstuurd waarmee deze gebruiker zelf een wachtwoord kan instellen.</t>
+  </si>
+  <si>
+    <t>Bewaar administrator</t>
+  </si>
+  <si>
+    <t>Administrators</t>
+  </si>
+  <si>
+    <t>wijzig</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>testomgeving</t>
+  </si>
+  <si>
+    <t>Download reacties</t>
+  </si>
+  <si>
+    <t>De reacties worden standaard gemaild naar &lt;strong&gt;</t>
+  </si>
+  <si>
+    <t>Reacties</t>
+  </si>
+  <si>
+    <t>Inhoud</t>
+  </si>
+  <si>
+    <t>Bewaar fragment</t>
+  </si>
+  <si>
+    <t>Fragmenten</t>
+  </si>
+  <si>
+    <t>Zodra je dit nieuw lid bewaart, zullen we hem/haar een e-mail sturen met een link om het wachtwoord in te stellen.</t>
+  </si>
+  <si>
+    <t>Lid</t>
+  </si>
+  <si>
+    <t>Nieuw lid</t>
+  </si>
+  <si>
+    <t>Hier kan je een wachtwoord reset link naar de gebruiker sturen.</t>
+  </si>
+  <si>
+    <t>Bewaar lid</t>
+  </si>
+  <si>
+    <t>Reset link versturen</t>
+  </si>
+  <si>
+    <t>Leden</t>
+  </si>
+  <si>
+    <t>Zoek adres</t>
+  </si>
+  <si>
+    <t>Zoek</t>
+  </si>
+  <si>
+    <t>Beschrijving</t>
+  </si>
+  <si>
+    <t>Bekijk het hele log</t>
+  </si>
+  <si>
+    <t>Recente activiteit</t>
+  </si>
+  <si>
+    <t>Tijdstip</t>
+  </si>
+  <si>
+    <t>Gebruiker</t>
+  </si>
+  <si>
+    <t>Nieuw nieuwsbericht</t>
+  </si>
+  <si>
+    <t>Categorie</t>
+  </si>
+  <si>
+    <t>Bewaar nieuwsbericht</t>
+  </si>
+  <si>
+    <t>Nieuwsbericht</t>
+  </si>
+  <si>
+    <t>Nieuws</t>
+  </si>
+  <si>
+    <t>Loopbaan</t>
+  </si>
+  <si>
+    <t>Functiebeschrijving</t>
+  </si>
+  <si>
+    <t>Nieuw persoon</t>
+  </si>
+  <si>
+    <t>Bewaar persoon</t>
+  </si>
+  <si>
+    <t>Persoon</t>
+  </si>
+  <si>
+    <t>Telefoonnummer</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>sinds</t>
+  </si>
+  <si>
+    <t>Browsers</t>
+  </si>
+  <si>
+    <t>Zoekterm</t>
+  </si>
+  <si>
+    <t>Statistieken</t>
+  </si>
+  <si>
+    <t>Meeste gebruikte browsers</t>
+  </si>
+  <si>
+    <t>Meest gebruikte zoektermen</t>
+  </si>
+  <si>
+    <t>Meest bezochte pagina's</t>
+  </si>
+  <si>
+    <t>Er zijn nog geen gegevens beschikbaar.</t>
+  </si>
+  <si>
+    <t>Analytics is nog niet geconfigureerd.</t>
+  </si>
+  <si>
+    <t>Aantal bezoekers</t>
+  </si>
+  <si>
+    <t>Pagina</t>
+  </si>
+  <si>
+    <t>Sessies</t>
+  </si>
+  <si>
+    <t>Bron</t>
+  </si>
+  <si>
+    <t>Bronnen</t>
+  </si>
+  <si>
+    <t>Statistieken afgelopen jaar</t>
+  </si>
+  <si>
+    <t>Bezoekers</t>
+  </si>
+  <si>
+    <t>Bezoeken</t>
+  </si>
+  <si>
+    <t>Nieuwe tag</t>
+  </si>
+  <si>
+    <t>Bewaar tag</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Nieuwscategorie</t>
+  </si>
+  <si>
+    <t>Nieuwstag</t>
   </si>
 </sst>
 </file>
@@ -782,8 +1409,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -795,11 +1424,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1104,7 +1735,7 @@
   </sheetPr>
   <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
@@ -1196,7 +1827,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -1274,12 +1905,12 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -1293,7 +1924,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1469,7 +2100,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1483,7 +2114,7 @@
         <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1511,21 +2142,21 @@
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E29" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1539,7 +2170,7 @@
         <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1553,7 +2184,7 @@
         <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2324,11 +2955,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2386,16 +3015,989 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
-        <v>221</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>247</v>
+      </c>
+      <c r="E20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>250</v>
+      </c>
+      <c r="E23" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>254</v>
+      </c>
+      <c r="E27" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>255</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>256</v>
+      </c>
+      <c r="E29" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>257</v>
+      </c>
+      <c r="E30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>258</v>
+      </c>
+      <c r="E31" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>259</v>
+      </c>
+      <c r="E32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>260</v>
+      </c>
+      <c r="E33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>261</v>
+      </c>
+      <c r="E34" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>262</v>
+      </c>
+      <c r="E35" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C37" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C38" t="s">
+        <v>268</v>
+      </c>
+      <c r="E38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>269</v>
+      </c>
+      <c r="C39" t="s">
+        <v>270</v>
+      </c>
+      <c r="E39" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C40" t="s">
+        <v>272</v>
+      </c>
+      <c r="E40" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>273</v>
+      </c>
+      <c r="E41" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>274</v>
+      </c>
+      <c r="C42" t="s">
+        <v>275</v>
+      </c>
+      <c r="E42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>276</v>
+      </c>
+      <c r="E43" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>277</v>
+      </c>
+      <c r="E44" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>278</v>
+      </c>
+      <c r="E45" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>279</v>
+      </c>
+      <c r="E46" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>280</v>
+      </c>
+      <c r="E47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>281</v>
+      </c>
+      <c r="E48" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+      <c r="E49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>283</v>
+      </c>
+      <c r="E50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>284</v>
+      </c>
+      <c r="E51" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>285</v>
+      </c>
+      <c r="E52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>286</v>
+      </c>
+      <c r="E53" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>287</v>
+      </c>
+      <c r="E54" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>288</v>
+      </c>
+      <c r="E55" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>289</v>
+      </c>
+      <c r="E56" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>290</v>
+      </c>
+      <c r="E57" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>291</v>
+      </c>
+      <c r="E58" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>292</v>
+      </c>
+      <c r="E59" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>293</v>
+      </c>
+      <c r="E60" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>294</v>
+      </c>
+      <c r="E61" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>295</v>
+      </c>
+      <c r="E62" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>296</v>
+      </c>
+      <c r="E63" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>297</v>
+      </c>
+      <c r="E64" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>298</v>
+      </c>
+      <c r="E65" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>299</v>
+      </c>
+      <c r="E66" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>300</v>
+      </c>
+      <c r="E67" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>301</v>
+      </c>
+      <c r="E68" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>302</v>
+      </c>
+      <c r="E69" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>303</v>
+      </c>
+      <c r="E70" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>304</v>
+      </c>
+      <c r="E71" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>305</v>
+      </c>
+      <c r="E72" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>306</v>
+      </c>
+      <c r="E73" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>307</v>
+      </c>
+      <c r="E74" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>308</v>
+      </c>
+      <c r="E75" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>309</v>
+      </c>
+      <c r="E76" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>310</v>
+      </c>
+      <c r="E77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>311</v>
+      </c>
+      <c r="E78" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>312</v>
+      </c>
+      <c r="E79" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>313</v>
+      </c>
+      <c r="E80" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>314</v>
+      </c>
+      <c r="E81" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>315</v>
+      </c>
+      <c r="E82" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>316</v>
+      </c>
+      <c r="E83" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>317</v>
+      </c>
+      <c r="E84" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>318</v>
+      </c>
+      <c r="E85" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>319</v>
+      </c>
+      <c r="E86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>320</v>
+      </c>
+      <c r="E87" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>321</v>
+      </c>
+      <c r="E88" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>322</v>
+      </c>
+      <c r="E89" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>323</v>
+      </c>
+      <c r="E90" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>324</v>
+      </c>
+      <c r="E91" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>325</v>
+      </c>
+      <c r="E92" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>326</v>
+      </c>
+      <c r="E93" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>327</v>
+      </c>
+      <c r="E94" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>328</v>
+      </c>
+      <c r="E95" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>329</v>
+      </c>
+      <c r="E96" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>330</v>
+      </c>
+      <c r="E97" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>331</v>
+      </c>
+      <c r="E98" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>332</v>
+      </c>
+      <c r="E99" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>333</v>
+      </c>
+      <c r="E100" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>334</v>
+      </c>
+      <c r="E101" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>335</v>
+      </c>
+      <c r="E102" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>336</v>
+      </c>
+      <c r="E103" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>337</v>
+      </c>
+      <c r="E104" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>338</v>
+      </c>
+      <c r="E105" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>339</v>
+      </c>
+      <c r="E106" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>340</v>
+      </c>
+      <c r="E107" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>341</v>
+      </c>
+      <c r="E108" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>342</v>
+      </c>
+      <c r="E109" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>343</v>
+      </c>
+      <c r="E110" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>344</v>
+      </c>
+      <c r="E111" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>345</v>
+      </c>
+      <c r="E112" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>346</v>
+      </c>
+      <c r="E113" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>347</v>
+      </c>
+      <c r="E114" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>348</v>
+      </c>
+      <c r="E115" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>349</v>
+      </c>
+      <c r="E116" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>350</v>
+      </c>
+      <c r="E117" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>351</v>
+      </c>
+      <c r="E118" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>352</v>
+      </c>
+      <c r="E119" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>353</v>
+      </c>
+      <c r="E120" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>354</v>
+      </c>
+      <c r="E121" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>355</v>
+      </c>
+      <c r="E122" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>356</v>
+      </c>
+      <c r="E123" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="1"/>
+    <workbookView xWindow="8140" yWindow="460" windowWidth="30260" windowHeight="21060"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
     <sheet name="hidden" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fragments!$A$2:$Z$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fragments!$A$2:$Z$46</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="443">
   <si>
     <t>name</t>
   </si>
@@ -1354,6 +1354,9 @@
   </si>
   <si>
     <t>Nieuwstag</t>
+  </si>
+  <si>
+    <t>auth.email</t>
   </si>
 </sst>
 </file>
@@ -1733,11 +1736,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z85"/>
+  <dimension ref="A1:Z86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1818,77 +1821,80 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+        <v>442</v>
+      </c>
+      <c r="B4" s="3">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>220</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
       </c>
+      <c r="D6" t="s">
+        <v>201</v>
+      </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>192</v>
-      </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+        <v>190</v>
+      </c>
+      <c r="B8" s="3">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1896,286 +1902,283 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12">
+        <v>229</v>
+      </c>
+      <c r="B12" s="3">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="3">
+        <v>219</v>
+      </c>
+      <c r="B13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>203</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
       </c>
+      <c r="D14" t="s">
+        <v>204</v>
+      </c>
       <c r="E14" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
+        <v>214</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>193</v>
-      </c>
-      <c r="B18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20">
+        <v>168</v>
+      </c>
+      <c r="B20" s="3">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>208</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>209</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
+        <v>210</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>224</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="E30" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2189,623 +2192,623 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>185</v>
-      </c>
-      <c r="B33" s="3">
+        <v>37</v>
+      </c>
+      <c r="B33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34">
+        <v>185</v>
+      </c>
+      <c r="B34" s="3">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>181</v>
-      </c>
-      <c r="B38" s="3">
+        <v>49</v>
+      </c>
+      <c r="B38">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>179</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="E40" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B41" s="3">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44">
+        <v>175</v>
+      </c>
+      <c r="B44" s="3">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="E44" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>182</v>
-      </c>
-      <c r="B45" s="3">
+        <v>50</v>
+      </c>
+      <c r="B45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>183</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="B46" s="3">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="E46" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47">
+        <v>205</v>
+      </c>
+      <c r="B47" s="3">
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="E47" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>68</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
         <v>70</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="3">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>131</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B53" s="3">
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
-      </c>
-      <c r="E54" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
       </c>
       <c r="D55" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
         <v>143</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" s="3">
-        <v>0</v>
-      </c>
-      <c r="D56" t="s">
-        <v>146</v>
-      </c>
-      <c r="E56" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E57" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E58" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E59" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E60" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E61" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E62" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E63" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64">
+        <v>147</v>
+      </c>
+      <c r="B64" s="3">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="E64" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E66" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E67" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E68" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="E70" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E71" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="E72" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>93</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
         <v>95</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E74" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B74" s="3">
-        <v>0</v>
-      </c>
-      <c r="D74" t="s">
-        <v>104</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B75" s="3">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B76" s="3">
         <v>0</v>
@@ -2814,132 +2817,146 @@
         <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B77" s="3">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B78" s="3">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B79" s="3">
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B81" s="3">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B82" s="3">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B83" s="3">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B84" s="3">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>122</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B85" s="3">
-        <v>0</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="B86" s="3">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
         <v>125</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2957,7 +2974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="460" windowWidth="30260" windowHeight="21060"/>
+    <workbookView xWindow="8140" yWindow="460" windowWidth="30260" windowHeight="21060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
     <sheet name="hidden" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fragments!$A$2:$Z$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fragments!#REF!</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="431">
   <si>
     <t>name</t>
   </si>
@@ -51,15 +51,9 @@
     <t>Wachtwoord vergeten?</t>
   </si>
   <si>
-    <t>auth.login.button</t>
-  </si>
-  <si>
     <t>Log in</t>
   </si>
   <si>
-    <t>auth.login.title</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -81,27 +75,18 @@
     <t>auth.passwordMail.compellation</t>
   </si>
   <si>
-    <t>Che(è)r(e)</t>
-  </si>
-  <si>
     <t>Beste</t>
   </si>
   <si>
     <t>auth.passwordMail.intro</t>
   </si>
   <si>
-    <t>Vous avez accès à</t>
-  </si>
-  <si>
     <t>Je hebt toegang gekregen tot</t>
   </si>
   <si>
     <t>auth.passwordMail.linkValidUntil</t>
   </si>
   <si>
-    <t>Ce lien est valable jusqu'au</t>
-  </si>
-  <si>
     <t>Deze link is geldig tot</t>
   </si>
   <si>
@@ -120,9 +105,6 @@
     <t>auth.passwordMail.oldUser.resetButton</t>
   </si>
   <si>
-    <t>Changer mot de passe</t>
-  </si>
-  <si>
     <t>Wachtwoord wijzigen</t>
   </si>
   <si>
@@ -144,36 +126,24 @@
     <t>auth.register.toLogin</t>
   </si>
   <si>
-    <t>Vers login</t>
-  </si>
-  <si>
     <t>Naar login</t>
   </si>
   <si>
     <t>auth.resetPassword.button</t>
   </si>
   <si>
-    <t>envoyez-moi l'e-mail</t>
-  </si>
-  <si>
     <t>Mail me</t>
   </si>
   <si>
     <t>auth.resetPassword.intro</t>
   </si>
   <si>
-    <t>Donnez-nous votre adresse e-mail et nous vous envoyons un lien par lequel vous pouvez changer votre mot de passe</t>
-  </si>
-  <si>
     <t>Geef je e-mailadres op en we sturen je een link waarmee je je wachtwoord kan wijzigen</t>
   </si>
   <si>
     <t>auth.resetPassword.title</t>
   </si>
   <si>
-    <t>Demander mot de passe</t>
-  </si>
-  <si>
     <t>Wachtwoord opvragen</t>
   </si>
   <si>
@@ -183,9 +153,6 @@
     <t>auth.toRegistrationForm</t>
   </si>
   <si>
-    <t>Pas encore de profil?</t>
-  </si>
-  <si>
     <t>Nog geen profiel?</t>
   </si>
   <si>
@@ -537,9 +504,6 @@
     <t>auth.passwordConfirm</t>
   </si>
   <si>
-    <t>Les données ne sont pas correctes.</t>
-  </si>
-  <si>
     <t>De inloggegevens klopten niet.</t>
   </si>
   <si>
@@ -549,27 +513,18 @@
     <t>auth.titleChangePassword</t>
   </si>
   <si>
-    <t>Initialiser mot de passe</t>
-  </si>
-  <si>
     <t>auth.titleLogin</t>
   </si>
   <si>
     <t>auth.toLogin</t>
   </si>
   <si>
-    <t>Connecter?</t>
-  </si>
-  <si>
     <t>Inloggen?</t>
   </si>
   <si>
     <t>auth.resetPasswordIntro</t>
   </si>
   <si>
-    <t>Donnez votre adresse e-mail et nous vous envoyons un lien par lequel vous pouvez changer votre mot de passe.</t>
-  </si>
-  <si>
     <t>Geef je e-mailadres op en we sturen je een link waarmee je je wachtwoord kan wijzigen.</t>
   </si>
   <si>
@@ -579,18 +534,12 @@
     <t>auth.unknownUser</t>
   </si>
   <si>
-    <t>Cette adresse e-mail n'est pas connue.</t>
-  </si>
-  <si>
     <t>Er is niemand geregistreerd met dit e-mailadres.</t>
   </si>
   <si>
     <t>auth.resetInstructions</t>
   </si>
   <si>
-    <t>Votre nouveau mot de passe doit contenir au moins 8 caractères.</t>
-  </si>
-  <si>
     <t>Je nieuwe wachtwoord moet minstens 8 karakters lang zijn.</t>
   </si>
   <si>
@@ -603,120 +552,66 @@
     <t>auth.loggedOut</t>
   </si>
   <si>
-    <t>Vous êtes déconnecté(e).</t>
-  </si>
-  <si>
     <t>Je bent nu uitgelogd.</t>
   </si>
   <si>
     <t>auth.passwordChanged</t>
   </si>
   <si>
-    <t>Votre mot de passe a été changé.</t>
-  </si>
-  <si>
     <t>Uw wachtwoord werd gewijzigd.</t>
   </si>
   <si>
     <t>auth.correctFormErrors</t>
   </si>
   <si>
-    <t>Corrigez les erreurs plus bas.</t>
-  </si>
-  <si>
     <t>Corrigeer de fouten hieronder.</t>
   </si>
   <si>
     <t>auth.invalidResetLink</t>
   </si>
   <si>
-    <t>Ce lien n'est pas valable.</t>
-  </si>
-  <si>
     <t>Deze link is ongeldig.</t>
   </si>
   <si>
     <t>auth.notActivatedError</t>
   </si>
   <si>
-    <t>Votre compte n'est pas encore actif.</t>
-  </si>
-  <si>
     <t>Uw account is nog niet actief.</t>
   </si>
   <si>
     <t>auth.waitingForApproval</t>
   </si>
   <si>
-    <t>Nous avons reçu votre demande. Vous recevrez une confirmation dès qu'elle sera approuvée.</t>
-  </si>
-  <si>
     <t>Uw aanvraag is ontvangen. Er worden er bevestiging gestuurd zodra deze wordt goedgekeurd.</t>
   </si>
   <si>
     <t>auth.passwordMail.newUser.intro</t>
   </si>
   <si>
-    <t>Vous avez êtes admis l'accès à</t>
-  </si>
-  <si>
     <t>auth.passwordMail.newUser.resetButton</t>
   </si>
   <si>
-    <t>Spécifiez le mot de passe</t>
-  </si>
-  <si>
     <t>auth.oldUser.intro</t>
   </si>
   <si>
-    <t>Nous avons reçu une demande de changer votre mot de passe</t>
-  </si>
-  <si>
     <t>auth.oldUser.resetButton</t>
   </si>
   <si>
-    <t>Changer le mot de passe</t>
-  </si>
-  <si>
     <t>auth.oldUser.outro</t>
   </si>
   <si>
-    <t>Dans le cas où vous avez fait la demande noot une réinitialisation de mot de passe , ignorez ce e-mail.</t>
-  </si>
-  <si>
     <t>auth.linkValidUntil</t>
   </si>
   <si>
     <t>auth.logout.title</t>
   </si>
   <si>
-    <t>Mot de passe oublié?</t>
-  </si>
-  <si>
-    <t>Bienvenue dans les rôles informatisés du &lt;strong&gt;Tribunal de première instance francophone de Bruxelles&lt;/strong&gt;. Connectez-vous.</t>
-  </si>
-  <si>
-    <t>Nous avons reçu votre demande de changement de votre mot de passe Blender le</t>
-  </si>
-  <si>
-    <t>Fût-ce une demande fautive? Ignorez ce mail alors, votre ancien mot de passe reste valable.</t>
-  </si>
-  <si>
-    <t>Enregistrer mot de passe</t>
-  </si>
-  <si>
-    <t>Créez votre profil</t>
-  </si>
-  <si>
     <t>auth.resetLinkExpired</t>
   </si>
   <si>
     <t>Deze link is niet meer geldig.</t>
   </si>
   <si>
-    <t>Ce lien n'est plus valable.</t>
-  </si>
-  <si>
     <t>auth.failed</t>
   </si>
   <si>
@@ -1357,6 +1252,75 @@
   </si>
   <si>
     <t>auth.email</t>
+  </si>
+  <si>
+    <t>auth.register</t>
+  </si>
+  <si>
+    <t>Registreer</t>
+  </si>
+  <si>
+    <t>auth.login</t>
+  </si>
+  <si>
+    <t>auth.firstName</t>
+  </si>
+  <si>
+    <t>auth.lastName</t>
+  </si>
+  <si>
+    <t>auth.address</t>
+  </si>
+  <si>
+    <t>auth.postal</t>
+  </si>
+  <si>
+    <t>auth.city</t>
+  </si>
+  <si>
+    <t>auth.telephone</t>
+  </si>
+  <si>
+    <t>Adres</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>Stad</t>
+  </si>
+  <si>
+    <t>auth.country</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>auth.noAccount</t>
+  </si>
+  <si>
+    <t>Nog geen account?</t>
+  </si>
+  <si>
+    <t>back.auth.login</t>
+  </si>
+  <si>
+    <t>back.auth.password</t>
+  </si>
+  <si>
+    <t>back.auth.email</t>
+  </si>
+  <si>
+    <t>back.auth.forgotPassword</t>
+  </si>
+  <si>
+    <t>back.auth.resetPassword.title</t>
+  </si>
+  <si>
+    <t>back.auth.resetPassword.button</t>
+  </si>
+  <si>
+    <t>back.auth.resetPassword.intro</t>
   </si>
 </sst>
 </file>
@@ -1412,8 +1376,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1427,13 +1413,35 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1736,11 +1744,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z86"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1793,1171 +1801,548 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="3">
+        <v>50</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" s="3">
+        <v>53</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>442</v>
-      </c>
-      <c r="B4" s="3">
+        <v>56</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>199</v>
+      <c r="A6" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" t="s">
-        <v>200</v>
+        <v>120</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>218</v>
+      <c r="A7" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>23</v>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>190</v>
+      <c r="A8" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" t="s">
-        <v>191</v>
+        <v>123</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="A9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="A10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>132</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+        <v>133</v>
+      </c>
+      <c r="B11" s="3">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B13">
+        <v>142</v>
+      </c>
+      <c r="B13" s="3">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
       </c>
+      <c r="D15" t="s">
+        <v>153</v>
+      </c>
       <c r="E15" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
       </c>
+      <c r="D16" t="s">
+        <v>156</v>
+      </c>
       <c r="E16" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
       </c>
+      <c r="D17" t="s">
+        <v>141</v>
+      </c>
       <c r="E17" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18">
+        <v>136</v>
+      </c>
+      <c r="B18" s="3">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" s="3">
+        <v>61</v>
+      </c>
+      <c r="B19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>194</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="3">
+        <v>64</v>
+      </c>
+      <c r="B20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>210</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>211</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>223</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
+      <c r="A29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="3">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" t="s">
-        <v>224</v>
+        <v>93</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>226</v>
-      </c>
-      <c r="B30">
+      <c r="A30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="3">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>227</v>
-      </c>
-      <c r="E30" t="s">
-        <v>228</v>
+        <v>96</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
+      <c r="A31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="3">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" t="s">
-        <v>225</v>
+        <v>96</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32">
+      <c r="A32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="3">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" t="s">
-        <v>225</v>
+        <v>101</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33">
+      <c r="A33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="3">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" t="s">
-        <v>38</v>
+        <v>87</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>185</v>
+      <c r="A34" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>187</v>
-      </c>
-      <c r="E34" t="s">
-        <v>186</v>
+        <v>104</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
+      <c r="A35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="3">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" t="s">
-        <v>41</v>
+        <v>117</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36">
+      <c r="A36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="3">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" t="s">
-        <v>44</v>
+        <v>108</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37">
+      <c r="A37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="3">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" t="s">
-        <v>47</v>
+        <v>104</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38">
+      <c r="A38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="3">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s">
-        <v>38</v>
+        <v>90</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>181</v>
+      <c r="A39" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" t="s">
-        <v>42</v>
+        <v>111</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>178</v>
+      <c r="A40" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>180</v>
-      </c>
-      <c r="E40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>172</v>
-      </c>
-      <c r="B41" s="3">
-        <v>0</v>
-      </c>
-      <c r="D41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" s="3">
-        <v>0</v>
-      </c>
-      <c r="D42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>171</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>175</v>
-      </c>
-      <c r="B44" s="3">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>177</v>
-      </c>
-      <c r="E44" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>182</v>
-      </c>
-      <c r="B46" s="3">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>184</v>
-      </c>
-      <c r="E46" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>205</v>
-      </c>
-      <c r="B47" s="3">
-        <v>0</v>
-      </c>
-      <c r="D47" t="s">
-        <v>207</v>
-      </c>
-      <c r="E47" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="D48" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="D50" t="s">
-        <v>57</v>
-      </c>
-      <c r="E50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="3">
-        <v>0</v>
-      </c>
-      <c r="D52" t="s">
-        <v>131</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B53" s="3">
-        <v>0</v>
-      </c>
-      <c r="D53" t="s">
-        <v>137</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" s="3">
-        <v>0</v>
-      </c>
-      <c r="D54" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B55" s="3">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>140</v>
-      </c>
-      <c r="E55" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="3">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>143</v>
-      </c>
-      <c r="E56" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>144</v>
-      </c>
-      <c r="B57" s="3">
-        <v>0</v>
-      </c>
-      <c r="D57" t="s">
-        <v>146</v>
-      </c>
-      <c r="E57" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>156</v>
-      </c>
-      <c r="B58" s="3">
-        <v>0</v>
-      </c>
-      <c r="D58" t="s">
-        <v>158</v>
-      </c>
-      <c r="E58" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>153</v>
-      </c>
-      <c r="B59" s="3">
-        <v>0</v>
-      </c>
-      <c r="D59" t="s">
-        <v>155</v>
-      </c>
-      <c r="E59" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>159</v>
-      </c>
-      <c r="B60" s="3">
-        <v>0</v>
-      </c>
-      <c r="D60" t="s">
-        <v>161</v>
-      </c>
-      <c r="E60" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>162</v>
-      </c>
-      <c r="B61" s="3">
-        <v>0</v>
-      </c>
-      <c r="D61" t="s">
-        <v>164</v>
-      </c>
-      <c r="E61" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>165</v>
-      </c>
-      <c r="B62" s="3">
-        <v>0</v>
-      </c>
-      <c r="D62" t="s">
-        <v>167</v>
-      </c>
-      <c r="E62" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>150</v>
-      </c>
-      <c r="B63" s="3">
-        <v>0</v>
-      </c>
-      <c r="D63" t="s">
-        <v>152</v>
-      </c>
-      <c r="E63" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>147</v>
-      </c>
-      <c r="B64" s="3">
-        <v>0</v>
-      </c>
-      <c r="D64" t="s">
-        <v>149</v>
-      </c>
-      <c r="E64" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="D65" t="s">
-        <v>74</v>
-      </c>
-      <c r="E65" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>75</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="D66" t="s">
-        <v>55</v>
-      </c>
-      <c r="E66" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="D67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="D68" t="s">
-        <v>81</v>
-      </c>
-      <c r="E68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="D69" t="s">
-        <v>84</v>
-      </c>
-      <c r="E69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>85</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="D70" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>86</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="D71" t="s">
-        <v>88</v>
-      </c>
-      <c r="E71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="D72" t="s">
-        <v>54</v>
-      </c>
-      <c r="E72" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="D73" t="s">
-        <v>92</v>
-      </c>
-      <c r="E73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>93</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="D74" t="s">
-        <v>95</v>
-      </c>
-      <c r="E74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B75" s="3">
-        <v>0</v>
-      </c>
-      <c r="D75" t="s">
-        <v>104</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B76" s="3">
-        <v>0</v>
-      </c>
-      <c r="D76" t="s">
-        <v>107</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B77" s="3">
-        <v>0</v>
-      </c>
-      <c r="D77" t="s">
-        <v>107</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B78" s="3">
-        <v>0</v>
-      </c>
-      <c r="D78" t="s">
-        <v>112</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B79" s="3">
-        <v>0</v>
-      </c>
-      <c r="D79" t="s">
-        <v>98</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B80" s="3">
-        <v>0</v>
-      </c>
-      <c r="D80" t="s">
-        <v>115</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B81" s="3">
-        <v>0</v>
-      </c>
-      <c r="D81" t="s">
-        <v>128</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B82" s="3">
-        <v>0</v>
-      </c>
-      <c r="D82" t="s">
-        <v>119</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B83" s="3">
-        <v>0</v>
-      </c>
-      <c r="D83" t="s">
-        <v>115</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B84" s="3">
-        <v>0</v>
-      </c>
-      <c r="D84" t="s">
-        <v>101</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B85" s="3">
-        <v>0</v>
-      </c>
-      <c r="D85" t="s">
-        <v>122</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B86" s="3">
-        <v>0</v>
-      </c>
-      <c r="D86" t="s">
-        <v>125</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2972,10 +2357,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z123"/>
+  <dimension ref="A1:Z185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3020,999 +2405,1615 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="E5" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="E6" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="E7" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="E11" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="E12" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="E13" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="E15" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="E16" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="E17" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="E18" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="E21" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="E23" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="E24" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="E25" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="E26" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="E27" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="E29" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="E31" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="E32" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="E33" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="E34" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="E35" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="E36" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="C37" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="E37" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="C38" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="E38" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C39" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="E39" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C40" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="E40" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="E41" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C42" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="E42" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="E43" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="E44" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="E45" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="E46" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="E47" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="E48" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="E49" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="E50" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="E51" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="E52" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="E53" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="E54" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="E55" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="E56" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="E57" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="E58" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="E59" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="E60" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="E61" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="E62" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="E63" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="E64" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="E65" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="E66" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="E67" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="E68" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="E69" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="E70" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="E71" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="E72" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="E73" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="E74" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="E75" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="E76" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="E77" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="E78" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="E79" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="E80" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="E81" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="E82" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="E83" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="E84" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="E85" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="E86" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="E87" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="E88" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="E89" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="E90" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="E91" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="E92" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="E93" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="E94" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="E95" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="E96" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="E97" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="E98" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="E99" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="E100" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="E101" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="E102" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="E103" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="E104" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="E105" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="E106" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="E107" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="E108" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="E109" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="E110" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="E111" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="E112" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="E113" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="E114" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="E115" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="E116" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="E117" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="E118" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="E119" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="E120" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="E121" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="E122" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="E123" t="s">
-        <v>441</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E124" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>171</v>
+      </c>
+      <c r="B128" s="3">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>177</v>
+      </c>
+      <c r="B129" s="3">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>407</v>
+      </c>
+      <c r="B130" s="3">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>179</v>
+      </c>
+      <c r="B132" s="3">
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>190</v>
+      </c>
+      <c r="B133" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>173</v>
+      </c>
+      <c r="B134" s="3">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>410</v>
+      </c>
+      <c r="B135" s="3">
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>194</v>
+      </c>
+      <c r="B137" s="3">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>191</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>181</v>
+      </c>
+      <c r="B139" s="3">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>187</v>
+      </c>
+      <c r="B140" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>189</v>
+      </c>
+      <c r="B141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>188</v>
+      </c>
+      <c r="B142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>175</v>
+      </c>
+      <c r="B144" s="3">
+        <v>0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" s="3">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>18</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>185</v>
+      </c>
+      <c r="B149" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>186</v>
+      </c>
+      <c r="B150" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>22</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>26</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>192</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>408</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>30</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>31</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>169</v>
+      </c>
+      <c r="B160" s="3">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>33</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>35</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>37</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>39</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" s="3">
+        <v>0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" s="3">
+        <v>0</v>
+      </c>
+      <c r="E166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>160</v>
+      </c>
+      <c r="B167" s="3">
+        <v>0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>161</v>
+      </c>
+      <c r="B168" s="3">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>159</v>
+      </c>
+      <c r="B169" s="3">
+        <v>0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>162</v>
+      </c>
+      <c r="B170" s="3">
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>40</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>167</v>
+      </c>
+      <c r="B172" s="3">
+        <v>0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>183</v>
+      </c>
+      <c r="B173" s="3">
+        <v>0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E174" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E175" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E176" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E178" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E179" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E181" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E182" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>430</v>
+      </c>
+      <c r="E183" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>429</v>
+      </c>
+      <c r="E184" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E185" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="452">
   <si>
     <t>name</t>
   </si>
@@ -30,58 +30,1177 @@
     <t>text_nl</t>
   </si>
   <si>
+    <t>text_fr</t>
+  </si>
+  <si>
     <t>error.text.401</t>
   </si>
   <si>
     <t>U heeft geen toegang tot deze pagina</t>
   </si>
   <si>
+    <t>Vous ne pouvez pas accéder à cette page</t>
+  </si>
+  <si>
     <t>error.text.404</t>
   </si>
   <si>
     <t>Deze pagina kon niet gevonden worden</t>
   </si>
   <si>
+    <t>Cette page n'a pas pu être trouvé</t>
+  </si>
+  <si>
     <t>error.title</t>
   </si>
   <si>
     <t>Er liep iets mis</t>
   </si>
   <si>
+    <t>Quelque chose a mal tourné</t>
+  </si>
+  <si>
     <t>error.toHome</t>
   </si>
   <si>
     <t>Naar home</t>
   </si>
   <si>
+    <t>Vers home</t>
+  </si>
+  <si>
+    <t>pagination.next</t>
+  </si>
+  <si>
+    <t>Volgende &amp;raquo;</t>
+  </si>
+  <si>
+    <t>Suivant &amp;raquo;</t>
+  </si>
+  <si>
+    <t>pagination.previous</t>
+  </si>
+  <si>
+    <t>&amp;laquo; Vorige</t>
+  </si>
+  <si>
+    <t>&amp;laquo; Précédent</t>
+  </si>
+  <si>
+    <t>profile.email</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>profile.firstName</t>
+  </si>
+  <si>
+    <t>Voornaam</t>
+  </si>
+  <si>
+    <t>Prénom</t>
+  </si>
+  <si>
+    <t>profile.lastName</t>
+  </si>
+  <si>
+    <t>Achternaam</t>
+  </si>
+  <si>
+    <t>Nom de famille</t>
+  </si>
+  <si>
+    <t>profile.messages.saved</t>
+  </si>
+  <si>
+    <t>Uw profiel werd bewaard</t>
+  </si>
+  <si>
+    <t>Votre profil a été sauvegardé</t>
+  </si>
+  <si>
+    <t>profile.password</t>
+  </si>
+  <si>
+    <t>Wachtwoord</t>
+  </si>
+  <si>
+    <t>Mot de passe</t>
+  </si>
+  <si>
+    <t>profile.passwordAgain</t>
+  </si>
+  <si>
+    <t>Bevestig wachtwoord</t>
+  </si>
+  <si>
+    <t>Confirmer mot de passe</t>
+  </si>
+  <si>
+    <t>profile.submit</t>
+  </si>
+  <si>
+    <t>Bewaar</t>
+  </si>
+  <si>
+    <t>Sauvegarder</t>
+  </si>
+  <si>
+    <t>profile.telephone</t>
+  </si>
+  <si>
+    <t>Telefoon</t>
+  </si>
+  <si>
+    <t>Téléphone</t>
+  </si>
+  <si>
+    <t>profile.title</t>
+  </si>
+  <si>
+    <t>Profiel</t>
+  </si>
+  <si>
+    <t>Profil</t>
+  </si>
+  <si>
+    <t>auth.address</t>
+  </si>
+  <si>
+    <t>Adres</t>
+  </si>
+  <si>
+    <t>auth.changePassword</t>
+  </si>
+  <si>
+    <t>Wijzig wachtwoord</t>
+  </si>
+  <si>
+    <t>Changer mot de passe</t>
+  </si>
+  <si>
+    <t>auth.city</t>
+  </si>
+  <si>
+    <t>Stad</t>
+  </si>
+  <si>
+    <t>auth.correctFormErrors</t>
+  </si>
+  <si>
+    <t>Corrigeer de fouten hieronder.</t>
+  </si>
+  <si>
+    <t>Corrigez les erreurs plus bas.</t>
+  </si>
+  <si>
+    <t>auth.country</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>auth.email</t>
+  </si>
+  <si>
+    <t>auth.failed</t>
+  </si>
+  <si>
+    <t>De inloggegevens klopten niet.</t>
+  </si>
+  <si>
+    <t>auth.firstName</t>
+  </si>
+  <si>
+    <t>auth.forgotPassword</t>
+  </si>
+  <si>
+    <t>Wachtwoord vergeten?</t>
+  </si>
+  <si>
+    <t>Mot de passe oublié?</t>
+  </si>
+  <si>
+    <t>auth.invalidResetLink</t>
+  </si>
+  <si>
+    <t>Deze link is ongeldig.</t>
+  </si>
+  <si>
+    <t>Ce lien n'est pas valable.</t>
+  </si>
+  <si>
+    <t>auth.lastName</t>
+  </si>
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>auth.linkValidUntil</t>
+  </si>
+  <si>
+    <t>Ce lien est valable jusqu'au</t>
+  </si>
+  <si>
+    <t>auth.loggedOut</t>
+  </si>
+  <si>
+    <t>Je bent nu uitgelogd.</t>
+  </si>
+  <si>
+    <t>Vous êtes déconnecté(e).</t>
+  </si>
+  <si>
+    <t>auth.login</t>
+  </si>
+  <si>
+    <t>Log in</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>auth.login.welcome</t>
+  </si>
+  <si>
+    <t>Welkom bij Blender. Gelieve hier in te loggen.</t>
+  </si>
+  <si>
+    <t>auth.logout.title</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>auth.noAccount</t>
+  </si>
+  <si>
+    <t>Nog geen account?</t>
+  </si>
+  <si>
+    <t>Les données ne sont pas correctes.</t>
+  </si>
+  <si>
+    <t>auth.notActivatedError</t>
+  </si>
+  <si>
+    <t>Uw account is nog niet actief.</t>
+  </si>
+  <si>
+    <t>Votre compte n'est pas encore actif.</t>
+  </si>
+  <si>
+    <t>auth.oldUser.intro</t>
+  </si>
+  <si>
+    <t>auth.oldUser.outro</t>
+  </si>
+  <si>
+    <t>auth.oldUser.resetButton</t>
+  </si>
+  <si>
+    <t>auth.password</t>
+  </si>
+  <si>
+    <t>auth.passwordChanged</t>
+  </si>
+  <si>
+    <t>Uw wachtwoord werd gewijzigd.</t>
+  </si>
+  <si>
+    <t>Votre mot de passe a été changé.</t>
+  </si>
+  <si>
+    <t>auth.passwordConfirm</t>
+  </si>
+  <si>
+    <t>auth.passwordMail.compellation</t>
+  </si>
+  <si>
+    <t>Beste</t>
+  </si>
+  <si>
+    <t>Che(è)r(e)</t>
+  </si>
+  <si>
+    <t>auth.passwordMail.intro</t>
+  </si>
+  <si>
+    <t>Je hebt toegang gekregen tot</t>
+  </si>
+  <si>
+    <t>Vous avez êtes admis l'accès à</t>
+  </si>
+  <si>
+    <t>auth.passwordMail.linkValidUntil</t>
+  </si>
+  <si>
+    <t>Deze link is geldig tot</t>
+  </si>
+  <si>
+    <t>auth.passwordMail.newUser.intro</t>
+  </si>
+  <si>
+    <t>auth.passwordMail.newUser.resetButton</t>
+  </si>
+  <si>
+    <t>auth.passwordMail.oldUser.intro</t>
+  </si>
+  <si>
+    <t>We ontvingen je vraag om je Blender wachtwoord te wijzigen op</t>
+  </si>
+  <si>
+    <t>Nous avons reçu une demande de changer votre mot de passe</t>
+  </si>
+  <si>
+    <t>auth.passwordMail.oldUser.outro</t>
+  </si>
+  <si>
+    <t>Was het een foutieve aanvraag? Negeer dan deze e-mail, je oude paswoord blijft gewoon werken.</t>
+  </si>
+  <si>
+    <t>Dans le cas où vous avez fait la demande noot une réinitialisation de mot de passe , ignorez ce e-mail.</t>
+  </si>
+  <si>
+    <t>auth.passwordMail.oldUser.resetButton</t>
+  </si>
+  <si>
+    <t>Wachtwoord wijzigen</t>
+  </si>
+  <si>
+    <t>Changer le mot de passe</t>
+  </si>
+  <si>
+    <t>auth.passwordMail.resetButton</t>
+  </si>
+  <si>
+    <t>Wachtwoord instellen</t>
+  </si>
+  <si>
+    <t>auth.postal</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>auth.register</t>
+  </si>
+  <si>
+    <t>Registreer</t>
+  </si>
+  <si>
+    <t>auth.register.submit</t>
+  </si>
+  <si>
+    <t>Maak profiel aan</t>
+  </si>
+  <si>
+    <t>Créez votre profil</t>
+  </si>
+  <si>
+    <t>auth.register.title</t>
+  </si>
+  <si>
+    <t>auth.register.toLogin</t>
+  </si>
+  <si>
+    <t>Naar login</t>
+  </si>
+  <si>
+    <t>Vers login</t>
+  </si>
+  <si>
+    <t>auth.resetInstructions</t>
+  </si>
+  <si>
+    <t>Je nieuwe wachtwoord moet minstens 8 karakters lang zijn.</t>
+  </si>
+  <si>
+    <t>Votre nouveau mot de passe doit contenir au moins 8 caractères.</t>
+  </si>
+  <si>
+    <t>auth.resetLinkExpired</t>
+  </si>
+  <si>
+    <t>Deze link is niet meer geldig.</t>
+  </si>
+  <si>
+    <t>Ce lien n'est plus valable.</t>
+  </si>
+  <si>
+    <t>auth.resetPassword.button</t>
+  </si>
+  <si>
+    <t>Mail me</t>
+  </si>
+  <si>
+    <t>Envoyez-moi l'e-mail</t>
+  </si>
+  <si>
+    <t>auth.resetPassword.intro</t>
+  </si>
+  <si>
+    <t>Geef je e-mailadres op en we sturen je een link waarmee je je wachtwoord kan wijzigen</t>
+  </si>
+  <si>
+    <t>Donnez-nous votre adresse e-mail et nous vous envoyons un lien par lequel vous pouvez changer votre mot de passe</t>
+  </si>
+  <si>
+    <t>auth.resetPassword.title</t>
+  </si>
+  <si>
+    <t>Wachtwoord opvragen</t>
+  </si>
+  <si>
+    <t>Demander mot de passe</t>
+  </si>
+  <si>
+    <t>auth.resetPassword.toLogin</t>
+  </si>
+  <si>
+    <t>auth.resetPasswordButton</t>
+  </si>
+  <si>
+    <t>auth.resetPasswordIntro</t>
+  </si>
+  <si>
+    <t>Geef je e-mailadres op en we sturen je een link waarmee je je wachtwoord kan wijzigen.</t>
+  </si>
+  <si>
+    <t>Donnez votre adresse e-mail et nous vous envoyons un lien par lequel vous pouvez changer votre mot de passe.</t>
+  </si>
+  <si>
+    <t>auth.telephone</t>
+  </si>
+  <si>
+    <t>Initialiser mot de passe</t>
+  </si>
+  <si>
+    <t>auth.titleChangePassword</t>
+  </si>
+  <si>
+    <t>auth.titleLogin</t>
+  </si>
+  <si>
+    <t>auth.titleResetPassword</t>
+  </si>
+  <si>
+    <t>auth.toLogin</t>
+  </si>
+  <si>
+    <t>Inloggen?</t>
+  </si>
+  <si>
+    <t>Connecter?</t>
+  </si>
+  <si>
+    <t>auth.toRegistrationForm</t>
+  </si>
+  <si>
+    <t>Nog geen profiel?</t>
+  </si>
+  <si>
+    <t>Pas encore de profil?</t>
+  </si>
+  <si>
+    <t>auth.unknownUser</t>
+  </si>
+  <si>
+    <t>Er is niemand geregistreerd met dit e-mailadres.</t>
+  </si>
+  <si>
+    <t>Cette adresse e-mail n'est pas connue.</t>
+  </si>
+  <si>
+    <t>auth.waitingForApproval</t>
+  </si>
+  <si>
+    <t>Uw aanvraag is ontvangen. Er worden er bevestiging gestuurd zodra deze wordt goedgekeurd.</t>
+  </si>
+  <si>
+    <t>Nous avons reçu votre demande. Vous recevrez une confirmation dès qu'elle sera approuvée.</t>
+  </si>
+  <si>
+    <t>back.addFile</t>
+  </si>
+  <si>
+    <t>Voeg bestand toe</t>
+  </si>
+  <si>
+    <t>back.addImage</t>
+  </si>
+  <si>
+    <t>Voeg afbeelding toe</t>
+  </si>
+  <si>
+    <t>back.articles.downloads</t>
+  </si>
+  <si>
+    <t>Downloads</t>
+  </si>
+  <si>
+    <t>back.articles.images</t>
+  </si>
+  <si>
+    <t>Afbeeldingen</t>
+  </si>
+  <si>
+    <t>back.articles.location</t>
+  </si>
+  <si>
+    <t>Locatie</t>
+  </si>
+  <si>
+    <t>back.articles.name</t>
+  </si>
+  <si>
+    <t>back.articles.new</t>
+  </si>
+  <si>
+    <t>Nieuw artikel</t>
+  </si>
+  <si>
+    <t>back.articles.online</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>back.articles.publish_date</t>
+  </si>
+  <si>
+    <t>Publicatiedatum</t>
+  </si>
+  <si>
+    <t>back.articles.save</t>
+  </si>
+  <si>
+    <t>Bewaar artikel</t>
+  </si>
+  <si>
+    <t>back.articles.singular</t>
+  </si>
+  <si>
+    <t>Artikel</t>
+  </si>
+  <si>
+    <t>back.articles.tags</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>back.articles.text</t>
+  </si>
+  <si>
+    <t>Tekst</t>
+  </si>
+  <si>
+    <t>back.articles.title</t>
+  </si>
+  <si>
+    <t>Artikels</t>
+  </si>
+  <si>
+    <t>back.auth.email</t>
+  </si>
+  <si>
+    <t>back.auth.forgotPassword</t>
+  </si>
+  <si>
+    <t>back.auth.login</t>
+  </si>
+  <si>
+    <t>back.auth.password</t>
+  </si>
+  <si>
+    <t>back.auth.resetPassword.button</t>
+  </si>
+  <si>
+    <t>back.auth.resetPassword.intro</t>
+  </si>
+  <si>
+    <t>back.auth.resetPassword.title</t>
+  </si>
+  <si>
+    <t>back.backUsers.administrator</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>back.backUsers.automaticCredentialsMailInfo</t>
+  </si>
+  <si>
+    <t>Zodra je deze nieuwe administrator bewaart, zullen we hem/haar een e-mail sturen met een link om het wachtwoord in te stellen.</t>
+  </si>
+  <si>
+    <t>back.backUsers.first_name</t>
+  </si>
+  <si>
+    <t>back.backUsers.gravatarInfo</t>
+  </si>
+  <si>
+    <t>Je kan deze avatar instellen op</t>
+  </si>
+  <si>
+    <t>back.backUsers.justNow</t>
+  </si>
+  <si>
+    <t>Zonet</t>
+  </si>
+  <si>
+    <t>back.backUsers.last_name</t>
+  </si>
+  <si>
+    <t>back.backUsers.lastActivity</t>
+  </si>
+  <si>
+    <t>Laatste activiteit</t>
+  </si>
+  <si>
+    <t>back.backUsers.locale</t>
+  </si>
+  <si>
+    <t>Taal</t>
+  </si>
+  <si>
+    <t>back.backUsers.name</t>
+  </si>
+  <si>
+    <t>back.backUsers.neverLoggedIn</t>
+  </si>
+  <si>
+    <t>Nog niet ingelogd</t>
+  </si>
+  <si>
+    <t>back.backUsers.new</t>
+  </si>
+  <si>
+    <t>Nieuwe administrator</t>
+  </si>
+  <si>
+    <t>back.backUsers.password</t>
+  </si>
+  <si>
+    <t>back.backUsers.passwordChangeInfo</t>
+  </si>
+  <si>
+    <t>Vul onderstaande velden enkel in als je het wachtwoord wil wijzigen.</t>
+  </si>
+  <si>
+    <t>back.backUsers.passwordConfirmation</t>
+  </si>
+  <si>
+    <t>back.backUsers.passwordMailSent</t>
+  </si>
+  <si>
+    <t>Er is een mail verstuurd waarmee deze gebruiker zelf een wachtwoord kan instellen.</t>
+  </si>
+  <si>
+    <t>back.backUsers.save</t>
+  </si>
+  <si>
+    <t>Bewaar administrator</t>
+  </si>
+  <si>
+    <t>back.backUsers.title</t>
+  </si>
+  <si>
+    <t>Administrators</t>
+  </si>
+  <si>
+    <t>back.change</t>
+  </si>
+  <si>
+    <t>wijzig</t>
+  </si>
+  <si>
+    <t>back.environment.production</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>back.environment.test</t>
+  </si>
+  <si>
+    <t>testomgeving</t>
+  </si>
+  <si>
+    <t>back.events.activated</t>
+  </si>
+  <si>
+    <t>:name werd geactiveerd</t>
+  </si>
+  <si>
+    <t>back.events.created</t>
+  </si>
+  <si>
+    <t>:name werd aangemaakt</t>
+  </si>
+  <si>
+    <t>back.events.deleted</t>
+  </si>
+  <si>
+    <t>:name werd verwijderd</t>
+  </si>
+  <si>
+    <t>back.events.updated</t>
+  </si>
+  <si>
+    <t>:name werd bijgewerkt</t>
+  </si>
+  <si>
+    <t>back.formResponses.download</t>
+  </si>
+  <si>
+    <t>Download reacties</t>
+  </si>
+  <si>
+    <t>back.formResponses.info</t>
+  </si>
+  <si>
+    <t>De reacties worden standaard gemaild naar &lt;strong&gt;recipients&lt;/strong&gt;. Download hier de backup van alle reacties als .xlsx-bestand (Excel).</t>
+  </si>
+  <si>
+    <t>back.formResponses.title</t>
+  </si>
+  <si>
+    <t>Reacties</t>
+  </si>
+  <si>
+    <t>back.fragments.content</t>
+  </si>
+  <si>
+    <t>Inhoud</t>
+  </si>
+  <si>
+    <t>back.fragments.name</t>
+  </si>
+  <si>
+    <t>back.fragments.save</t>
+  </si>
+  <si>
+    <t>Bewaar fragment</t>
+  </si>
+  <si>
+    <t>back.fragments.text</t>
+  </si>
+  <si>
+    <t>back.fragments.title</t>
+  </si>
+  <si>
+    <t>Fragmenten</t>
+  </si>
+  <si>
+    <t>back.frontUsers.automaticCredentialsMailInfo</t>
+  </si>
+  <si>
+    <t>Zodra je dit nieuw lid bewaart, zullen we hem/haar een e-mail sturen met een link om het wachtwoord in te stellen.</t>
+  </si>
+  <si>
+    <t>back.frontUsers.first_name</t>
+  </si>
+  <si>
+    <t>back.frontUsers.justNow</t>
+  </si>
+  <si>
+    <t>back.frontUsers.last_name</t>
+  </si>
+  <si>
+    <t>back.frontUsers.lastActivity</t>
+  </si>
+  <si>
+    <t>back.frontUsers.locale</t>
+  </si>
+  <si>
+    <t>back.frontUsers.member</t>
+  </si>
+  <si>
+    <t>Lid</t>
+  </si>
+  <si>
+    <t>back.frontUsers.name</t>
+  </si>
+  <si>
+    <t>back.frontUsers.neverLoggedIn</t>
+  </si>
+  <si>
+    <t>back.frontUsers.new</t>
+  </si>
+  <si>
+    <t>Nieuw lid</t>
+  </si>
+  <si>
+    <t>back.frontUsers.passwordChangeInfo</t>
+  </si>
+  <si>
+    <t>Hier kan je een wachtwoord reset link naar de gebruiker sturen.</t>
+  </si>
+  <si>
+    <t>back.frontUsers.passwordMailSent</t>
+  </si>
+  <si>
+    <t>back.frontUsers.save</t>
+  </si>
+  <si>
+    <t>Bewaar lid</t>
+  </si>
+  <si>
+    <t>back.frontUsers.sendResetLink</t>
+  </si>
+  <si>
+    <t>Reset link versturen</t>
+  </si>
+  <si>
+    <t>back.frontUsers.title</t>
+  </si>
+  <si>
+    <t>Leden</t>
+  </si>
+  <si>
+    <t>back.locationpicker.search</t>
+  </si>
+  <si>
+    <t>Zoek adres</t>
+  </si>
+  <si>
+    <t>back.locationpicker.submit</t>
+  </si>
+  <si>
+    <t>Zoek</t>
+  </si>
+  <si>
+    <t>back.log.description</t>
+  </si>
+  <si>
+    <t>Beschrijving</t>
+  </si>
+  <si>
+    <t>back.log.fullLog</t>
+  </si>
+  <si>
+    <t>Bekijk het hele log</t>
+  </si>
+  <si>
+    <t>back.log.recentActivity</t>
+  </si>
+  <si>
+    <t>Recente activiteit</t>
+  </si>
+  <si>
+    <t>back.log.time</t>
+  </si>
+  <si>
+    <t>Tijdstip</t>
+  </si>
+  <si>
+    <t>back.log.user</t>
+  </si>
+  <si>
+    <t>Gebruiker</t>
+  </si>
+  <si>
+    <t>back.name</t>
+  </si>
+  <si>
+    <t>back.newsItems.downloads</t>
+  </si>
+  <si>
+    <t>back.newsItems.images</t>
+  </si>
+  <si>
+    <t>back.newsItems.name</t>
+  </si>
+  <si>
+    <t>back.newsItems.new</t>
+  </si>
+  <si>
+    <t>Nieuw nieuwsbericht</t>
+  </si>
+  <si>
+    <t>back.newsItems.news_category</t>
+  </si>
+  <si>
+    <t>Categorie</t>
+  </si>
+  <si>
+    <t>back.newsItems.news_tag</t>
+  </si>
+  <si>
+    <t>back.newsItems.online</t>
+  </si>
+  <si>
+    <t>back.newsItems.publish_date</t>
+  </si>
+  <si>
+    <t>back.newsItems.save</t>
+  </si>
+  <si>
+    <t>Bewaar nieuwsbericht</t>
+  </si>
+  <si>
+    <t>back.newsItems.singular</t>
+  </si>
+  <si>
+    <t>Nieuwsbericht</t>
+  </si>
+  <si>
+    <t>back.newsItems.tags</t>
+  </si>
+  <si>
+    <t>back.newsItems.text</t>
+  </si>
+  <si>
+    <t>back.newsItems.title</t>
+  </si>
+  <si>
+    <t>Nieuws</t>
+  </si>
+  <si>
+    <t>back.people.career</t>
+  </si>
+  <si>
+    <t>Loopbaan</t>
+  </si>
+  <si>
+    <t>back.people.email</t>
+  </si>
+  <si>
+    <t>back.people.function</t>
+  </si>
+  <si>
+    <t>Functiebeschrijving</t>
+  </si>
+  <si>
+    <t>back.people.images</t>
+  </si>
+  <si>
+    <t>back.people.name</t>
+  </si>
+  <si>
+    <t>back.people.new</t>
+  </si>
+  <si>
+    <t>Nieuw persoon</t>
+  </si>
+  <si>
+    <t>back.people.online</t>
+  </si>
+  <si>
+    <t>back.people.save</t>
+  </si>
+  <si>
+    <t>Bewaar persoon</t>
+  </si>
+  <si>
+    <t>back.people.singular</t>
+  </si>
+  <si>
+    <t>Persoon</t>
+  </si>
+  <si>
+    <t>back.people.telephone</t>
+  </si>
+  <si>
+    <t>Telefoonnummer</t>
+  </si>
+  <si>
+    <t>back.people.title</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>back.people.type</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>back.since</t>
+  </si>
+  <si>
+    <t>sinds</t>
+  </si>
+  <si>
+    <t>back.statistics.browsers</t>
+  </si>
+  <si>
+    <t>Browsers</t>
+  </si>
+  <si>
+    <t>back.statistics.keyword</t>
+  </si>
+  <si>
+    <t>Zoekterm</t>
+  </si>
+  <si>
+    <t>back.statistics.menuTitle</t>
+  </si>
+  <si>
+    <t>Statistieken</t>
+  </si>
+  <si>
+    <t>back.statistics.mostUsedBrowsers</t>
+  </si>
+  <si>
+    <t>Meeste gebruikte browsers</t>
+  </si>
+  <si>
+    <t>back.statistics.mostUsedKeywords</t>
+  </si>
+  <si>
+    <t>Meest gebruikte zoektermen</t>
+  </si>
+  <si>
+    <t>back.statistics.mostVisitedPages</t>
+  </si>
+  <si>
+    <t>Meest bezochte pagina's</t>
+  </si>
+  <si>
+    <t>back.statistics.noData</t>
+  </si>
+  <si>
+    <t>Er zijn nog geen gegevens beschikbaar.</t>
+  </si>
+  <si>
+    <t>back.statistics.notConfigured</t>
+  </si>
+  <si>
+    <t>Analytics is nog niet geconfigureerd.</t>
+  </si>
+  <si>
+    <t>back.statistics.numberOfVisitors</t>
+  </si>
+  <si>
+    <t>Aantal bezoekers</t>
+  </si>
+  <si>
+    <t>back.statistics.page</t>
+  </si>
+  <si>
+    <t>Pagina</t>
+  </si>
+  <si>
+    <t>back.statistics.sessions</t>
+  </si>
+  <si>
+    <t>Sessies</t>
+  </si>
+  <si>
+    <t>back.statistics.source</t>
+  </si>
+  <si>
+    <t>Bron</t>
+  </si>
+  <si>
+    <t>back.statistics.sources</t>
+  </si>
+  <si>
+    <t>Bronnen</t>
+  </si>
+  <si>
+    <t>back.statistics.title</t>
+  </si>
+  <si>
+    <t>Statistieken afgelopen jaar</t>
+  </si>
+  <si>
+    <t>back.statistics.visitors</t>
+  </si>
+  <si>
+    <t>Bezoekers</t>
+  </si>
+  <si>
+    <t>back.statistics.visits</t>
+  </si>
+  <si>
+    <t>Bezoeken</t>
+  </si>
+  <si>
+    <t>back.tags.description</t>
+  </si>
+  <si>
+    <t>back.tags.name</t>
+  </si>
+  <si>
+    <t>back.tags.new</t>
+  </si>
+  <si>
+    <t>Nieuwe tag</t>
+  </si>
+  <si>
+    <t>back.tags.online</t>
+  </si>
+  <si>
+    <t>back.tags.save</t>
+  </si>
+  <si>
+    <t>Bewaar tag</t>
+  </si>
+  <si>
+    <t>back.tags.singular</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>back.tags.title</t>
+  </si>
+  <si>
+    <t>back.tags.type</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>back.tags.types.news_category</t>
+  </si>
+  <si>
+    <t>Nieuwscategorie</t>
+  </si>
+  <si>
+    <t>back.tags.types.news_tag</t>
+  </si>
+  <si>
+    <t>Nieuwstag</t>
+  </si>
+  <si>
+    <t>deprecatedBrowser</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Je gebruikt een &lt;strong&gt;verouderde&lt;/strong&gt; browser. &lt;a href="http://browsehappy.com/"&gt;Upgrade je browser&lt;/a&gt; om vlotter te werken met sites als deze.&lt;/p&gt;'</t>
+  </si>
+  <si>
     <t>locales.en</t>
   </si>
   <si>
     <t>Engels</t>
   </si>
   <si>
+    <t>Anglais</t>
+  </si>
+  <si>
     <t>locales.fr</t>
   </si>
   <si>
     <t>Frans</t>
   </si>
   <si>
+    <t>Français</t>
+  </si>
+  <si>
     <t>locales.nl</t>
   </si>
   <si>
     <t>Nederlands</t>
   </si>
   <si>
-    <t>pagination.next</t>
-  </si>
-  <si>
-    <t>Volgende &amp;raquo;</t>
-  </si>
-  <si>
-    <t>pagination.previous</t>
-  </si>
-  <si>
-    <t>&amp;laquo; Vorige</t>
+    <t>Néerlandais</t>
   </si>
   <si>
     <t>passwords.password</t>
@@ -90,106 +1209,70 @@
     <t>Wachtwoorden moeten minstens 8 karakters lang zijn.</t>
   </si>
   <si>
+    <t>Les mots de passe doivent contenir au moins  8 caractères.</t>
+  </si>
+  <si>
     <t>passwords.reset</t>
   </si>
   <si>
     <t>Your password has been reset!</t>
   </si>
   <si>
+    <t>Votre mot de passe a été réinitialisé</t>
+  </si>
+  <si>
     <t>passwords.sent</t>
   </si>
   <si>
     <t>We hebben je een mail verstuurd met daarin een link waarmee je je wachtwoord kan wijzigen.</t>
   </si>
   <si>
+    <t>Nous vous avons envoyé un mail avec un lien qui vous permet de changer votre mot de passe.</t>
+  </si>
+  <si>
     <t>passwords.subjectEmail</t>
   </si>
   <si>
     <t xml:space="preserve">Uw wachtwoord op </t>
   </si>
   <si>
+    <t>Votre mot de passe sur rolesbxl.be</t>
+  </si>
+  <si>
     <t>passwords.subjectEmailNewUser</t>
   </si>
   <si>
     <t xml:space="preserve">Accès a </t>
   </si>
   <si>
+    <t>Accès à rolesbxl.be</t>
+  </si>
+  <si>
     <t>passwords.throttle</t>
   </si>
   <si>
     <t>Teveel login pogingen. Je kan opnieuw proberen binnen :seconds seconden.</t>
   </si>
   <si>
+    <t>Trop de tentatives de connexion. Vous pouvez réessayer dans :seconds secondes.</t>
+  </si>
+  <si>
     <t>passwords.token</t>
   </si>
   <si>
     <t>Deze link is niet geldig.</t>
   </si>
   <si>
+    <t>Ce lien n´est pas valable.</t>
+  </si>
+  <si>
     <t>passwords.user</t>
   </si>
   <si>
     <t>Er is geen gebruiker met dat e-mailadres.</t>
   </si>
   <si>
-    <t>profile.backToChamber</t>
-  </si>
-  <si>
-    <t>Terug naar kamer</t>
-  </si>
-  <si>
-    <t>profile.email</t>
-  </si>
-  <si>
-    <t>E-mail</t>
-  </si>
-  <si>
-    <t>profile.firstName</t>
-  </si>
-  <si>
-    <t>Voornaam</t>
-  </si>
-  <si>
-    <t>profile.lastName</t>
-  </si>
-  <si>
-    <t>Achternaam</t>
-  </si>
-  <si>
-    <t>profile.messages.saved</t>
-  </si>
-  <si>
-    <t>Uw profiel werd bewaard</t>
-  </si>
-  <si>
-    <t>profile.password</t>
-  </si>
-  <si>
-    <t>Wachtwoord</t>
-  </si>
-  <si>
-    <t>profile.passwordAgain</t>
-  </si>
-  <si>
-    <t>Bevestig wachtwoord</t>
-  </si>
-  <si>
-    <t>profile.submit</t>
-  </si>
-  <si>
-    <t>Bewaar</t>
-  </si>
-  <si>
-    <t>profile.telephone</t>
-  </si>
-  <si>
-    <t>Telefoon</t>
-  </si>
-  <si>
-    <t>profile.title</t>
-  </si>
-  <si>
-    <t>Profiel</t>
+    <t>Il n´y a pas d´utilisateur avec cette adress e-mail.</t>
   </si>
   <si>
     <t>validation.confirmed</t>
@@ -198,45 +1281,69 @@
     <t>U moet tweemaal hetzelfde wachtwoord opgeven.</t>
   </si>
   <si>
+    <t>Veuillez remplir le même mot de passe deux fois.</t>
+  </si>
+  <si>
     <t>validation.date</t>
   </si>
   <si>
     <t>U moet hier een datum opgeven in het formaat dd/mm/yyyy.</t>
   </si>
   <si>
+    <t>Veuillez remplir la date au format dd/mm/yyyy.</t>
+  </si>
+  <si>
     <t>validation.date_format</t>
   </si>
   <si>
+    <t>Veullez remplir ici une date au format dd/mm/yyyy.</t>
+  </si>
+  <si>
     <t>validation.email</t>
   </si>
   <si>
     <t>Dit is geen geldig e-mailadres.</t>
   </si>
   <si>
+    <t>Cette adresse e-mail n´est pas valable</t>
+  </si>
+  <si>
     <t>validation.failedForm</t>
   </si>
   <si>
     <t>Corrigeer de fouten in het formulier.</t>
   </si>
   <si>
+    <t>Corrigez les erreurs dans le formulaire.</t>
+  </si>
+  <si>
     <t>validation.numeric</t>
   </si>
   <si>
     <t>De inhoud van dit veld moet minstens :min karakters lang zijn.</t>
   </si>
   <si>
+    <t>Ce champ doit contenir au moins ... caractères.</t>
+  </si>
+  <si>
     <t>validation.phone</t>
   </si>
   <si>
     <t>U moet een geldig telefoonnummer ingegeven.</t>
   </si>
   <si>
+    <t>Veuillez remplir un numéro de téléphone valable</t>
+  </si>
+  <si>
     <t>validation.required</t>
   </si>
   <si>
     <t>Dit is een verplicht veld.</t>
   </si>
   <si>
+    <t>Ce champ est obligatoire.</t>
+  </si>
+  <si>
     <t>validation.string</t>
   </si>
   <si>
@@ -246,952 +1353,25 @@
     <t>Dit zijn onbestaande tags.</t>
   </si>
   <si>
+    <t>Ces tags n´existent pas.</t>
+  </si>
+  <si>
     <t>validation.unique</t>
   </si>
   <si>
     <t>Er bestaat al een record met dit :attribute.</t>
   </si>
   <si>
+    <t>Il existe déjà un fichier avec cet :attribute.</t>
+  </si>
+  <si>
     <t>validation.url</t>
   </si>
   <si>
     <t>Gelieve een geldige url in te geven.</t>
   </si>
   <si>
-    <t>auth.address</t>
-  </si>
-  <si>
-    <t>Adres</t>
-  </si>
-  <si>
-    <t>auth.changePassword</t>
-  </si>
-  <si>
-    <t>Wijzig wachtwoord</t>
-  </si>
-  <si>
-    <t>auth.city</t>
-  </si>
-  <si>
-    <t>Stad</t>
-  </si>
-  <si>
-    <t>auth.correctFormErrors</t>
-  </si>
-  <si>
-    <t>Corrigeer de fouten hieronder.</t>
-  </si>
-  <si>
-    <t>auth.country</t>
-  </si>
-  <si>
-    <t>Land</t>
-  </si>
-  <si>
-    <t>auth.email</t>
-  </si>
-  <si>
-    <t>auth.failed</t>
-  </si>
-  <si>
-    <t>De inloggegevens klopten niet.</t>
-  </si>
-  <si>
-    <t>auth.firstName</t>
-  </si>
-  <si>
-    <t>auth.forgotPassword</t>
-  </si>
-  <si>
-    <t>Wachtwoord vergeten?</t>
-  </si>
-  <si>
-    <t>auth.invalidResetLink</t>
-  </si>
-  <si>
-    <t>Deze link is ongeldig.</t>
-  </si>
-  <si>
-    <t>auth.lastName</t>
-  </si>
-  <si>
-    <t>Naam</t>
-  </si>
-  <si>
-    <t>auth.linkValidUntil</t>
-  </si>
-  <si>
-    <t>auth.loggedOut</t>
-  </si>
-  <si>
-    <t>Je bent nu uitgelogd.</t>
-  </si>
-  <si>
-    <t>auth.login</t>
-  </si>
-  <si>
-    <t>Log in</t>
-  </si>
-  <si>
-    <t>auth.login.welcome</t>
-  </si>
-  <si>
-    <t>Welkom op de geïnformatiseerde rollen van &lt;strong&gt;de Balie van Brussel&lt;/strong&gt;. Gelieve hier in te loggen.</t>
-  </si>
-  <si>
-    <t>auth.logout.title</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>auth.noAccount</t>
-  </si>
-  <si>
-    <t>Nog geen account?</t>
-  </si>
-  <si>
-    <t>auth.notActivatedError</t>
-  </si>
-  <si>
-    <t>Uw account is nog niet actief.</t>
-  </si>
-  <si>
-    <t>auth.oldUser.intro</t>
-  </si>
-  <si>
-    <t>auth.oldUser.outro</t>
-  </si>
-  <si>
-    <t>auth.oldUser.resetButton</t>
-  </si>
-  <si>
-    <t>auth.password</t>
-  </si>
-  <si>
-    <t>auth.passwordChanged</t>
-  </si>
-  <si>
-    <t>Uw wachtwoord werd gewijzigd.</t>
-  </si>
-  <si>
-    <t>auth.passwordConfirm</t>
-  </si>
-  <si>
-    <t>auth.passwordMail.compellation</t>
-  </si>
-  <si>
-    <t>Beste</t>
-  </si>
-  <si>
-    <t>auth.passwordMail.intro</t>
-  </si>
-  <si>
-    <t>Je hebt toegang gekregen tot</t>
-  </si>
-  <si>
-    <t>auth.passwordMail.linkValidUntil</t>
-  </si>
-  <si>
-    <t>Deze link is geldig tot</t>
-  </si>
-  <si>
-    <t>auth.passwordMail.newUser.intro</t>
-  </si>
-  <si>
-    <t>auth.passwordMail.newUser.resetButton</t>
-  </si>
-  <si>
-    <t>auth.passwordMail.oldUser.intro</t>
-  </si>
-  <si>
-    <t>We ontvingen je vraag om je Blender wachtwoord te wijzigen op</t>
-  </si>
-  <si>
-    <t>auth.passwordMail.oldUser.outro</t>
-  </si>
-  <si>
-    <t>Was het een foutieve aanvraag? Negeer dan deze e-mail, je oude paswoord blijft gewoon werken.</t>
-  </si>
-  <si>
-    <t>auth.passwordMail.oldUser.resetButton</t>
-  </si>
-  <si>
-    <t>Wachtwoord wijzigen</t>
-  </si>
-  <si>
-    <t>auth.passwordMail.resetButton</t>
-  </si>
-  <si>
-    <t>Wachtwoord instellen</t>
-  </si>
-  <si>
-    <t>auth.postal</t>
-  </si>
-  <si>
-    <t>Postcode</t>
-  </si>
-  <si>
-    <t>auth.register</t>
-  </si>
-  <si>
-    <t>Registreer</t>
-  </si>
-  <si>
-    <t>auth.register.submit</t>
-  </si>
-  <si>
-    <t>Maak profiel aan</t>
-  </si>
-  <si>
-    <t>auth.register.title</t>
-  </si>
-  <si>
-    <t>auth.register.toLogin</t>
-  </si>
-  <si>
-    <t>Naar login</t>
-  </si>
-  <si>
-    <t>auth.resetInstructions</t>
-  </si>
-  <si>
-    <t>Je nieuwe wachtwoord moet minstens 8 karakters lang zijn.</t>
-  </si>
-  <si>
-    <t>auth.resetLinkExpired</t>
-  </si>
-  <si>
-    <t>Deze link is niet meer geldig.</t>
-  </si>
-  <si>
-    <t>auth.resetPassword.button</t>
-  </si>
-  <si>
-    <t>Mail me</t>
-  </si>
-  <si>
-    <t>auth.resetPassword.intro</t>
-  </si>
-  <si>
-    <t>Geef je e-mailadres op en we sturen je een link waarmee je je wachtwoord kan wijzigen</t>
-  </si>
-  <si>
-    <t>auth.resetPassword.title</t>
-  </si>
-  <si>
-    <t>Wachtwoord opvragen</t>
-  </si>
-  <si>
-    <t>auth.resetPassword.toLogin</t>
-  </si>
-  <si>
-    <t>auth.resetPasswordButton</t>
-  </si>
-  <si>
-    <t>auth.resetPasswordIntro</t>
-  </si>
-  <si>
-    <t>Geef je e-mailadres op en we sturen je een link waarmee je je wachtwoord kan wijzigen.</t>
-  </si>
-  <si>
-    <t>auth.telephone</t>
-  </si>
-  <si>
-    <t>auth.titleChangePassword</t>
-  </si>
-  <si>
-    <t>auth.titleLogin</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>auth.titleResetPassword</t>
-  </si>
-  <si>
-    <t>auth.toLogin</t>
-  </si>
-  <si>
-    <t>Inloggen?</t>
-  </si>
-  <si>
-    <t>auth.toRegistrationForm</t>
-  </si>
-  <si>
-    <t>Nog geen profiel?</t>
-  </si>
-  <si>
-    <t>auth.unknownUser</t>
-  </si>
-  <si>
-    <t>Er is niemand geregistreerd met dit e-mailadres.</t>
-  </si>
-  <si>
-    <t>auth.waitingForApproval</t>
-  </si>
-  <si>
-    <t>Uw aanvraag is ontvangen. Er worden er bevestiging gestuurd zodra deze wordt goedgekeurd.</t>
-  </si>
-  <si>
-    <t>back.addFile</t>
-  </si>
-  <si>
-    <t>Voeg bestand toe</t>
-  </si>
-  <si>
-    <t>back.addImage</t>
-  </si>
-  <si>
-    <t>Voeg afbeelding toe</t>
-  </si>
-  <si>
-    <t>back.articles.downloads</t>
-  </si>
-  <si>
-    <t>Downloads</t>
-  </si>
-  <si>
-    <t>back.articles.images</t>
-  </si>
-  <si>
-    <t>Afbeeldingen</t>
-  </si>
-  <si>
-    <t>back.articles.location</t>
-  </si>
-  <si>
-    <t>Locatie</t>
-  </si>
-  <si>
-    <t>back.articles.name</t>
-  </si>
-  <si>
-    <t>back.articles.new</t>
-  </si>
-  <si>
-    <t>Nieuw artikel</t>
-  </si>
-  <si>
-    <t>back.articles.online</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>back.articles.publish_date</t>
-  </si>
-  <si>
-    <t>Publicatiedatum</t>
-  </si>
-  <si>
-    <t>back.articles.save</t>
-  </si>
-  <si>
-    <t>Bewaar artikel</t>
-  </si>
-  <si>
-    <t>back.articles.singular</t>
-  </si>
-  <si>
-    <t>Artikel</t>
-  </si>
-  <si>
-    <t>back.articles.tags</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>back.articles.text</t>
-  </si>
-  <si>
-    <t>Tekst</t>
-  </si>
-  <si>
-    <t>back.articles.title</t>
-  </si>
-  <si>
-    <t>Artikels</t>
-  </si>
-  <si>
-    <t>back.auth.email</t>
-  </si>
-  <si>
-    <t>back.auth.forgotPassword</t>
-  </si>
-  <si>
-    <t>back.auth.login</t>
-  </si>
-  <si>
-    <t>back.auth.password</t>
-  </si>
-  <si>
-    <t>back.auth.resetPassword.button</t>
-  </si>
-  <si>
-    <t>back.auth.resetPassword.intro</t>
-  </si>
-  <si>
-    <t>back.auth.resetPassword.title</t>
-  </si>
-  <si>
-    <t>back.backUsers.administrator</t>
-  </si>
-  <si>
-    <t>Administrator</t>
-  </si>
-  <si>
-    <t>back.backUsers.automaticCredentialsMailInfo</t>
-  </si>
-  <si>
-    <t>Zodra je deze nieuwe administrator bewaart, zullen we hem/haar een e-mail sturen met een link om het wachtwoord in te stellen.</t>
-  </si>
-  <si>
-    <t>back.backUsers.first_name</t>
-  </si>
-  <si>
-    <t>back.backUsers.gravatarInfo</t>
-  </si>
-  <si>
-    <t>Je kan deze avatar instellen op</t>
-  </si>
-  <si>
-    <t>back.backUsers.justNow</t>
-  </si>
-  <si>
-    <t>Zonet</t>
-  </si>
-  <si>
-    <t>back.backUsers.last_name</t>
-  </si>
-  <si>
-    <t>back.backUsers.lastActivity</t>
-  </si>
-  <si>
-    <t>Laatste activiteit</t>
-  </si>
-  <si>
-    <t>back.backUsers.locale</t>
-  </si>
-  <si>
-    <t>Taal</t>
-  </si>
-  <si>
-    <t>back.backUsers.name</t>
-  </si>
-  <si>
-    <t>back.backUsers.neverLoggedIn</t>
-  </si>
-  <si>
-    <t>Nog niet ingelogd</t>
-  </si>
-  <si>
-    <t>back.backUsers.new</t>
-  </si>
-  <si>
-    <t>Nieuwe administrator</t>
-  </si>
-  <si>
-    <t>back.backUsers.password</t>
-  </si>
-  <si>
-    <t>back.backUsers.passwordChangeInfo</t>
-  </si>
-  <si>
-    <t>Vul onderstaande velden enkel in als je het wachtwoord wil wijzigen.</t>
-  </si>
-  <si>
-    <t>back.backUsers.passwordConfirmation</t>
-  </si>
-  <si>
-    <t>back.backUsers.passwordMailSent</t>
-  </si>
-  <si>
-    <t>Er is een mail verstuurd waarmee deze gebruiker zelf een wachtwoord kan instellen.</t>
-  </si>
-  <si>
-    <t>back.backUsers.save</t>
-  </si>
-  <si>
-    <t>Bewaar administrator</t>
-  </si>
-  <si>
-    <t>back.backUsers.title</t>
-  </si>
-  <si>
-    <t>Administrators</t>
-  </si>
-  <si>
-    <t>back.change</t>
-  </si>
-  <si>
-    <t>wijzig</t>
-  </si>
-  <si>
-    <t>back.environment.production</t>
-  </si>
-  <si>
-    <t>production</t>
-  </si>
-  <si>
-    <t>back.environment.test</t>
-  </si>
-  <si>
-    <t>testomgeving</t>
-  </si>
-  <si>
-    <t>back.events.activated</t>
-  </si>
-  <si>
-    <t>name werd geactiveerd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model </t>
-  </si>
-  <si>
-    <t>back.events.created</t>
-  </si>
-  <si>
-    <t>name werd aangemaakt</t>
-  </si>
-  <si>
-    <t>back.events.deleted</t>
-  </si>
-  <si>
-    <t>name werd verwijderd</t>
-  </si>
-  <si>
-    <t>back.events.updated</t>
-  </si>
-  <si>
-    <t>name werd bijgewerkt</t>
-  </si>
-  <si>
-    <t>back.formResponses.download</t>
-  </si>
-  <si>
-    <t>Download reacties</t>
-  </si>
-  <si>
-    <t>back.formResponses.info</t>
-  </si>
-  <si>
-    <t>recipients&lt;/strong&gt;. Download hier de backup van alle reacties als .xlsx-bestand (Excel).</t>
-  </si>
-  <si>
-    <t>De reacties worden standaard gemaild naar &lt;strong&gt;</t>
-  </si>
-  <si>
-    <t>back.formResponses.title</t>
-  </si>
-  <si>
-    <t>Reacties</t>
-  </si>
-  <si>
-    <t>back.fragments.content</t>
-  </si>
-  <si>
-    <t>Inhoud</t>
-  </si>
-  <si>
-    <t>back.fragments.name</t>
-  </si>
-  <si>
-    <t>back.fragments.save</t>
-  </si>
-  <si>
-    <t>Bewaar fragment</t>
-  </si>
-  <si>
-    <t>back.fragments.text</t>
-  </si>
-  <si>
-    <t>back.fragments.title</t>
-  </si>
-  <si>
-    <t>Fragmenten</t>
-  </si>
-  <si>
-    <t>back.frontUsers.automaticCredentialsMailInfo</t>
-  </si>
-  <si>
-    <t>Zodra je dit nieuw lid bewaart, zullen we hem/haar een e-mail sturen met een link om het wachtwoord in te stellen.</t>
-  </si>
-  <si>
-    <t>back.frontUsers.first_name</t>
-  </si>
-  <si>
-    <t>back.frontUsers.justNow</t>
-  </si>
-  <si>
-    <t>back.frontUsers.last_name</t>
-  </si>
-  <si>
-    <t>back.frontUsers.lastActivity</t>
-  </si>
-  <si>
-    <t>back.frontUsers.locale</t>
-  </si>
-  <si>
-    <t>back.frontUsers.member</t>
-  </si>
-  <si>
-    <t>Lid</t>
-  </si>
-  <si>
-    <t>back.frontUsers.name</t>
-  </si>
-  <si>
-    <t>back.frontUsers.neverLoggedIn</t>
-  </si>
-  <si>
-    <t>back.frontUsers.new</t>
-  </si>
-  <si>
-    <t>Nieuw lid</t>
-  </si>
-  <si>
-    <t>back.frontUsers.passwordChangeInfo</t>
-  </si>
-  <si>
-    <t>Hier kan je een wachtwoord reset link naar de gebruiker sturen.</t>
-  </si>
-  <si>
-    <t>back.frontUsers.passwordMailSent</t>
-  </si>
-  <si>
-    <t>back.frontUsers.save</t>
-  </si>
-  <si>
-    <t>Bewaar lid</t>
-  </si>
-  <si>
-    <t>back.frontUsers.sendResetLink</t>
-  </si>
-  <si>
-    <t>Reset link versturen</t>
-  </si>
-  <si>
-    <t>back.frontUsers.title</t>
-  </si>
-  <si>
-    <t>Leden</t>
-  </si>
-  <si>
-    <t>back.locationpicker.search</t>
-  </si>
-  <si>
-    <t>Zoek adres</t>
-  </si>
-  <si>
-    <t>back.locationpicker.submit</t>
-  </si>
-  <si>
-    <t>Zoek</t>
-  </si>
-  <si>
-    <t>back.log.description</t>
-  </si>
-  <si>
-    <t>Beschrijving</t>
-  </si>
-  <si>
-    <t>back.log.fullLog</t>
-  </si>
-  <si>
-    <t>Bekijk het hele log</t>
-  </si>
-  <si>
-    <t>back.log.recentActivity</t>
-  </si>
-  <si>
-    <t>Recente activiteit</t>
-  </si>
-  <si>
-    <t>back.log.time</t>
-  </si>
-  <si>
-    <t>Tijdstip</t>
-  </si>
-  <si>
-    <t>back.log.user</t>
-  </si>
-  <si>
-    <t>Gebruiker</t>
-  </si>
-  <si>
-    <t>back.name</t>
-  </si>
-  <si>
-    <t>back.newsItems.downloads</t>
-  </si>
-  <si>
-    <t>back.newsItems.images</t>
-  </si>
-  <si>
-    <t>back.newsItems.name</t>
-  </si>
-  <si>
-    <t>back.newsItems.new</t>
-  </si>
-  <si>
-    <t>Nieuw nieuwsbericht</t>
-  </si>
-  <si>
-    <t>back.newsItems.news_category</t>
-  </si>
-  <si>
-    <t>Categorie</t>
-  </si>
-  <si>
-    <t>back.newsItems.news_tag</t>
-  </si>
-  <si>
-    <t>back.newsItems.online</t>
-  </si>
-  <si>
-    <t>back.newsItems.publish_date</t>
-  </si>
-  <si>
-    <t>back.newsItems.save</t>
-  </si>
-  <si>
-    <t>Bewaar nieuwsbericht</t>
-  </si>
-  <si>
-    <t>back.newsItems.singular</t>
-  </si>
-  <si>
-    <t>Nieuwsbericht</t>
-  </si>
-  <si>
-    <t>back.newsItems.tags</t>
-  </si>
-  <si>
-    <t>back.newsItems.text</t>
-  </si>
-  <si>
-    <t>back.newsItems.title</t>
-  </si>
-  <si>
-    <t>Nieuws</t>
-  </si>
-  <si>
-    <t>back.people.career</t>
-  </si>
-  <si>
-    <t>Loopbaan</t>
-  </si>
-  <si>
-    <t>back.people.email</t>
-  </si>
-  <si>
-    <t>back.people.function</t>
-  </si>
-  <si>
-    <t>Functiebeschrijving</t>
-  </si>
-  <si>
-    <t>back.people.images</t>
-  </si>
-  <si>
-    <t>back.people.name</t>
-  </si>
-  <si>
-    <t>back.people.new</t>
-  </si>
-  <si>
-    <t>Nieuw persoon</t>
-  </si>
-  <si>
-    <t>back.people.online</t>
-  </si>
-  <si>
-    <t>back.people.save</t>
-  </si>
-  <si>
-    <t>Bewaar persoon</t>
-  </si>
-  <si>
-    <t>back.people.singular</t>
-  </si>
-  <si>
-    <t>Persoon</t>
-  </si>
-  <si>
-    <t>back.people.telephone</t>
-  </si>
-  <si>
-    <t>Telefoonnummer</t>
-  </si>
-  <si>
-    <t>back.people.title</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>back.people.type</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>back.since</t>
-  </si>
-  <si>
-    <t>sinds</t>
-  </si>
-  <si>
-    <t>back.statistics.browsers</t>
-  </si>
-  <si>
-    <t>Browsers</t>
-  </si>
-  <si>
-    <t>back.statistics.keyword</t>
-  </si>
-  <si>
-    <t>Zoekterm</t>
-  </si>
-  <si>
-    <t>back.statistics.menuTitle</t>
-  </si>
-  <si>
-    <t>Statistieken</t>
-  </si>
-  <si>
-    <t>back.statistics.mostUsedBrowsers</t>
-  </si>
-  <si>
-    <t>Meeste gebruikte browsers</t>
-  </si>
-  <si>
-    <t>back.statistics.mostUsedKeywords</t>
-  </si>
-  <si>
-    <t>Meest gebruikte zoektermen</t>
-  </si>
-  <si>
-    <t>back.statistics.mostVisitedPages</t>
-  </si>
-  <si>
-    <t>Meest bezochte pagina's</t>
-  </si>
-  <si>
-    <t>back.statistics.noData</t>
-  </si>
-  <si>
-    <t>Er zijn nog geen gegevens beschikbaar.</t>
-  </si>
-  <si>
-    <t>back.statistics.notConfigured</t>
-  </si>
-  <si>
-    <t>Analytics is nog niet geconfigureerd.</t>
-  </si>
-  <si>
-    <t>back.statistics.numberOfVisitors</t>
-  </si>
-  <si>
-    <t>Aantal bezoekers</t>
-  </si>
-  <si>
-    <t>back.statistics.page</t>
-  </si>
-  <si>
-    <t>Pagina</t>
-  </si>
-  <si>
-    <t>back.statistics.sessions</t>
-  </si>
-  <si>
-    <t>Sessies</t>
-  </si>
-  <si>
-    <t>back.statistics.source</t>
-  </si>
-  <si>
-    <t>Bron</t>
-  </si>
-  <si>
-    <t>back.statistics.sources</t>
-  </si>
-  <si>
-    <t>Bronnen</t>
-  </si>
-  <si>
-    <t>back.statistics.title</t>
-  </si>
-  <si>
-    <t>Statistieken afgelopen jaar</t>
-  </si>
-  <si>
-    <t>back.statistics.visitors</t>
-  </si>
-  <si>
-    <t>Bezoekers</t>
-  </si>
-  <si>
-    <t>back.statistics.visits</t>
-  </si>
-  <si>
-    <t>Bezoeken</t>
-  </si>
-  <si>
-    <t>back.tags.description</t>
-  </si>
-  <si>
-    <t>back.tags.name</t>
-  </si>
-  <si>
-    <t>back.tags.new</t>
-  </si>
-  <si>
-    <t>Nieuwe tag</t>
-  </si>
-  <si>
-    <t>back.tags.online</t>
-  </si>
-  <si>
-    <t>back.tags.save</t>
-  </si>
-  <si>
-    <t>Bewaar tag</t>
-  </si>
-  <si>
-    <t>back.tags.singular</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>back.tags.title</t>
-  </si>
-  <si>
-    <t>back.tags.type</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>back.tags.types.news_category</t>
-  </si>
-  <si>
-    <t>Nieuwscategorie</t>
-  </si>
-  <si>
-    <t>back.tags.types.news_tag</t>
-  </si>
-  <si>
-    <t>Nieuwstag</t>
-  </si>
-  <si>
-    <t>deprecatedBrowser</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Je gebruikt een &lt;strong&gt;verouderde&lt;/strong&gt; browser. &lt;a href="http://browsehappy.com/"&gt;Upgrade je browser&lt;/a&gt; om vlotter te werken met sites als deze.&lt;/p&gt;'</t>
+    <t>Veuillez remplir un url valable.</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1560,11 +1740,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="35.2771" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="26.993408" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="107.259521" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="1.142578" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="43.560791" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="47.131348" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="1.142578" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="1.142578" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="1.142578" bestFit="true" customWidth="true" style="0"/>
@@ -1601,7 +1781,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1626,470 +1808,227 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23"/>
-      <c r="D23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" t="s">
+      <c r="E16" t="s">
         <v>48</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24"/>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26"/>
-      <c r="D26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
-      <c r="A29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29"/>
-      <c r="D29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30"/>
-      <c r="D30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31"/>
-      <c r="D31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32"/>
-      <c r="D32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26">
-      <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33"/>
-      <c r="D33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34"/>
-      <c r="D34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35"/>
-      <c r="D35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36"/>
-      <c r="D36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26">
-      <c r="A37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37"/>
-      <c r="D37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26">
-      <c r="A38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38"/>
-      <c r="D38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26">
-      <c r="A39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39"/>
-      <c r="D39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26">
-      <c r="A40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40"/>
-      <c r="D40" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2114,7 +2053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z184"/>
+  <dimension ref="A1:Z207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2125,9 +2064,9 @@
   <cols>
     <col min="1" max="1" width="52.987061" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="106.116943" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="187.525635" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="1.142578" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="133.253174" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="1.142578" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="1.142578" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="1.142578" bestFit="true" customWidth="true" style="0"/>
@@ -2164,7 +2103,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2189,2196 +2130,2790 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>81</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E2"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>85</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E4"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>89</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E6"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>92</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E8"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>43</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E9"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>99</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E12"/>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>106</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E16"/>
     </row>
     <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
+      <c r="E20"/>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
+      <c r="E21"/>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
+      <c r="E22"/>
     </row>
     <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>49</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E23"/>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>103</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>106</v>
+      </c>
+      <c r="E28" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
+      <c r="E29"/>
     </row>
     <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
+      <c r="E30"/>
     </row>
     <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>110</v>
+      </c>
+      <c r="E31" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>113</v>
+      </c>
+      <c r="E32" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>116</v>
+      </c>
+      <c r="E33" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>119</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>137</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E35"/>
     </row>
     <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
-        <v>139</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E36"/>
     </row>
     <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37"/>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>125</v>
+      </c>
+      <c r="E37" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38"/>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>125</v>
+      </c>
+      <c r="E38" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>129</v>
+      </c>
+      <c r="E39" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>132</v>
+      </c>
+      <c r="E40" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41"/>
       <c r="D41" t="s">
-        <v>148</v>
+        <v>135</v>
+      </c>
+      <c r="E41" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="s">
-        <v>150</v>
+        <v>138</v>
+      </c>
+      <c r="E42" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43"/>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="E43" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>144</v>
+      </c>
+      <c r="E44" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>129</v>
+      </c>
+      <c r="E45" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="s">
-        <v>150</v>
+        <v>138</v>
+      </c>
+      <c r="E46" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="E47" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="E48" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
-        <v>135</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E49"/>
     </row>
     <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>80</v>
+      </c>
+      <c r="E50" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>144</v>
+      </c>
+      <c r="E51" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="s">
-        <v>165</v>
+        <v>157</v>
+      </c>
+      <c r="E52" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53"/>
       <c r="D53" t="s">
-        <v>167</v>
+        <v>160</v>
+      </c>
+      <c r="E53" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54"/>
       <c r="D54" t="s">
-        <v>169</v>
+        <v>163</v>
+      </c>
+      <c r="E54" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55"/>
       <c r="D55" t="s">
-        <v>171</v>
+        <v>166</v>
+      </c>
+      <c r="E55" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56"/>
       <c r="D56" t="s">
-        <v>173</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="E56"/>
     </row>
     <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57"/>
       <c r="D57" t="s">
-        <v>175</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E57"/>
     </row>
     <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58"/>
       <c r="D58" t="s">
-        <v>177</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E58"/>
     </row>
     <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59"/>
       <c r="D59" t="s">
-        <v>179</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E59"/>
     </row>
     <row r="60" spans="1:26">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60"/>
       <c r="D60" t="s">
-        <v>181</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E60"/>
     </row>
     <row r="61" spans="1:26">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61"/>
       <c r="D61" t="s">
-        <v>99</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E61"/>
     </row>
     <row r="62" spans="1:26">
       <c r="A62" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62"/>
       <c r="D62" t="s">
-        <v>184</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E62"/>
     </row>
     <row r="63" spans="1:26">
       <c r="A63" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63"/>
       <c r="D63" t="s">
-        <v>186</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E63"/>
     </row>
     <row r="64" spans="1:26">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64"/>
       <c r="D64" t="s">
-        <v>188</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E64"/>
     </row>
     <row r="65" spans="1:26">
       <c r="A65" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65"/>
       <c r="D65" t="s">
-        <v>190</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E65"/>
     </row>
     <row r="66" spans="1:26">
       <c r="A66" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66"/>
       <c r="D66" t="s">
-        <v>192</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="E66"/>
     </row>
     <row r="67" spans="1:26">
       <c r="A67" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67"/>
       <c r="D67" t="s">
-        <v>194</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="E67"/>
     </row>
     <row r="68" spans="1:26">
       <c r="A68" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68"/>
       <c r="D68" t="s">
-        <v>196</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="E68"/>
     </row>
     <row r="69" spans="1:26">
       <c r="A69" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69"/>
       <c r="D69" t="s">
-        <v>198</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="E69"/>
     </row>
     <row r="70" spans="1:26">
       <c r="A70" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70"/>
       <c r="D70" t="s">
-        <v>41</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E70"/>
     </row>
     <row r="71" spans="1:26">
       <c r="A71" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71"/>
       <c r="D71" t="s">
-        <v>95</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E71"/>
     </row>
     <row r="72" spans="1:26">
       <c r="A72" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72"/>
       <c r="D72" t="s">
-        <v>104</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E72"/>
     </row>
     <row r="73" spans="1:26">
       <c r="A73" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73"/>
       <c r="D73" t="s">
-        <v>49</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E73"/>
     </row>
     <row r="74" spans="1:26">
       <c r="A74" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74"/>
       <c r="D74" t="s">
-        <v>150</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E74"/>
     </row>
     <row r="75" spans="1:26">
       <c r="A75" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75"/>
       <c r="D75" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E75"/>
     </row>
     <row r="76" spans="1:26">
       <c r="A76" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76"/>
       <c r="D76" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E76"/>
     </row>
     <row r="77" spans="1:26">
       <c r="A77" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77"/>
       <c r="D77" t="s">
-        <v>207</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E77"/>
     </row>
     <row r="78" spans="1:26">
       <c r="A78" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
-        <v>209</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E78"/>
     </row>
     <row r="79" spans="1:26">
       <c r="A79" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
-        <v>43</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E79"/>
     </row>
     <row r="80" spans="1:26">
       <c r="A80" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
-        <v>212</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="E80"/>
     </row>
     <row r="81" spans="1:26">
       <c r="A81" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81"/>
       <c r="D81" t="s">
-        <v>214</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="E81"/>
     </row>
     <row r="82" spans="1:26">
       <c r="A82" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>45</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E82"/>
     </row>
     <row r="83" spans="1:26">
       <c r="A83" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83"/>
       <c r="D83" t="s">
-        <v>217</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E83"/>
     </row>
     <row r="84" spans="1:26">
       <c r="A84" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
-        <v>219</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="E84"/>
     </row>
     <row r="85" spans="1:26">
       <c r="A85" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85"/>
       <c r="D85" t="s">
-        <v>99</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E85"/>
     </row>
     <row r="86" spans="1:26">
       <c r="A86" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
-        <v>222</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E86"/>
     </row>
     <row r="87" spans="1:26">
       <c r="A87" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87"/>
       <c r="D87" t="s">
-        <v>224</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="E87"/>
     </row>
     <row r="88" spans="1:26">
       <c r="A88" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
-        <v>49</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E88"/>
     </row>
     <row r="89" spans="1:26">
       <c r="A89" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89"/>
       <c r="D89" t="s">
-        <v>227</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="E89"/>
     </row>
     <row r="90" spans="1:26">
       <c r="A90" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
-        <v>51</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E90"/>
     </row>
     <row r="91" spans="1:26">
       <c r="A91" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91"/>
       <c r="D91" t="s">
-        <v>230</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="E91"/>
     </row>
     <row r="92" spans="1:26">
       <c r="A92" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
-        <v>232</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="E92"/>
     </row>
     <row r="93" spans="1:26">
       <c r="A93" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93"/>
       <c r="D93" t="s">
-        <v>234</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E93"/>
     </row>
     <row r="94" spans="1:26">
       <c r="A94" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
-        <v>236</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="E94"/>
     </row>
     <row r="95" spans="1:26">
       <c r="A95" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95"/>
       <c r="D95" t="s">
-        <v>238</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="E95"/>
     </row>
     <row r="96" spans="1:26">
       <c r="A96" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
-        <v>240</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="E96"/>
     </row>
     <row r="97" spans="1:26">
       <c r="A97" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
-      <c r="C97" t="s">
-        <v>242</v>
-      </c>
+      <c r="C97"/>
       <c r="D97" t="s">
-        <v>243</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="E97"/>
     </row>
     <row r="98" spans="1:26">
       <c r="A98" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
-      <c r="C98" t="s">
-        <v>245</v>
-      </c>
+      <c r="C98"/>
       <c r="D98" t="s">
-        <v>243</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E98"/>
     </row>
     <row r="99" spans="1:26">
       <c r="A99" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
-      <c r="C99" t="s">
-        <v>247</v>
-      </c>
+      <c r="C99"/>
       <c r="D99" t="s">
-        <v>243</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="E99"/>
     </row>
     <row r="100" spans="1:26">
       <c r="A100" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-      <c r="C100" t="s">
-        <v>249</v>
-      </c>
+      <c r="C100"/>
       <c r="D100" t="s">
-        <v>243</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="E100"/>
     </row>
     <row r="101" spans="1:26">
       <c r="A101" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101"/>
       <c r="D101" t="s">
-        <v>251</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="E101"/>
     </row>
     <row r="102" spans="1:26">
       <c r="A102" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-      <c r="C102" t="s">
-        <v>253</v>
-      </c>
+      <c r="C102"/>
       <c r="D102" t="s">
-        <v>254</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="E102"/>
     </row>
     <row r="103" spans="1:26">
       <c r="A103" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103"/>
       <c r="D103" t="s">
-        <v>256</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="E103"/>
     </row>
     <row r="104" spans="1:26">
       <c r="A104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
-        <v>258</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="E104"/>
     </row>
     <row r="105" spans="1:26">
       <c r="A105" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105"/>
       <c r="D105" t="s">
-        <v>99</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E105"/>
     </row>
     <row r="106" spans="1:26">
       <c r="A106" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="s">
-        <v>261</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="E106"/>
     </row>
     <row r="107" spans="1:26">
       <c r="A107" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107"/>
       <c r="D107" t="s">
-        <v>196</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="E107"/>
     </row>
     <row r="108" spans="1:26">
       <c r="A108" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108"/>
       <c r="D108" t="s">
-        <v>264</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="E108"/>
     </row>
     <row r="109" spans="1:26">
       <c r="A109" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109"/>
       <c r="D109" t="s">
-        <v>266</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="E109"/>
     </row>
     <row r="110" spans="1:26">
       <c r="A110" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110"/>
       <c r="D110" t="s">
-        <v>43</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E110"/>
     </row>
     <row r="111" spans="1:26">
       <c r="A111" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111"/>
       <c r="D111" t="s">
-        <v>214</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="E111"/>
     </row>
     <row r="112" spans="1:26">
       <c r="A112" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112"/>
       <c r="D112" t="s">
-        <v>45</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E112"/>
     </row>
     <row r="113" spans="1:26">
       <c r="A113" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113"/>
       <c r="D113" t="s">
-        <v>217</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E113"/>
     </row>
     <row r="114" spans="1:26">
       <c r="A114" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114"/>
       <c r="D114" t="s">
-        <v>219</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="E114"/>
     </row>
     <row r="115" spans="1:26">
       <c r="A115" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115"/>
       <c r="D115" t="s">
-        <v>273</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="E115"/>
     </row>
     <row r="116" spans="1:26">
       <c r="A116" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116"/>
       <c r="D116" t="s">
-        <v>99</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E116"/>
     </row>
     <row r="117" spans="1:26">
       <c r="A117" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117"/>
       <c r="D117" t="s">
-        <v>222</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E117"/>
     </row>
     <row r="118" spans="1:26">
       <c r="A118" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118"/>
       <c r="D118" t="s">
-        <v>277</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="E118"/>
     </row>
     <row r="119" spans="1:26">
       <c r="A119" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119"/>
       <c r="D119" t="s">
-        <v>279</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="E119"/>
     </row>
     <row r="120" spans="1:26">
       <c r="A120" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120"/>
       <c r="D120" t="s">
-        <v>230</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="E120"/>
     </row>
     <row r="121" spans="1:26">
       <c r="A121" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121"/>
       <c r="D121" t="s">
-        <v>282</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="E121"/>
     </row>
     <row r="122" spans="1:26">
       <c r="A122" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122"/>
       <c r="D122" t="s">
-        <v>284</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="E122"/>
     </row>
     <row r="123" spans="1:26">
       <c r="A123" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123"/>
       <c r="D123" t="s">
-        <v>286</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="E123"/>
     </row>
     <row r="124" spans="1:26">
       <c r="A124" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124"/>
       <c r="D124" t="s">
-        <v>288</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="E124"/>
     </row>
     <row r="125" spans="1:26">
       <c r="A125" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125"/>
       <c r="D125" t="s">
-        <v>290</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="E125"/>
     </row>
     <row r="126" spans="1:26">
       <c r="A126" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126"/>
       <c r="D126" t="s">
-        <v>292</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="E126"/>
     </row>
     <row r="127" spans="1:26">
       <c r="A127" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127"/>
       <c r="D127" t="s">
-        <v>294</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="E127"/>
     </row>
     <row r="128" spans="1:26">
       <c r="A128" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="C128"/>
       <c r="D128" t="s">
-        <v>296</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="E128"/>
     </row>
     <row r="129" spans="1:26">
       <c r="A129" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="C129"/>
       <c r="D129" t="s">
-        <v>298</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="E129"/>
     </row>
     <row r="130" spans="1:26">
       <c r="A130" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130"/>
       <c r="D130" t="s">
-        <v>300</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="E130"/>
     </row>
     <row r="131" spans="1:26">
       <c r="A131" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131"/>
       <c r="D131" t="s">
-        <v>99</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E131"/>
     </row>
     <row r="132" spans="1:26">
       <c r="A132" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="C132"/>
       <c r="D132" t="s">
-        <v>177</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E132"/>
     </row>
     <row r="133" spans="1:26">
       <c r="A133" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133"/>
       <c r="D133" t="s">
-        <v>179</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E133"/>
     </row>
     <row r="134" spans="1:26">
       <c r="A134" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="C134"/>
       <c r="D134" t="s">
-        <v>99</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E134"/>
     </row>
     <row r="135" spans="1:26">
       <c r="A135" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
       <c r="C135"/>
       <c r="D135" t="s">
-        <v>306</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E135"/>
     </row>
     <row r="136" spans="1:26">
       <c r="A136" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136"/>
       <c r="D136" t="s">
-        <v>308</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="E136"/>
     </row>
     <row r="137" spans="1:26">
       <c r="A137" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="C137"/>
       <c r="D137" t="s">
-        <v>194</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="E137"/>
     </row>
     <row r="138" spans="1:26">
       <c r="A138" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="C138"/>
       <c r="D138" t="s">
-        <v>186</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E138"/>
     </row>
     <row r="139" spans="1:26">
       <c r="A139" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="C139"/>
       <c r="D139" t="s">
-        <v>188</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E139"/>
     </row>
     <row r="140" spans="1:26">
       <c r="A140" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="C140"/>
       <c r="D140" t="s">
-        <v>313</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="E140"/>
     </row>
     <row r="141" spans="1:26">
       <c r="A141" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="C141"/>
       <c r="D141" t="s">
-        <v>315</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="E141"/>
     </row>
     <row r="142" spans="1:26">
       <c r="A142" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="C142"/>
       <c r="D142" t="s">
-        <v>194</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="E142"/>
     </row>
     <row r="143" spans="1:26">
       <c r="A143" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="C143"/>
       <c r="D143" t="s">
-        <v>196</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="E143"/>
     </row>
     <row r="144" spans="1:26">
       <c r="A144" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="C144"/>
       <c r="D144" t="s">
-        <v>319</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="E144"/>
     </row>
     <row r="145" spans="1:26">
       <c r="A145" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="C145"/>
       <c r="D145" t="s">
-        <v>321</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="E145"/>
     </row>
     <row r="146" spans="1:26">
       <c r="A146" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="C146"/>
       <c r="D146" t="s">
-        <v>41</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E146"/>
     </row>
     <row r="147" spans="1:26">
       <c r="A147" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="C147"/>
       <c r="D147" t="s">
-        <v>324</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="E147"/>
     </row>
     <row r="148" spans="1:26">
       <c r="A148" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="C148"/>
       <c r="D148" t="s">
-        <v>179</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E148"/>
     </row>
     <row r="149" spans="1:26">
       <c r="A149" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149"/>
       <c r="D149" t="s">
-        <v>99</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E149"/>
     </row>
     <row r="150" spans="1:26">
       <c r="A150" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="C150"/>
       <c r="D150" t="s">
-        <v>328</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="E150"/>
     </row>
     <row r="151" spans="1:26">
       <c r="A151" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="C151"/>
       <c r="D151" t="s">
-        <v>186</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E151"/>
     </row>
     <row r="152" spans="1:26">
       <c r="A152" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="C152"/>
       <c r="D152" t="s">
-        <v>331</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="E152"/>
     </row>
     <row r="153" spans="1:26">
       <c r="A153" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
       <c r="C153"/>
       <c r="D153" t="s">
-        <v>333</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="E153"/>
     </row>
     <row r="154" spans="1:26">
       <c r="A154" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="C154"/>
       <c r="D154" t="s">
-        <v>335</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="E154"/>
     </row>
     <row r="155" spans="1:26">
       <c r="A155" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
       <c r="C155"/>
       <c r="D155" t="s">
-        <v>337</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="E155"/>
     </row>
     <row r="156" spans="1:26">
       <c r="A156" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="C156"/>
       <c r="D156" t="s">
-        <v>339</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="E156"/>
     </row>
     <row r="157" spans="1:26">
       <c r="A157" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="C157"/>
       <c r="D157" t="s">
-        <v>341</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="E157"/>
     </row>
     <row r="158" spans="1:26">
       <c r="A158" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="C158"/>
       <c r="D158" t="s">
-        <v>343</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="E158"/>
     </row>
     <row r="159" spans="1:26">
       <c r="A159" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="C159"/>
       <c r="D159" t="s">
-        <v>345</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="E159"/>
     </row>
     <row r="160" spans="1:26">
       <c r="A160" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="C160"/>
       <c r="D160" t="s">
-        <v>347</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="E160"/>
     </row>
     <row r="161" spans="1:26">
       <c r="A161" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
       <c r="C161"/>
       <c r="D161" t="s">
-        <v>349</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="E161"/>
     </row>
     <row r="162" spans="1:26">
       <c r="A162" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
       <c r="C162"/>
       <c r="D162" t="s">
-        <v>351</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="E162"/>
     </row>
     <row r="163" spans="1:26">
       <c r="A163" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
       <c r="C163"/>
       <c r="D163" t="s">
-        <v>353</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="E163"/>
     </row>
     <row r="164" spans="1:26">
       <c r="A164" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
       <c r="C164"/>
       <c r="D164" t="s">
-        <v>355</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="E164"/>
     </row>
     <row r="165" spans="1:26">
       <c r="A165" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
       <c r="C165"/>
       <c r="D165" t="s">
-        <v>357</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="E165"/>
     </row>
     <row r="166" spans="1:26">
       <c r="A166" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
       <c r="C166"/>
       <c r="D166" t="s">
-        <v>359</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="E166"/>
     </row>
     <row r="167" spans="1:26">
       <c r="A167" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
       <c r="C167"/>
       <c r="D167" t="s">
-        <v>361</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="E167"/>
     </row>
     <row r="168" spans="1:26">
       <c r="A168" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
       <c r="C168"/>
       <c r="D168" t="s">
-        <v>363</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="E168"/>
     </row>
     <row r="169" spans="1:26">
       <c r="A169" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
       <c r="C169"/>
       <c r="D169" t="s">
-        <v>365</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="E169"/>
     </row>
     <row r="170" spans="1:26">
       <c r="A170" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
       <c r="C170"/>
       <c r="D170" t="s">
-        <v>367</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="E170"/>
     </row>
     <row r="171" spans="1:26">
       <c r="A171" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
       <c r="C171"/>
       <c r="D171" t="s">
-        <v>369</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="E171"/>
     </row>
     <row r="172" spans="1:26">
       <c r="A172" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
       <c r="C172"/>
       <c r="D172" t="s">
-        <v>371</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="E172"/>
     </row>
     <row r="173" spans="1:26">
       <c r="A173" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
       <c r="C173"/>
       <c r="D173" t="s">
-        <v>373</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="E173"/>
     </row>
     <row r="174" spans="1:26">
       <c r="A174" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
       <c r="C174"/>
       <c r="D174" t="s">
-        <v>292</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="E174"/>
     </row>
     <row r="175" spans="1:26">
       <c r="A175" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
       <c r="C175"/>
       <c r="D175" t="s">
-        <v>99</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E175"/>
     </row>
     <row r="176" spans="1:26">
       <c r="A176" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
       <c r="C176"/>
       <c r="D176" t="s">
-        <v>377</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="E176"/>
     </row>
     <row r="177" spans="1:26">
       <c r="A177" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
       <c r="C177"/>
       <c r="D177" t="s">
-        <v>186</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E177"/>
     </row>
     <row r="178" spans="1:26">
       <c r="A178" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
       <c r="C178"/>
       <c r="D178" t="s">
-        <v>380</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="E178"/>
     </row>
     <row r="179" spans="1:26">
       <c r="A179" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B179">
         <v>0</v>
       </c>
       <c r="C179"/>
       <c r="D179" t="s">
-        <v>382</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="E179"/>
     </row>
     <row r="180" spans="1:26">
       <c r="A180" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
       <c r="C180"/>
       <c r="D180" t="s">
-        <v>194</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="E180"/>
     </row>
     <row r="181" spans="1:26">
       <c r="A181" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
       <c r="C181"/>
       <c r="D181" t="s">
-        <v>385</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="E181"/>
     </row>
     <row r="182" spans="1:26">
       <c r="A182" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
       <c r="C182"/>
       <c r="D182" t="s">
-        <v>387</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="E182"/>
     </row>
     <row r="183" spans="1:26">
       <c r="A183" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
       <c r="C183"/>
       <c r="D183" t="s">
-        <v>389</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="E183"/>
     </row>
     <row r="184" spans="1:26">
       <c r="A184" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
       <c r="C184"/>
       <c r="D184" t="s">
+        <v>385</v>
+      </c>
+      <c r="E184"/>
+    </row>
+    <row r="185" spans="1:26">
+      <c r="A185" t="s">
+        <v>386</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185"/>
+      <c r="D185" t="s">
+        <v>387</v>
+      </c>
+      <c r="E185" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26">
+      <c r="A186" t="s">
+        <v>389</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186"/>
+      <c r="D186" t="s">
+        <v>390</v>
+      </c>
+      <c r="E186" t="s">
         <v>391</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26">
+      <c r="A187" t="s">
+        <v>392</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187"/>
+      <c r="D187" t="s">
+        <v>393</v>
+      </c>
+      <c r="E187" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26">
+      <c r="A188" t="s">
+        <v>395</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188"/>
+      <c r="D188" t="s">
+        <v>396</v>
+      </c>
+      <c r="E188" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26">
+      <c r="A189" t="s">
+        <v>398</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189"/>
+      <c r="D189" t="s">
+        <v>399</v>
+      </c>
+      <c r="E189" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26">
+      <c r="A190" t="s">
+        <v>401</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190"/>
+      <c r="D190" t="s">
+        <v>402</v>
+      </c>
+      <c r="E190" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26">
+      <c r="A191" t="s">
+        <v>404</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191"/>
+      <c r="D191" t="s">
+        <v>405</v>
+      </c>
+      <c r="E191" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26">
+      <c r="A192" t="s">
+        <v>407</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192"/>
+      <c r="D192" t="s">
+        <v>408</v>
+      </c>
+      <c r="E192" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26">
+      <c r="A193" t="s">
+        <v>410</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193"/>
+      <c r="D193" t="s">
+        <v>411</v>
+      </c>
+      <c r="E193" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26">
+      <c r="A194" t="s">
+        <v>413</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194"/>
+      <c r="D194" t="s">
+        <v>414</v>
+      </c>
+      <c r="E194" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26">
+      <c r="A195" t="s">
+        <v>416</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195"/>
+      <c r="D195" t="s">
+        <v>417</v>
+      </c>
+      <c r="E195" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26">
+      <c r="A196" t="s">
+        <v>419</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196"/>
+      <c r="D196" t="s">
+        <v>420</v>
+      </c>
+      <c r="E196" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26">
+      <c r="A197" t="s">
+        <v>422</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197"/>
+      <c r="D197" t="s">
+        <v>423</v>
+      </c>
+      <c r="E197" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26">
+      <c r="A198" t="s">
+        <v>425</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198"/>
+      <c r="D198" t="s">
+        <v>423</v>
+      </c>
+      <c r="E198" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26">
+      <c r="A199" t="s">
+        <v>427</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199"/>
+      <c r="D199" t="s">
+        <v>428</v>
+      </c>
+      <c r="E199" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26">
+      <c r="A200" t="s">
+        <v>430</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200"/>
+      <c r="D200" t="s">
+        <v>431</v>
+      </c>
+      <c r="E200" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26">
+      <c r="A201" t="s">
+        <v>433</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201"/>
+      <c r="D201" t="s">
+        <v>434</v>
+      </c>
+      <c r="E201" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26">
+      <c r="A202" t="s">
+        <v>436</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202"/>
+      <c r="D202" t="s">
+        <v>437</v>
+      </c>
+      <c r="E202" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26">
+      <c r="A203" t="s">
+        <v>439</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203"/>
+      <c r="D203" t="s">
+        <v>440</v>
+      </c>
+      <c r="E203" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="204" spans="1:26">
+      <c r="A204" t="s">
+        <v>442</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204"/>
+      <c r="D204" t="s">
+        <v>434</v>
+      </c>
+      <c r="E204" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26">
+      <c r="A205" t="s">
+        <v>443</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205"/>
+      <c r="D205" t="s">
+        <v>444</v>
+      </c>
+      <c r="E205" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="206" spans="1:26">
+      <c r="A206" t="s">
+        <v>446</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206"/>
+      <c r="D206" t="s">
+        <v>447</v>
+      </c>
+      <c r="E206" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="207" spans="1:26">
+      <c r="A207" t="s">
+        <v>449</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207"/>
+      <c r="D207" t="s">
+        <v>450</v>
+      </c>
+      <c r="E207" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandedeyne/Sites/blender/database/seeds/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="fragments" sheetId="1" r:id="rId4"/>
-    <sheet name="hidden" sheetId="2" r:id="rId5"/>
+    <sheet name="fragments" sheetId="1" r:id="rId1"/>
+    <sheet name="hidden" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="455">
   <si>
     <t>name</t>
   </si>
@@ -1233,21 +1242,9 @@
     <t>passwords.subjectEmail</t>
   </si>
   <si>
-    <t xml:space="preserve">Uw wachtwoord op </t>
-  </si>
-  <si>
-    <t>Votre mot de passe sur rolesbxl.be</t>
-  </si>
-  <si>
     <t>passwords.subjectEmailNewUser</t>
   </si>
   <si>
-    <t xml:space="preserve">Accès a </t>
-  </si>
-  <si>
-    <t>Accès à rolesbxl.be</t>
-  </si>
-  <si>
     <t>passwords.throttle</t>
   </si>
   <si>
@@ -1372,28 +1369,41 @@
   </si>
   <si>
     <t>Veuillez remplir un url valable.</t>
+  </si>
+  <si>
+    <t>back.auth.toLogin</t>
+  </si>
+  <si>
+    <t>Terug naar login</t>
+  </si>
+  <si>
+    <t>back.auth.titleResetPassword</t>
+  </si>
+  <si>
+    <t>Uw wachtwoord op</t>
+  </si>
+  <si>
+    <t>Accès à</t>
+  </si>
+  <si>
+    <t>Votre mot de passe sur</t>
+  </si>
+  <si>
+    <t>Toegang tot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1404,39 +1414,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
-      <top style="node">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="solid">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1726,49 +1740,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.993408" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="43.560791" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="47.131348" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="1.142578" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="1.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1806,14 +1799,13 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2"/>
       <c r="D2" t="s">
         <v>6</v>
       </c>
@@ -1821,14 +1813,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3"/>
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -1836,14 +1827,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4"/>
       <c r="D4" t="s">
         <v>12</v>
       </c>
@@ -1851,14 +1841,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5"/>
       <c r="D5" t="s">
         <v>15</v>
       </c>
@@ -1866,14 +1855,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6"/>
       <c r="D6" t="s">
         <v>18</v>
       </c>
@@ -1881,14 +1869,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7"/>
       <c r="D7" t="s">
         <v>21</v>
       </c>
@@ -1896,14 +1883,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8"/>
       <c r="D8" t="s">
         <v>24</v>
       </c>
@@ -1911,14 +1897,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9"/>
       <c r="D9" t="s">
         <v>26</v>
       </c>
@@ -1926,14 +1911,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10"/>
       <c r="D10" t="s">
         <v>29</v>
       </c>
@@ -1941,14 +1925,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11"/>
       <c r="D11" t="s">
         <v>32</v>
       </c>
@@ -1956,14 +1939,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12"/>
       <c r="D12" t="s">
         <v>35</v>
       </c>
@@ -1971,14 +1953,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13"/>
       <c r="D13" t="s">
         <v>38</v>
       </c>
@@ -1986,14 +1967,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14"/>
       <c r="D14" t="s">
         <v>41</v>
       </c>
@@ -2001,14 +1981,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15"/>
       <c r="D15" t="s">
         <v>44</v>
       </c>
@@ -2016,14 +1995,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>46</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16"/>
       <c r="D16" t="s">
         <v>47</v>
       </c>
@@ -2032,65 +2010,35 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="" right="" top="" bottom="" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z207"/>
+  <dimension ref="A1:Z209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.987061" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="187.525635" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="133.253174" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="1.142578" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="1.142578" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="187.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="133.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="1.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2128,27 +2076,24 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2"/>
       <c r="D2" t="s">
         <v>50</v>
       </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:26">
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3"/>
       <c r="D3" t="s">
         <v>52</v>
       </c>
@@ -2156,27 +2101,24 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4"/>
       <c r="D4" t="s">
         <v>55</v>
       </c>
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="1:26">
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5"/>
       <c r="D5" t="s">
         <v>57</v>
       </c>
@@ -2184,27 +2126,24 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>59</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6"/>
       <c r="D6" t="s">
         <v>60</v>
       </c>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:26">
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>61</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7"/>
       <c r="D7" t="s">
         <v>24</v>
       </c>
@@ -2212,40 +2151,35 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>62</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8"/>
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:26">
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9"/>
       <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:26">
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10"/>
       <c r="D10" t="s">
         <v>66</v>
       </c>
@@ -2253,14 +2187,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>68</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11"/>
       <c r="D11" t="s">
         <v>69</v>
       </c>
@@ -2268,40 +2201,35 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>71</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12"/>
       <c r="D12" t="s">
         <v>72</v>
       </c>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:26">
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>73</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13"/>
-      <c r="D13"/>
       <c r="E13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>75</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14"/>
       <c r="D14" t="s">
         <v>76</v>
       </c>
@@ -2309,14 +2237,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>78</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15"/>
       <c r="D15" t="s">
         <v>79</v>
       </c>
@@ -2324,27 +2251,24 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>81</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16"/>
       <c r="D16" t="s">
         <v>82</v>
       </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:26">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>83</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17"/>
       <c r="D17" t="s">
         <v>84</v>
       </c>
@@ -2352,14 +2276,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>85</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18"/>
       <c r="D18" t="s">
         <v>86</v>
       </c>
@@ -2367,14 +2290,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>88</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19"/>
       <c r="D19" t="s">
         <v>89</v>
       </c>
@@ -2382,60 +2304,48 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>91</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:26">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>92</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:26">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>93</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="1:26">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>94</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23"/>
       <c r="D23" t="s">
         <v>35</v>
       </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="1:26">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>95</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24"/>
       <c r="D24" t="s">
         <v>96</v>
       </c>
@@ -2443,14 +2353,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>98</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25"/>
       <c r="D25" t="s">
         <v>38</v>
       </c>
@@ -2458,14 +2367,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>99</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26"/>
       <c r="D26" t="s">
         <v>100</v>
       </c>
@@ -2473,14 +2381,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>102</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27"/>
       <c r="D27" t="s">
         <v>103</v>
       </c>
@@ -2488,14 +2395,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>105</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28"/>
       <c r="D28" t="s">
         <v>106</v>
       </c>
@@ -2503,36 +2409,29 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>107</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:26">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>108</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:26">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>109</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31"/>
       <c r="D31" t="s">
         <v>110</v>
       </c>
@@ -2540,14 +2439,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>112</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32"/>
       <c r="D32" t="s">
         <v>113</v>
       </c>
@@ -2555,14 +2453,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>115</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33"/>
       <c r="D33" t="s">
         <v>116</v>
       </c>
@@ -2570,14 +2467,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>118</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34"/>
       <c r="D34" t="s">
         <v>119</v>
       </c>
@@ -2585,40 +2481,35 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>120</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35"/>
       <c r="D35" t="s">
         <v>121</v>
       </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:26">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>122</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="1:26">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>124</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-      <c r="C37"/>
       <c r="D37" t="s">
         <v>125</v>
       </c>
@@ -2626,14 +2517,13 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>127</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38"/>
       <c r="D38" t="s">
         <v>125</v>
       </c>
@@ -2641,14 +2531,13 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>128</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-      <c r="C39"/>
       <c r="D39" t="s">
         <v>129</v>
       </c>
@@ -2656,14 +2545,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>131</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-      <c r="C40"/>
       <c r="D40" t="s">
         <v>132</v>
       </c>
@@ -2671,14 +2559,13 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>134</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-      <c r="C41"/>
       <c r="D41" t="s">
         <v>135</v>
       </c>
@@ -2686,14 +2573,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>137</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-      <c r="C42"/>
       <c r="D42" t="s">
         <v>138</v>
       </c>
@@ -2701,14 +2587,13 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>140</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-      <c r="C43"/>
       <c r="D43" t="s">
         <v>141</v>
       </c>
@@ -2716,14 +2601,13 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>143</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-      <c r="C44"/>
       <c r="D44" t="s">
         <v>144</v>
       </c>
@@ -2731,14 +2615,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>146</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-      <c r="C45"/>
       <c r="D45" t="s">
         <v>129</v>
       </c>
@@ -2746,14 +2629,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>147</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-      <c r="C46"/>
       <c r="D46" t="s">
         <v>138</v>
       </c>
@@ -2761,14 +2643,13 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>148</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
-      <c r="C47"/>
       <c r="D47" t="s">
         <v>149</v>
       </c>
@@ -2776,14 +2657,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>151</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-      <c r="C48"/>
       <c r="D48" t="s">
         <v>44</v>
       </c>
@@ -2791,27 +2671,24 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>153</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
-      <c r="C49"/>
       <c r="D49" t="s">
         <v>119</v>
       </c>
-      <c r="E49"/>
-    </row>
-    <row r="50" spans="1:26">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>154</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-      <c r="C50"/>
       <c r="D50" t="s">
         <v>80</v>
       </c>
@@ -2819,14 +2696,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>155</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-      <c r="C51"/>
       <c r="D51" t="s">
         <v>144</v>
       </c>
@@ -2834,14 +2710,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>156</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-      <c r="C52"/>
       <c r="D52" t="s">
         <v>157</v>
       </c>
@@ -2849,14 +2724,13 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>159</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-      <c r="C53"/>
       <c r="D53" t="s">
         <v>160</v>
       </c>
@@ -2864,14 +2738,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>162</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-      <c r="C54"/>
       <c r="D54" t="s">
         <v>163</v>
       </c>
@@ -2879,14 +2752,13 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>165</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-      <c r="C55"/>
       <c r="D55" t="s">
         <v>166</v>
       </c>
@@ -2894,1691 +2766,1432 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>168</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-      <c r="C56"/>
       <c r="D56" t="s">
         <v>169</v>
       </c>
-      <c r="E56"/>
-    </row>
-    <row r="57" spans="1:26">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>170</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-      <c r="C57"/>
       <c r="D57" t="s">
         <v>171</v>
       </c>
-      <c r="E57"/>
-    </row>
-    <row r="58" spans="1:26">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>172</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-      <c r="C58"/>
       <c r="D58" t="s">
         <v>173</v>
       </c>
-      <c r="E58"/>
-    </row>
-    <row r="59" spans="1:26">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>174</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-      <c r="C59"/>
       <c r="D59" t="s">
         <v>175</v>
       </c>
-      <c r="E59"/>
-    </row>
-    <row r="60" spans="1:26">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>176</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-      <c r="C60"/>
       <c r="D60" t="s">
         <v>177</v>
       </c>
-      <c r="E60"/>
-    </row>
-    <row r="61" spans="1:26">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>178</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-      <c r="C61"/>
       <c r="D61" t="s">
         <v>72</v>
       </c>
-      <c r="E61"/>
-    </row>
-    <row r="62" spans="1:26">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>179</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-      <c r="C62"/>
       <c r="D62" t="s">
         <v>180</v>
       </c>
-      <c r="E62"/>
-    </row>
-    <row r="63" spans="1:26">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>181</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-      <c r="C63"/>
       <c r="D63" t="s">
         <v>182</v>
       </c>
-      <c r="E63"/>
-    </row>
-    <row r="64" spans="1:26">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>183</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
-      <c r="C64"/>
       <c r="D64" t="s">
         <v>184</v>
       </c>
-      <c r="E64"/>
-    </row>
-    <row r="65" spans="1:26">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>185</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-      <c r="C65"/>
       <c r="D65" t="s">
         <v>186</v>
       </c>
-      <c r="E65"/>
-    </row>
-    <row r="66" spans="1:26">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>187</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
-      <c r="C66"/>
       <c r="D66" t="s">
         <v>188</v>
       </c>
-      <c r="E66"/>
-    </row>
-    <row r="67" spans="1:26">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>189</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-      <c r="C67"/>
       <c r="D67" t="s">
         <v>190</v>
       </c>
-      <c r="E67"/>
-    </row>
-    <row r="68" spans="1:26">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>191</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-      <c r="C68"/>
       <c r="D68" t="s">
         <v>192</v>
       </c>
-      <c r="E68"/>
-    </row>
-    <row r="69" spans="1:26">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>193</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
-      <c r="C69"/>
       <c r="D69" t="s">
         <v>194</v>
       </c>
-      <c r="E69"/>
-    </row>
-    <row r="70" spans="1:26">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>195</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-      <c r="C70"/>
       <c r="D70" t="s">
         <v>24</v>
       </c>
-      <c r="E70"/>
-    </row>
-    <row r="71" spans="1:26">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>196</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
-      <c r="C71"/>
       <c r="D71" t="s">
         <v>66</v>
       </c>
-      <c r="E71"/>
-    </row>
-    <row r="72" spans="1:26">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>197</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
-      <c r="C72"/>
       <c r="D72" t="s">
         <v>79</v>
       </c>
-      <c r="E72"/>
-    </row>
-    <row r="73" spans="1:26">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>198</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-      <c r="C73"/>
       <c r="D73" t="s">
         <v>35</v>
       </c>
-      <c r="E73"/>
-    </row>
-    <row r="74" spans="1:26">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>199</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
-      <c r="C74"/>
       <c r="D74" t="s">
         <v>138</v>
       </c>
-      <c r="E74"/>
-    </row>
-    <row r="75" spans="1:26">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>200</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
-      <c r="C75"/>
       <c r="D75" t="s">
         <v>141</v>
       </c>
-      <c r="E75"/>
-    </row>
-    <row r="76" spans="1:26">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>201</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-      <c r="C76"/>
       <c r="D76" t="s">
         <v>144</v>
       </c>
-      <c r="E76"/>
-    </row>
-    <row r="77" spans="1:26">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>202</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-      <c r="C77"/>
       <c r="D77" t="s">
         <v>203</v>
       </c>
-      <c r="E77"/>
-    </row>
-    <row r="78" spans="1:26">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>204</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
-      <c r="C78"/>
       <c r="D78" t="s">
         <v>205</v>
       </c>
-      <c r="E78"/>
-    </row>
-    <row r="79" spans="1:26">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>206</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
-      <c r="C79"/>
       <c r="D79" t="s">
         <v>26</v>
       </c>
-      <c r="E79"/>
-    </row>
-    <row r="80" spans="1:26">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>207</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
-      <c r="C80"/>
       <c r="D80" t="s">
         <v>208</v>
       </c>
-      <c r="E80"/>
-    </row>
-    <row r="81" spans="1:26">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>209</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
-      <c r="C81"/>
       <c r="D81" t="s">
         <v>210</v>
       </c>
-      <c r="E81"/>
-    </row>
-    <row r="82" spans="1:26">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>211</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-      <c r="C82"/>
       <c r="D82" t="s">
         <v>29</v>
       </c>
-      <c r="E82"/>
-    </row>
-    <row r="83" spans="1:26">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>212</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-      <c r="C83"/>
       <c r="D83" t="s">
         <v>213</v>
       </c>
-      <c r="E83"/>
-    </row>
-    <row r="84" spans="1:26">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>214</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-      <c r="C84"/>
       <c r="D84" t="s">
         <v>215</v>
       </c>
-      <c r="E84"/>
-    </row>
-    <row r="85" spans="1:26">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>216</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
-      <c r="C85"/>
       <c r="D85" t="s">
         <v>72</v>
       </c>
-      <c r="E85"/>
-    </row>
-    <row r="86" spans="1:26">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>217</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
-      <c r="C86"/>
       <c r="D86" t="s">
         <v>218</v>
       </c>
-      <c r="E86"/>
-    </row>
-    <row r="87" spans="1:26">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>219</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-      <c r="C87"/>
       <c r="D87" t="s">
         <v>220</v>
       </c>
-      <c r="E87"/>
-    </row>
-    <row r="88" spans="1:26">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>221</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
-      <c r="C88"/>
       <c r="D88" t="s">
         <v>35</v>
       </c>
-      <c r="E88"/>
-    </row>
-    <row r="89" spans="1:26">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>222</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
-      <c r="C89"/>
       <c r="D89" t="s">
         <v>223</v>
       </c>
-      <c r="E89"/>
-    </row>
-    <row r="90" spans="1:26">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>224</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-      <c r="C90"/>
       <c r="D90" t="s">
         <v>38</v>
       </c>
-      <c r="E90"/>
-    </row>
-    <row r="91" spans="1:26">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>225</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
-      <c r="C91"/>
       <c r="D91" t="s">
         <v>226</v>
       </c>
-      <c r="E91"/>
-    </row>
-    <row r="92" spans="1:26">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>227</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
-      <c r="C92"/>
       <c r="D92" t="s">
         <v>228</v>
       </c>
-      <c r="E92"/>
-    </row>
-    <row r="93" spans="1:26">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>229</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
-      <c r="C93"/>
       <c r="D93" t="s">
         <v>230</v>
       </c>
-      <c r="E93"/>
-    </row>
-    <row r="94" spans="1:26">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>231</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
-      <c r="C94"/>
       <c r="D94" t="s">
         <v>232</v>
       </c>
-      <c r="E94"/>
-    </row>
-    <row r="95" spans="1:26">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>233</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
-      <c r="C95"/>
       <c r="D95" t="s">
         <v>234</v>
       </c>
-      <c r="E95"/>
-    </row>
-    <row r="96" spans="1:26">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>235</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-      <c r="C96"/>
       <c r="D96" t="s">
         <v>236</v>
       </c>
-      <c r="E96"/>
-    </row>
-    <row r="97" spans="1:26">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>237</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
-      <c r="C97"/>
       <c r="D97" t="s">
         <v>238</v>
       </c>
-      <c r="E97"/>
-    </row>
-    <row r="98" spans="1:26">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>239</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
-      <c r="C98"/>
       <c r="D98" t="s">
         <v>240</v>
       </c>
-      <c r="E98"/>
-    </row>
-    <row r="99" spans="1:26">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>241</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
-      <c r="C99"/>
       <c r="D99" t="s">
         <v>242</v>
       </c>
-      <c r="E99"/>
-    </row>
-    <row r="100" spans="1:26">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>243</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-      <c r="C100"/>
       <c r="D100" t="s">
         <v>244</v>
       </c>
-      <c r="E100"/>
-    </row>
-    <row r="101" spans="1:26">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>245</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
-      <c r="C101"/>
       <c r="D101" t="s">
         <v>246</v>
       </c>
-      <c r="E101"/>
-    </row>
-    <row r="102" spans="1:26">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>247</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-      <c r="C102"/>
       <c r="D102" t="s">
         <v>248</v>
       </c>
-      <c r="E102"/>
-    </row>
-    <row r="103" spans="1:26">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>249</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-      <c r="C103"/>
       <c r="D103" t="s">
         <v>250</v>
       </c>
-      <c r="E103"/>
-    </row>
-    <row r="104" spans="1:26">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>251</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
-      <c r="C104"/>
       <c r="D104" t="s">
         <v>252</v>
       </c>
-      <c r="E104"/>
-    </row>
-    <row r="105" spans="1:26">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>253</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
-      <c r="C105"/>
       <c r="D105" t="s">
         <v>72</v>
       </c>
-      <c r="E105"/>
-    </row>
-    <row r="106" spans="1:26">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>254</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
-      <c r="C106"/>
       <c r="D106" t="s">
         <v>255</v>
       </c>
-      <c r="E106"/>
-    </row>
-    <row r="107" spans="1:26">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>256</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-      <c r="C107"/>
       <c r="D107" t="s">
         <v>192</v>
       </c>
-      <c r="E107"/>
-    </row>
-    <row r="108" spans="1:26">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>257</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
-      <c r="C108"/>
       <c r="D108" t="s">
         <v>258</v>
       </c>
-      <c r="E108"/>
-    </row>
-    <row r="109" spans="1:26">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>259</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
-      <c r="C109"/>
       <c r="D109" t="s">
         <v>260</v>
       </c>
-      <c r="E109"/>
-    </row>
-    <row r="110" spans="1:26">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>261</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110"/>
       <c r="D110" t="s">
         <v>26</v>
       </c>
-      <c r="E110"/>
-    </row>
-    <row r="111" spans="1:26">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>262</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
-      <c r="C111"/>
       <c r="D111" t="s">
         <v>210</v>
       </c>
-      <c r="E111"/>
-    </row>
-    <row r="112" spans="1:26">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>263</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
-      <c r="C112"/>
       <c r="D112" t="s">
         <v>29</v>
       </c>
-      <c r="E112"/>
-    </row>
-    <row r="113" spans="1:26">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>264</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
-      <c r="C113"/>
       <c r="D113" t="s">
         <v>213</v>
       </c>
-      <c r="E113"/>
-    </row>
-    <row r="114" spans="1:26">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>265</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
-      <c r="C114"/>
       <c r="D114" t="s">
         <v>215</v>
       </c>
-      <c r="E114"/>
-    </row>
-    <row r="115" spans="1:26">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>266</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
-      <c r="C115"/>
       <c r="D115" t="s">
         <v>267</v>
       </c>
-      <c r="E115"/>
-    </row>
-    <row r="116" spans="1:26">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>268</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
-      <c r="C116"/>
       <c r="D116" t="s">
         <v>72</v>
       </c>
-      <c r="E116"/>
-    </row>
-    <row r="117" spans="1:26">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>269</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
-      <c r="C117"/>
       <c r="D117" t="s">
         <v>218</v>
       </c>
-      <c r="E117"/>
-    </row>
-    <row r="118" spans="1:26">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>270</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
-      <c r="C118"/>
       <c r="D118" t="s">
         <v>271</v>
       </c>
-      <c r="E118"/>
-    </row>
-    <row r="119" spans="1:26">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>272</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
-      <c r="C119"/>
       <c r="D119" t="s">
         <v>273</v>
       </c>
-      <c r="E119"/>
-    </row>
-    <row r="120" spans="1:26">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>274</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
-      <c r="C120"/>
       <c r="D120" t="s">
         <v>226</v>
       </c>
-      <c r="E120"/>
-    </row>
-    <row r="121" spans="1:26">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>275</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
-      <c r="C121"/>
       <c r="D121" t="s">
         <v>276</v>
       </c>
-      <c r="E121"/>
-    </row>
-    <row r="122" spans="1:26">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>277</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
-      <c r="C122"/>
       <c r="D122" t="s">
         <v>278</v>
       </c>
-      <c r="E122"/>
-    </row>
-    <row r="123" spans="1:26">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>279</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
-      <c r="C123"/>
       <c r="D123" t="s">
         <v>280</v>
       </c>
-      <c r="E123"/>
-    </row>
-    <row r="124" spans="1:26">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>281</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
-      <c r="C124"/>
       <c r="D124" t="s">
         <v>282</v>
       </c>
-      <c r="E124"/>
-    </row>
-    <row r="125" spans="1:26">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>283</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
-      <c r="C125"/>
       <c r="D125" t="s">
         <v>284</v>
       </c>
-      <c r="E125"/>
-    </row>
-    <row r="126" spans="1:26">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>285</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
-      <c r="C126"/>
       <c r="D126" t="s">
         <v>286</v>
       </c>
-      <c r="E126"/>
-    </row>
-    <row r="127" spans="1:26">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>287</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
-      <c r="C127"/>
       <c r="D127" t="s">
         <v>288</v>
       </c>
-      <c r="E127"/>
-    </row>
-    <row r="128" spans="1:26">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>289</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
-      <c r="C128"/>
       <c r="D128" t="s">
         <v>290</v>
       </c>
-      <c r="E128"/>
-    </row>
-    <row r="129" spans="1:26">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>291</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
-      <c r="C129"/>
       <c r="D129" t="s">
         <v>292</v>
       </c>
-      <c r="E129"/>
-    </row>
-    <row r="130" spans="1:26">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>293</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
-      <c r="C130"/>
       <c r="D130" t="s">
         <v>294</v>
       </c>
-      <c r="E130"/>
-    </row>
-    <row r="131" spans="1:26">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>295</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
-      <c r="C131"/>
       <c r="D131" t="s">
         <v>72</v>
       </c>
-      <c r="E131"/>
-    </row>
-    <row r="132" spans="1:26">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>296</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
-      <c r="C132"/>
       <c r="D132" t="s">
         <v>173</v>
       </c>
-      <c r="E132"/>
-    </row>
-    <row r="133" spans="1:26">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>297</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
-      <c r="C133"/>
       <c r="D133" t="s">
         <v>175</v>
       </c>
-      <c r="E133"/>
-    </row>
-    <row r="134" spans="1:26">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>298</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
-      <c r="C134"/>
       <c r="D134" t="s">
         <v>72</v>
       </c>
-      <c r="E134"/>
-    </row>
-    <row r="135" spans="1:26">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>299</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
-      <c r="C135"/>
       <c r="D135" t="s">
         <v>300</v>
       </c>
-      <c r="E135"/>
-    </row>
-    <row r="136" spans="1:26">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>301</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
-      <c r="C136"/>
       <c r="D136" t="s">
         <v>302</v>
       </c>
-      <c r="E136"/>
-    </row>
-    <row r="137" spans="1:26">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>303</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
-      <c r="C137"/>
       <c r="D137" t="s">
         <v>190</v>
       </c>
-      <c r="E137"/>
-    </row>
-    <row r="138" spans="1:26">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>304</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
-      <c r="C138"/>
       <c r="D138" t="s">
         <v>182</v>
       </c>
-      <c r="E138"/>
-    </row>
-    <row r="139" spans="1:26">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>305</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
-      <c r="C139"/>
       <c r="D139" t="s">
         <v>184</v>
       </c>
-      <c r="E139"/>
-    </row>
-    <row r="140" spans="1:26">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>306</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
-      <c r="C140"/>
       <c r="D140" t="s">
         <v>307</v>
       </c>
-      <c r="E140"/>
-    </row>
-    <row r="141" spans="1:26">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>308</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
-      <c r="C141"/>
       <c r="D141" t="s">
         <v>309</v>
       </c>
-      <c r="E141"/>
-    </row>
-    <row r="142" spans="1:26">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>310</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
-      <c r="C142"/>
       <c r="D142" t="s">
         <v>190</v>
       </c>
-      <c r="E142"/>
-    </row>
-    <row r="143" spans="1:26">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>311</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
-      <c r="C143"/>
       <c r="D143" t="s">
         <v>192</v>
       </c>
-      <c r="E143"/>
-    </row>
-    <row r="144" spans="1:26">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>312</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
-      <c r="C144"/>
       <c r="D144" t="s">
         <v>313</v>
       </c>
-      <c r="E144"/>
-    </row>
-    <row r="145" spans="1:26">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>314</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
-      <c r="C145"/>
       <c r="D145" t="s">
         <v>315</v>
       </c>
-      <c r="E145"/>
-    </row>
-    <row r="146" spans="1:26">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>316</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
-      <c r="C146"/>
       <c r="D146" t="s">
         <v>24</v>
       </c>
-      <c r="E146"/>
-    </row>
-    <row r="147" spans="1:26">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>317</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
-      <c r="C147"/>
       <c r="D147" t="s">
         <v>318</v>
       </c>
-      <c r="E147"/>
-    </row>
-    <row r="148" spans="1:26">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>319</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
-      <c r="C148"/>
       <c r="D148" t="s">
         <v>175</v>
       </c>
-      <c r="E148"/>
-    </row>
-    <row r="149" spans="1:26">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>320</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
-      <c r="C149"/>
       <c r="D149" t="s">
         <v>72</v>
       </c>
-      <c r="E149"/>
-    </row>
-    <row r="150" spans="1:26">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>321</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
-      <c r="C150"/>
       <c r="D150" t="s">
         <v>322</v>
       </c>
-      <c r="E150"/>
-    </row>
-    <row r="151" spans="1:26">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>323</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
-      <c r="C151"/>
       <c r="D151" t="s">
         <v>182</v>
       </c>
-      <c r="E151"/>
-    </row>
-    <row r="152" spans="1:26">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>324</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
-      <c r="C152"/>
       <c r="D152" t="s">
         <v>325</v>
       </c>
-      <c r="E152"/>
-    </row>
-    <row r="153" spans="1:26">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>326</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
-      <c r="C153"/>
       <c r="D153" t="s">
         <v>327</v>
       </c>
-      <c r="E153"/>
-    </row>
-    <row r="154" spans="1:26">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>328</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
-      <c r="C154"/>
       <c r="D154" t="s">
         <v>329</v>
       </c>
-      <c r="E154"/>
-    </row>
-    <row r="155" spans="1:26">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>330</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
-      <c r="C155"/>
       <c r="D155" t="s">
         <v>331</v>
       </c>
-      <c r="E155"/>
-    </row>
-    <row r="156" spans="1:26">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>332</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
-      <c r="C156"/>
       <c r="D156" t="s">
         <v>333</v>
       </c>
-      <c r="E156"/>
-    </row>
-    <row r="157" spans="1:26">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>334</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
-      <c r="C157"/>
       <c r="D157" t="s">
         <v>335</v>
       </c>
-      <c r="E157"/>
-    </row>
-    <row r="158" spans="1:26">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>336</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
-      <c r="C158"/>
       <c r="D158" t="s">
         <v>337</v>
       </c>
-      <c r="E158"/>
-    </row>
-    <row r="159" spans="1:26">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>338</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
-      <c r="C159"/>
       <c r="D159" t="s">
         <v>339</v>
       </c>
-      <c r="E159"/>
-    </row>
-    <row r="160" spans="1:26">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>340</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
-      <c r="C160"/>
       <c r="D160" t="s">
         <v>341</v>
       </c>
-      <c r="E160"/>
-    </row>
-    <row r="161" spans="1:26">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>342</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
-      <c r="C161"/>
       <c r="D161" t="s">
         <v>343</v>
       </c>
-      <c r="E161"/>
-    </row>
-    <row r="162" spans="1:26">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>344</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
-      <c r="C162"/>
       <c r="D162" t="s">
         <v>345</v>
       </c>
-      <c r="E162"/>
-    </row>
-    <row r="163" spans="1:26">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>346</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
-      <c r="C163"/>
       <c r="D163" t="s">
         <v>347</v>
       </c>
-      <c r="E163"/>
-    </row>
-    <row r="164" spans="1:26">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>348</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
-      <c r="C164"/>
       <c r="D164" t="s">
         <v>349</v>
       </c>
-      <c r="E164"/>
-    </row>
-    <row r="165" spans="1:26">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>350</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
-      <c r="C165"/>
       <c r="D165" t="s">
         <v>351</v>
       </c>
-      <c r="E165"/>
-    </row>
-    <row r="166" spans="1:26">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>352</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
-      <c r="C166"/>
       <c r="D166" t="s">
         <v>353</v>
       </c>
-      <c r="E166"/>
-    </row>
-    <row r="167" spans="1:26">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>354</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
-      <c r="C167"/>
       <c r="D167" t="s">
         <v>355</v>
       </c>
-      <c r="E167"/>
-    </row>
-    <row r="168" spans="1:26">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>356</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
-      <c r="C168"/>
       <c r="D168" t="s">
         <v>357</v>
       </c>
-      <c r="E168"/>
-    </row>
-    <row r="169" spans="1:26">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>358</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
-      <c r="C169"/>
       <c r="D169" t="s">
         <v>359</v>
       </c>
-      <c r="E169"/>
-    </row>
-    <row r="170" spans="1:26">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>360</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
-      <c r="C170"/>
       <c r="D170" t="s">
         <v>361</v>
       </c>
-      <c r="E170"/>
-    </row>
-    <row r="171" spans="1:26">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>362</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
-      <c r="C171"/>
       <c r="D171" t="s">
         <v>363</v>
       </c>
-      <c r="E171"/>
-    </row>
-    <row r="172" spans="1:26">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>364</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
-      <c r="C172"/>
       <c r="D172" t="s">
         <v>365</v>
       </c>
-      <c r="E172"/>
-    </row>
-    <row r="173" spans="1:26">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>366</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
-      <c r="C173"/>
       <c r="D173" t="s">
         <v>367</v>
       </c>
-      <c r="E173"/>
-    </row>
-    <row r="174" spans="1:26">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>368</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
-      <c r="C174"/>
       <c r="D174" t="s">
         <v>286</v>
       </c>
-      <c r="E174"/>
-    </row>
-    <row r="175" spans="1:26">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>369</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
-      <c r="C175"/>
       <c r="D175" t="s">
         <v>72</v>
       </c>
-      <c r="E175"/>
-    </row>
-    <row r="176" spans="1:26">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>370</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
-      <c r="C176"/>
       <c r="D176" t="s">
         <v>371</v>
       </c>
-      <c r="E176"/>
-    </row>
-    <row r="177" spans="1:26">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>372</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
-      <c r="C177"/>
       <c r="D177" t="s">
         <v>182</v>
       </c>
-      <c r="E177"/>
-    </row>
-    <row r="178" spans="1:26">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>373</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
-      <c r="C178"/>
       <c r="D178" t="s">
         <v>374</v>
       </c>
-      <c r="E178"/>
-    </row>
-    <row r="179" spans="1:26">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>375</v>
       </c>
       <c r="B179">
         <v>0</v>
       </c>
-      <c r="C179"/>
       <c r="D179" t="s">
         <v>376</v>
       </c>
-      <c r="E179"/>
-    </row>
-    <row r="180" spans="1:26">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>377</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
-      <c r="C180"/>
       <c r="D180" t="s">
         <v>190</v>
       </c>
-      <c r="E180"/>
-    </row>
-    <row r="181" spans="1:26">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>378</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
-      <c r="C181"/>
       <c r="D181" t="s">
         <v>379</v>
       </c>
-      <c r="E181"/>
-    </row>
-    <row r="182" spans="1:26">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>380</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
-      <c r="C182"/>
       <c r="D182" t="s">
         <v>381</v>
       </c>
-      <c r="E182"/>
-    </row>
-    <row r="183" spans="1:26">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>382</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
-      <c r="C183"/>
       <c r="D183" t="s">
         <v>383</v>
       </c>
-      <c r="E183"/>
-    </row>
-    <row r="184" spans="1:26">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>384</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
-      <c r="C184"/>
       <c r="D184" t="s">
         <v>385</v>
       </c>
-      <c r="E184"/>
-    </row>
-    <row r="185" spans="1:26">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>386</v>
       </c>
       <c r="B185">
         <v>0</v>
       </c>
-      <c r="C185"/>
       <c r="D185" t="s">
         <v>387</v>
       </c>
@@ -4586,14 +4199,13 @@
         <v>388</v>
       </c>
     </row>
-    <row r="186" spans="1:26">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>389</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
-      <c r="C186"/>
       <c r="D186" t="s">
         <v>390</v>
       </c>
@@ -4601,14 +4213,13 @@
         <v>391</v>
       </c>
     </row>
-    <row r="187" spans="1:26">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>392</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
-      <c r="C187"/>
       <c r="D187" t="s">
         <v>393</v>
       </c>
@@ -4616,14 +4227,13 @@
         <v>394</v>
       </c>
     </row>
-    <row r="188" spans="1:26">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>395</v>
       </c>
       <c r="B188">
         <v>0</v>
       </c>
-      <c r="C188"/>
       <c r="D188" t="s">
         <v>396</v>
       </c>
@@ -4631,14 +4241,13 @@
         <v>397</v>
       </c>
     </row>
-    <row r="189" spans="1:26">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>398</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
-      <c r="C189"/>
       <c r="D189" t="s">
         <v>399</v>
       </c>
@@ -4646,14 +4255,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="190" spans="1:26">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>401</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
-      <c r="C190"/>
       <c r="D190" t="s">
         <v>402</v>
       </c>
@@ -4661,273 +4269,271 @@
         <v>403</v>
       </c>
     </row>
-    <row r="191" spans="1:26">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>404</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
-      <c r="C191"/>
       <c r="D191" t="s">
+        <v>451</v>
+      </c>
+      <c r="E191" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>405</v>
       </c>
-      <c r="E191" t="s">
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="D192" t="s">
+        <v>454</v>
+      </c>
+      <c r="E192" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="192" spans="1:26">
-      <c r="A192" t="s">
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="D193" t="s">
         <v>407</v>
       </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-      <c r="C192"/>
-      <c r="D192" t="s">
+      <c r="E193" t="s">
         <v>408</v>
       </c>
-      <c r="E192" t="s">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="193" spans="1:26">
-      <c r="A193" t="s">
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="D194" t="s">
         <v>410</v>
       </c>
-      <c r="B193">
-        <v>0</v>
-      </c>
-      <c r="C193"/>
-      <c r="D193" t="s">
+      <c r="E194" t="s">
         <v>411</v>
       </c>
-      <c r="E193" t="s">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="194" spans="1:26">
-      <c r="A194" t="s">
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="D195" t="s">
         <v>413</v>
       </c>
-      <c r="B194">
-        <v>0</v>
-      </c>
-      <c r="C194"/>
-      <c r="D194" t="s">
+      <c r="E195" t="s">
         <v>414</v>
       </c>
-      <c r="E194" t="s">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="195" spans="1:26">
-      <c r="A195" t="s">
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="D196" t="s">
         <v>416</v>
       </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-      <c r="C195"/>
-      <c r="D195" t="s">
+      <c r="E196" t="s">
         <v>417</v>
       </c>
-      <c r="E195" t="s">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="196" spans="1:26">
-      <c r="A196" t="s">
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="D197" t="s">
         <v>419</v>
       </c>
-      <c r="B196">
-        <v>0</v>
-      </c>
-      <c r="C196"/>
-      <c r="D196" t="s">
+      <c r="E197" t="s">
         <v>420</v>
       </c>
-      <c r="E196" t="s">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="197" spans="1:26">
-      <c r="A197" t="s">
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="D198" t="s">
+        <v>419</v>
+      </c>
+      <c r="E198" t="s">
         <v>422</v>
       </c>
-      <c r="B197">
-        <v>0</v>
-      </c>
-      <c r="C197"/>
-      <c r="D197" t="s">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
         <v>423</v>
       </c>
-      <c r="E197" t="s">
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="D199" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="198" spans="1:26">
-      <c r="A198" t="s">
+      <c r="E199" t="s">
         <v>425</v>
       </c>
-      <c r="B198">
-        <v>0</v>
-      </c>
-      <c r="C198"/>
-      <c r="D198" t="s">
-        <v>423</v>
-      </c>
-      <c r="E198" t="s">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="199" spans="1:26">
-      <c r="A199" t="s">
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="D200" t="s">
         <v>427</v>
       </c>
-      <c r="B199">
-        <v>0</v>
-      </c>
-      <c r="C199"/>
-      <c r="D199" t="s">
+      <c r="E200" t="s">
         <v>428</v>
       </c>
-      <c r="E199" t="s">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="200" spans="1:26">
-      <c r="A200" t="s">
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="D201" t="s">
         <v>430</v>
       </c>
-      <c r="B200">
-        <v>0</v>
-      </c>
-      <c r="C200"/>
-      <c r="D200" t="s">
+      <c r="E201" t="s">
         <v>431</v>
       </c>
-      <c r="E200" t="s">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="201" spans="1:26">
-      <c r="A201" t="s">
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="D202" t="s">
         <v>433</v>
       </c>
-      <c r="B201">
-        <v>0</v>
-      </c>
-      <c r="C201"/>
-      <c r="D201" t="s">
+      <c r="E202" t="s">
         <v>434</v>
       </c>
-      <c r="E201" t="s">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="202" spans="1:26">
-      <c r="A202" t="s">
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="D203" t="s">
         <v>436</v>
       </c>
-      <c r="B202">
-        <v>0</v>
-      </c>
-      <c r="C202"/>
-      <c r="D202" t="s">
+      <c r="E203" t="s">
         <v>437</v>
       </c>
-      <c r="E202" t="s">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="203" spans="1:26">
-      <c r="A203" t="s">
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="D204" t="s">
+        <v>430</v>
+      </c>
+      <c r="E204" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
         <v>439</v>
       </c>
-      <c r="B203">
-        <v>0</v>
-      </c>
-      <c r="C203"/>
-      <c r="D203" t="s">
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="D205" t="s">
         <v>440</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E205" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="204" spans="1:26">
-      <c r="A204" t="s">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>442</v>
       </c>
-      <c r="B204">
-        <v>0</v>
-      </c>
-      <c r="C204"/>
-      <c r="D204" t="s">
-        <v>434</v>
-      </c>
-      <c r="E204" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="205" spans="1:26">
-      <c r="A205" t="s">
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="D206" t="s">
         <v>443</v>
       </c>
-      <c r="B205">
-        <v>0</v>
-      </c>
-      <c r="C205"/>
-      <c r="D205" t="s">
+      <c r="E206" t="s">
         <v>444</v>
       </c>
-      <c r="E205" t="s">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="206" spans="1:26">
-      <c r="A206" t="s">
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="D207" t="s">
         <v>446</v>
       </c>
-      <c r="B206">
-        <v>0</v>
-      </c>
-      <c r="C206"/>
-      <c r="D206" t="s">
+      <c r="E207" t="s">
         <v>447</v>
       </c>
-      <c r="E206" t="s">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="207" spans="1:26">
-      <c r="A207" t="s">
+      <c r="B208" s="2">
+        <v>0</v>
+      </c>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B207">
-        <v>0</v>
-      </c>
-      <c r="C207"/>
-      <c r="D207" t="s">
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E207" t="s">
-        <v>451</v>
+      <c r="B209" s="2">
+        <v>0</v>
+      </c>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="" right="" top="" bottom="" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="457">
   <si>
     <t>name</t>
   </si>
@@ -1390,6 +1390,12 @@
   </si>
   <si>
     <t>Toegang tot</t>
+  </si>
+  <si>
+    <t>back.auth.resetInstructions</t>
+  </si>
+  <si>
+    <t>back.auth.passwordConfirm</t>
   </si>
 </sst>
 </file>
@@ -2021,11 +2027,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z209"/>
+  <dimension ref="A1:Z211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D193" sqref="D193"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4531,6 +4537,28 @@
         <v>144</v>
       </c>
     </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>455</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="D210" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>456</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="D211" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -1442,10 +1442,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2030,8 +2031,8 @@
   <dimension ref="A1:Z211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A212" sqref="A212"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2972,1595 +2973,1600 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>199</v>
+        <v>456</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>200</v>
+        <v>455</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>206</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="D79" t="s">
-        <v>26</v>
+      <c r="A79" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>207</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="D80" t="s">
-        <v>208</v>
+      <c r="A80" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>213</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>72</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>35</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>223</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>38</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>228</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>232</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>260</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>26</v>
+        <v>255</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>29</v>
+        <v>258</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>215</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="D120" t="s">
-        <v>226</v>
+        <v>72</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>276</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="D123" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="D129" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="D130" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>72</v>
+        <v>288</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="D132" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="D133" t="s">
-        <v>175</v>
+        <v>292</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="D134" t="s">
-        <v>72</v>
+        <v>294</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
       <c r="D135" t="s">
-        <v>300</v>
+        <v>72</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="D136" t="s">
-        <v>302</v>
+        <v>173</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="D139" t="s">
-        <v>184</v>
+        <v>300</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="D140" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="D141" t="s">
-        <v>309</v>
+        <v>190</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="D142" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="D143" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="D145" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="D147" t="s">
-        <v>318</v>
+        <v>192</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>175</v>
+        <v>313</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="D149" t="s">
-        <v>72</v>
+        <v>315</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="D150" t="s">
-        <v>322</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="D151" t="s">
-        <v>182</v>
+        <v>318</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="D152" t="s">
-        <v>325</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>327</v>
+        <v>72</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
       <c r="D155" t="s">
-        <v>331</v>
+        <v>182</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="D156" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="D158" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
       <c r="D161" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
       <c r="D162" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
       <c r="D163" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
       <c r="D164" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
       <c r="D165" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
       <c r="D166" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
       <c r="D167" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
       <c r="D168" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
       <c r="D169" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
       <c r="D170" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
       <c r="D171" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
       <c r="D172" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>286</v>
+        <v>361</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
       <c r="D175" t="s">
-        <v>72</v>
+        <v>363</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
       <c r="D176" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
       <c r="D177" t="s">
-        <v>182</v>
+        <v>367</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
       <c r="D178" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B179">
         <v>0</v>
       </c>
       <c r="D179" t="s">
-        <v>376</v>
+        <v>72</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>190</v>
+        <v>371</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
       <c r="D181" t="s">
-        <v>379</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
       <c r="D182" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
       <c r="D183" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184" t="s">
-        <v>385</v>
+        <v>190</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B185">
         <v>0</v>
       </c>
       <c r="D185" t="s">
-        <v>387</v>
-      </c>
-      <c r="E185" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
       <c r="D186" t="s">
-        <v>390</v>
-      </c>
-      <c r="E186" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
       <c r="D187" t="s">
-        <v>393</v>
-      </c>
-      <c r="E187" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>396</v>
-      </c>
-      <c r="E188" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
       <c r="D189" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E189" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
       <c r="D190" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="E190" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>451</v>
+        <v>393</v>
       </c>
       <c r="E191" t="s">
-        <v>453</v>
+        <v>394</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
       <c r="D192" t="s">
-        <v>454</v>
+        <v>396</v>
       </c>
       <c r="E192" t="s">
-        <v>452</v>
+        <v>397</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
       <c r="D193" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E193" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
       <c r="D194" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E194" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
       <c r="D195" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="E195" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
       <c r="D196" t="s">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="E196" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B197">
         <v>0</v>
       </c>
       <c r="D197" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="E197" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B198">
         <v>0</v>
       </c>
       <c r="D198" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E198" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E199" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
       <c r="D200" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="E200" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="E201" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B202">
         <v>0</v>
       </c>
       <c r="D202" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="E202" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B203">
         <v>0</v>
       </c>
       <c r="D203" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="E203" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="B204">
         <v>0</v>
       </c>
       <c r="D204" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E204" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B205">
         <v>0</v>
       </c>
       <c r="D205" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="E205" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B206">
         <v>0</v>
       </c>
       <c r="D206" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="E206" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B207">
         <v>0</v>
       </c>
       <c r="D207" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="E207" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B208" s="2">
         <v>0</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+      <c r="E208" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B209" s="2">
         <v>0</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+      <c r="E209" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B210">
         <v>0</v>
       </c>
       <c r="D210" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+      <c r="E210" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B211">
         <v>0</v>
       </c>
       <c r="D211" t="s">
-        <v>38</v>
+        <v>446</v>
+      </c>
+      <c r="E211" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sortState ref="A2:E211">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandedeyne/Sites/blender/database/seeds/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freek/dev/github/blender/database/seeds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -771,9 +771,6 @@
     <t>back.formResponses.info</t>
   </si>
   <si>
-    <t>De reacties worden standaard gemaild naar &lt;strong&gt;recipients&lt;/strong&gt;. Download hier de backup van alle reacties als .xlsx-bestand (Excel).</t>
-  </si>
-  <si>
     <t>back.formResponses.title</t>
   </si>
   <si>
@@ -1396,6 +1393,9 @@
   </si>
   <si>
     <t>back.auth.passwordConfirm</t>
+  </si>
+  <si>
+    <t>De reacties worden standaard gemaild naar &lt;strong&gt;:recipients&lt;/strong&gt;. Download hier de backup van alle reacties als .xlsx-bestand (Excel).</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1755,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2031,8 +2031,8 @@
   <dimension ref="A1:Z211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C200" sqref="C200"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B79" s="3">
         <v>0</v>
@@ -3040,14 +3040,14 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -3333,34 +3333,34 @@
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>248</v>
+        <v>456</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>248</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="D107" t="s">
         <v>249</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="D107" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>250</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="D108" t="s">
         <v>251</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="D108" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -3371,18 +3371,18 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>253</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
         <v>254</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-      <c r="D110" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -3393,29 +3393,29 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>256</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="D112" t="s">
         <v>257</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="D112" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>258</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="D113" t="s">
         <v>259</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="D113" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -3470,18 +3470,18 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>265</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="D119" t="s">
         <v>266</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="D119" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3503,29 +3503,29 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>269</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="D122" t="s">
         <v>270</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="D122" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>271</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="D123" t="s">
         <v>272</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="D123" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3536,117 +3536,117 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>274</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="D125" t="s">
         <v>275</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="D125" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>276</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
         <v>277</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="D126" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>278</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="D127" t="s">
         <v>279</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="D127" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>280</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="D128" t="s">
         <v>281</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-      <c r="D128" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>282</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="D129" t="s">
         <v>283</v>
-      </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-      <c r="D129" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>284</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="D130" t="s">
         <v>285</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-      <c r="D130" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>286</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="D131" t="s">
         <v>287</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-      <c r="D131" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>288</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="D132" t="s">
         <v>289</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-      <c r="D132" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>290</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="D133" t="s">
         <v>291</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-      <c r="D133" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>292</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="D134" t="s">
         <v>293</v>
-      </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-      <c r="D134" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3690,29 +3690,29 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>298</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="D139" t="s">
         <v>299</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="D139" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>300</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="D140" t="s">
         <v>301</v>
-      </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-      <c r="D140" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3745,29 +3745,29 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>305</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="D144" t="s">
         <v>306</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-      <c r="D144" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>307</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="D145" t="s">
         <v>308</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-      <c r="D145" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3789,29 +3789,29 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>311</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="D148" t="s">
         <v>312</v>
-      </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-      <c r="D148" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>313</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="D149" t="s">
         <v>314</v>
-      </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-      <c r="D149" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3822,18 +3822,18 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>316</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="D151" t="s">
         <v>317</v>
-      </c>
-      <c r="B151">
-        <v>0</v>
-      </c>
-      <c r="D151" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3855,18 +3855,18 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>320</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="D154" t="s">
         <v>321</v>
-      </c>
-      <c r="B154">
-        <v>0</v>
-      </c>
-      <c r="D154" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3877,260 +3877,260 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>323</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="D156" t="s">
         <v>324</v>
-      </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-      <c r="D156" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>325</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="D157" t="s">
         <v>326</v>
-      </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-      <c r="D157" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>327</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="D158" t="s">
         <v>328</v>
-      </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-      <c r="D158" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>329</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="D159" t="s">
         <v>330</v>
-      </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
-      <c r="D159" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>331</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="D160" t="s">
         <v>332</v>
-      </c>
-      <c r="B160">
-        <v>0</v>
-      </c>
-      <c r="D160" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>333</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="D161" t="s">
         <v>334</v>
-      </c>
-      <c r="B161">
-        <v>0</v>
-      </c>
-      <c r="D161" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>335</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="D162" t="s">
         <v>336</v>
-      </c>
-      <c r="B162">
-        <v>0</v>
-      </c>
-      <c r="D162" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>337</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="D163" t="s">
         <v>338</v>
-      </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-      <c r="D163" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>339</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="D164" t="s">
         <v>340</v>
-      </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-      <c r="D164" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>341</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="D165" t="s">
         <v>342</v>
-      </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-      <c r="D165" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>343</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="D166" t="s">
         <v>344</v>
-      </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-      <c r="D166" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>345</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
         <v>346</v>
-      </c>
-      <c r="B167">
-        <v>0</v>
-      </c>
-      <c r="D167" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>347</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="D168" t="s">
         <v>348</v>
-      </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-      <c r="D168" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>349</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="D169" t="s">
         <v>350</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-      <c r="D169" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>351</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="D170" t="s">
         <v>352</v>
-      </c>
-      <c r="B170">
-        <v>0</v>
-      </c>
-      <c r="D170" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>353</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="D171" t="s">
         <v>354</v>
-      </c>
-      <c r="B171">
-        <v>0</v>
-      </c>
-      <c r="D171" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>355</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="D172" t="s">
         <v>356</v>
-      </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-      <c r="D172" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>357</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
         <v>358</v>
-      </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-      <c r="D173" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>359</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="D174" t="s">
         <v>360</v>
-      </c>
-      <c r="B174">
-        <v>0</v>
-      </c>
-      <c r="D174" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>361</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="D175" t="s">
         <v>362</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-      <c r="D175" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>363</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="D176" t="s">
         <v>364</v>
-      </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-      <c r="D176" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>365</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="D177" t="s">
         <v>366</v>
-      </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-      <c r="D177" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
       <c r="D178" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4141,18 +4141,18 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>369</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="D180" t="s">
         <v>370</v>
-      </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-      <c r="D180" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4163,29 +4163,29 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>372</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="D182" t="s">
         <v>373</v>
-      </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-      <c r="D182" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>374</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="D183" t="s">
         <v>375</v>
-      </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-      <c r="D183" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4196,370 +4196,370 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>377</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="D185" t="s">
         <v>378</v>
-      </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-      <c r="D185" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>379</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="D186" t="s">
         <v>380</v>
-      </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-      <c r="D186" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>381</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="D187" t="s">
         <v>382</v>
-      </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-      <c r="D187" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>385</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="D189" t="s">
         <v>386</v>
       </c>
-      <c r="B189">
-        <v>0</v>
-      </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>387</v>
-      </c>
-      <c r="E189" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>388</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="D190" t="s">
         <v>389</v>
       </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>390</v>
-      </c>
-      <c r="E190" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>391</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="D191" t="s">
         <v>392</v>
       </c>
-      <c r="B191">
-        <v>0</v>
-      </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>393</v>
-      </c>
-      <c r="E191" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>394</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="D192" t="s">
         <v>395</v>
       </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>396</v>
-      </c>
-      <c r="E192" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>397</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="D193" t="s">
         <v>398</v>
       </c>
-      <c r="B193">
-        <v>0</v>
-      </c>
-      <c r="D193" t="s">
+      <c r="E193" t="s">
         <v>399</v>
-      </c>
-      <c r="E193" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>400</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="D194" t="s">
         <v>401</v>
       </c>
-      <c r="B194">
-        <v>0</v>
-      </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
         <v>402</v>
-      </c>
-      <c r="E194" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
       <c r="D195" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E195" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
       <c r="D196" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E196" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>405</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="D197" t="s">
         <v>406</v>
       </c>
-      <c r="B197">
-        <v>0</v>
-      </c>
-      <c r="D197" t="s">
+      <c r="E197" t="s">
         <v>407</v>
-      </c>
-      <c r="E197" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
+        <v>408</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="D198" t="s">
         <v>409</v>
       </c>
-      <c r="B198">
-        <v>0</v>
-      </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>410</v>
-      </c>
-      <c r="E198" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>411</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="D199" t="s">
         <v>412</v>
       </c>
-      <c r="B199">
-        <v>0</v>
-      </c>
-      <c r="D199" t="s">
+      <c r="E199" t="s">
         <v>413</v>
-      </c>
-      <c r="E199" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>414</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="D200" t="s">
         <v>415</v>
       </c>
-      <c r="B200">
-        <v>0</v>
-      </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>416</v>
-      </c>
-      <c r="E200" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>417</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="D201" t="s">
         <v>418</v>
       </c>
-      <c r="B201">
-        <v>0</v>
-      </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>419</v>
-      </c>
-      <c r="E201" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>420</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="D202" t="s">
+        <v>418</v>
+      </c>
+      <c r="E202" t="s">
         <v>421</v>
-      </c>
-      <c r="B202">
-        <v>0</v>
-      </c>
-      <c r="D202" t="s">
-        <v>419</v>
-      </c>
-      <c r="E202" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
+        <v>422</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="D203" t="s">
         <v>423</v>
       </c>
-      <c r="B203">
-        <v>0</v>
-      </c>
-      <c r="D203" t="s">
+      <c r="E203" t="s">
         <v>424</v>
-      </c>
-      <c r="E203" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>425</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="D204" t="s">
         <v>426</v>
       </c>
-      <c r="B204">
-        <v>0</v>
-      </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>427</v>
-      </c>
-      <c r="E204" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>428</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="D205" t="s">
         <v>429</v>
       </c>
-      <c r="B205">
-        <v>0</v>
-      </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>430</v>
-      </c>
-      <c r="E205" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>431</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="D206" t="s">
         <v>432</v>
       </c>
-      <c r="B206">
-        <v>0</v>
-      </c>
-      <c r="D206" t="s">
+      <c r="E206" t="s">
         <v>433</v>
-      </c>
-      <c r="E206" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>434</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="D207" t="s">
         <v>435</v>
       </c>
-      <c r="B207">
-        <v>0</v>
-      </c>
-      <c r="D207" t="s">
+      <c r="E207" t="s">
         <v>436</v>
-      </c>
-      <c r="E207" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B208" s="2">
         <v>0</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E208" t="s">
         <v>430</v>
-      </c>
-      <c r="E208" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B209" s="2">
         <v>0</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E209" t="s">
         <v>440</v>
-      </c>
-      <c r="E209" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>441</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="D210" t="s">
         <v>442</v>
       </c>
-      <c r="B210">
-        <v>0</v>
-      </c>
-      <c r="D210" t="s">
+      <c r="E210" t="s">
         <v>443</v>
-      </c>
-      <c r="E210" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>444</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="D211" t="s">
         <v>445</v>
       </c>
-      <c r="B211">
-        <v>0</v>
-      </c>
-      <c r="D211" t="s">
+      <c r="E211" t="s">
         <v>446</v>
-      </c>
-      <c r="E211" t="s">
-        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freek/dev/github/blender/database/seeds/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandedeyne/Sites/blender/database/seeds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="459">
   <si>
     <t>name</t>
   </si>
@@ -1396,6 +1396,12 @@
   </si>
   <si>
     <t>De reacties worden standaard gemaild naar &lt;strong&gt;:recipients&lt;/strong&gt;. Download hier de backup van alle reacties als .xlsx-bestand (Excel).</t>
+  </si>
+  <si>
+    <t>back.auth.titleLogin</t>
+  </si>
+  <si>
+    <t>Inloggen</t>
   </si>
 </sst>
 </file>
@@ -2028,11 +2034,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z211"/>
+  <dimension ref="A1:Z212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3027,1402 +3033,1399 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B79" s="3">
-        <v>0</v>
-      </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3" t="s">
-        <v>144</v>
+      <c r="A79" t="s">
+        <v>457</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3" t="s">
         <v>448</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>202</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="D81" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>208</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>218</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>38</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>226</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>456</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>249</v>
+        <v>456</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>72</v>
+        <v>251</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>254</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>26</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>210</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="D120" t="s">
-        <v>72</v>
+        <v>266</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>218</v>
+        <v>72</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="D123" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="D129" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="D130" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="D132" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="D133" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="D134" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
       <c r="D135" t="s">
-        <v>72</v>
+        <v>293</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="D136" t="s">
-        <v>173</v>
+        <v>72</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="D139" t="s">
-        <v>299</v>
+        <v>72</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="D140" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="D141" t="s">
-        <v>190</v>
+        <v>301</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="D142" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="D143" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>306</v>
+        <v>184</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="D145" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>190</v>
+        <v>308</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="D147" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>312</v>
+        <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="D149" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="D150" t="s">
-        <v>24</v>
+        <v>314</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="D151" t="s">
-        <v>317</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="D152" t="s">
-        <v>175</v>
+        <v>317</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>321</v>
+        <v>72</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
       <c r="D155" t="s">
-        <v>182</v>
+        <v>321</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="D156" t="s">
-        <v>324</v>
+        <v>182</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="D158" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
       <c r="D161" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
       <c r="D162" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
       <c r="D163" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
       <c r="D164" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
       <c r="D165" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
       <c r="D166" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
       <c r="D167" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
       <c r="D168" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
       <c r="D169" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
       <c r="D170" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
       <c r="D171" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
       <c r="D172" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
       <c r="D175" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
       <c r="D176" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
       <c r="D177" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
       <c r="D178" t="s">
-        <v>285</v>
+        <v>366</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B179">
         <v>0</v>
       </c>
       <c r="D179" t="s">
-        <v>72</v>
+        <v>285</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>370</v>
+        <v>72</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
       <c r="D181" t="s">
-        <v>182</v>
+        <v>370</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
       <c r="D182" t="s">
-        <v>373</v>
+        <v>182</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
       <c r="D183" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
       <c r="D184" t="s">
-        <v>190</v>
+        <v>375</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B185">
         <v>0</v>
       </c>
       <c r="D185" t="s">
-        <v>378</v>
+        <v>190</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
       <c r="D186" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
       <c r="D187" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="s">
-        <v>386</v>
-      </c>
-      <c r="E189" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
       <c r="D190" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E190" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E191" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
       <c r="D192" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E192" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
       <c r="D193" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E193" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
       <c r="D194" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E194" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
       <c r="D195" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="E195" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
       <c r="D196" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E196" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B197">
         <v>0</v>
       </c>
       <c r="D197" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="E197" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B198">
         <v>0</v>
       </c>
       <c r="D198" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E198" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E199" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
       <c r="D200" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E200" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E201" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -4431,134 +4434,148 @@
         <v>418</v>
       </c>
       <c r="E202" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B203">
         <v>0</v>
       </c>
       <c r="D203" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E203" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B204">
         <v>0</v>
       </c>
       <c r="D204" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E204" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B205">
         <v>0</v>
       </c>
       <c r="D205" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E205" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B206">
         <v>0</v>
       </c>
       <c r="D206" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E206" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>431</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="D207" t="s">
+        <v>432</v>
+      </c>
+      <c r="E207" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>434</v>
       </c>
-      <c r="B207">
-        <v>0</v>
-      </c>
-      <c r="D207" t="s">
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="D208" t="s">
         <v>435</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E208" t="s">
         <v>436</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B208" s="2">
-        <v>0</v>
-      </c>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="E208" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B209" s="2">
         <v>0</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E209" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B210" s="2">
+        <v>0</v>
+      </c>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E210" t="s">
         <v>440</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>441</v>
-      </c>
-      <c r="B210">
-        <v>0</v>
-      </c>
-      <c r="D210" t="s">
-        <v>442</v>
-      </c>
-      <c r="E210" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>441</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="D211" t="s">
+        <v>442</v>
+      </c>
+      <c r="E211" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
         <v>444</v>
       </c>
-      <c r="B211">
-        <v>0</v>
-      </c>
-      <c r="D211" t="s">
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="D212" t="s">
         <v>445</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E212" t="s">
         <v>446</v>
       </c>
     </row>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="467">
   <si>
     <t>name</t>
   </si>
@@ -1402,6 +1402,30 @@
   </si>
   <si>
     <t>Inloggen</t>
+  </si>
+  <si>
+    <t>back.dashboard.title</t>
+  </si>
+  <si>
+    <t>back.log.title</t>
+  </si>
+  <si>
+    <t>back.fragments.download</t>
+  </si>
+  <si>
+    <t>back.users.justNow</t>
+  </si>
+  <si>
+    <t>back.users.neverLoggedIn</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Download fragmenten</t>
   </si>
 </sst>
 </file>
@@ -2034,11 +2058,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z212"/>
+  <dimension ref="A1:Z217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3267,436 +3291,436 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>233</v>
+        <v>459</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>234</v>
+        <v>464</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>456</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>249</v>
+        <v>456</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>72</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>253</v>
+        <v>461</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>254</v>
+        <v>466</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>26</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>215</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="D120" t="s">
-        <v>266</v>
+        <v>213</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="D123" t="s">
-        <v>270</v>
+        <v>72</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>226</v>
+        <v>270</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>277</v>
+        <v>226</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="D129" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="D130" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="D132" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="D133" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="D134" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
       <c r="D135" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="D136" t="s">
-        <v>72</v>
+        <v>291</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>295</v>
+        <v>460</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>173</v>
+        <v>465</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>175</v>
+        <v>293</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3707,882 +3731,939 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="D140" t="s">
-        <v>299</v>
+        <v>173</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="D141" t="s">
-        <v>301</v>
+        <v>175</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="D142" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="D143" t="s">
-        <v>182</v>
+        <v>299</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>184</v>
+        <v>301</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="D145" t="s">
-        <v>306</v>
+        <v>190</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>308</v>
+        <v>182</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="D147" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>192</v>
+        <v>306</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="D149" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="D150" t="s">
-        <v>314</v>
+        <v>190</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="D151" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="D152" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>175</v>
+        <v>314</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
       <c r="D155" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="D156" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>324</v>
+        <v>72</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="D158" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>328</v>
+        <v>182</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
       <c r="D161" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
       <c r="D162" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
       <c r="D163" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
       <c r="D164" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
       <c r="D165" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
       <c r="D166" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
       <c r="D167" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
       <c r="D168" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
       <c r="D169" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
       <c r="D170" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
       <c r="D171" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
       <c r="D172" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
       <c r="D175" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>355</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="D176" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>357</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="D177" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>359</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="D178" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>361</v>
       </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="D179" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>363</v>
       </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="D180" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>365</v>
       </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-      <c r="D178" t="s">
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="D181" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>367</v>
       </c>
-      <c r="B179">
-        <v>0</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="D182" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>368</v>
       </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="D183" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>369</v>
       </c>
-      <c r="B181">
-        <v>0</v>
-      </c>
-      <c r="D181" t="s">
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="D184" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>371</v>
       </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-      <c r="D182" t="s">
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="D185" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>372</v>
       </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="D186" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>374</v>
       </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-      <c r="D184" t="s">
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="D187" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>376</v>
       </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-      <c r="D185" t="s">
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="D188" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>377</v>
       </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-      <c r="D186" t="s">
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="D189" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>379</v>
       </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-      <c r="D187" t="s">
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="D190" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>381</v>
       </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-      <c r="D188" t="s">
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="D191" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>383</v>
-      </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-      <c r="D189" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>385</v>
-      </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-      <c r="D190" t="s">
-        <v>386</v>
-      </c>
-      <c r="E190" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>388</v>
-      </c>
-      <c r="B191">
-        <v>0</v>
-      </c>
-      <c r="D191" t="s">
-        <v>389</v>
-      </c>
-      <c r="E191" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>391</v>
+        <v>462</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
       <c r="D192" t="s">
-        <v>392</v>
-      </c>
-      <c r="E192" t="s">
-        <v>393</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>394</v>
+        <v>463</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
       <c r="D193" t="s">
-        <v>395</v>
-      </c>
-      <c r="E193" t="s">
-        <v>396</v>
+        <v>218</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>398</v>
-      </c>
-      <c r="E194" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
       <c r="D195" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="E195" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
       <c r="D196" t="s">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="E196" t="s">
-        <v>452</v>
+        <v>390</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B197">
         <v>0</v>
       </c>
       <c r="D197" t="s">
-        <v>453</v>
+        <v>392</v>
       </c>
       <c r="E197" t="s">
-        <v>451</v>
+        <v>393</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B198">
         <v>0</v>
       </c>
       <c r="D198" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="E198" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="E199" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
       <c r="D200" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E200" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="E201" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B202">
         <v>0</v>
       </c>
       <c r="D202" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="E202" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="B203">
         <v>0</v>
       </c>
       <c r="D203" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="E203" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="B204">
         <v>0</v>
       </c>
       <c r="D204" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="E204" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="B205">
         <v>0</v>
       </c>
       <c r="D205" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="E205" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B206">
         <v>0</v>
       </c>
       <c r="D206" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="E206" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B207">
         <v>0</v>
       </c>
       <c r="D207" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="E207" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B208">
         <v>0</v>
       </c>
       <c r="D208" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="E208" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="B209" s="2">
         <v>0</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E209" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B210" s="2">
         <v>0</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="E210" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B211">
         <v>0</v>
       </c>
       <c r="D211" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="E211" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
+        <v>431</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="D212" t="s">
+        <v>432</v>
+      </c>
+      <c r="E212" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>434</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="D213" t="s">
+        <v>435</v>
+      </c>
+      <c r="E213" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B214" s="3">
+        <v>0</v>
+      </c>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E214" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B215" s="3">
+        <v>0</v>
+      </c>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E215" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>441</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="D216" t="s">
+        <v>442</v>
+      </c>
+      <c r="E216" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
         <v>444</v>
       </c>
-      <c r="B212">
-        <v>0</v>
-      </c>
-      <c r="D212" t="s">
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="D217" t="s">
         <v>445</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E217" t="s">
         <v>446</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState ref="A2:E211">
-    <sortCondition ref="A2"/>
+  <sortState ref="A2:E217">
+    <sortCondition ref="A217"/>
   </sortState>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="472">
   <si>
     <t>name</t>
   </si>
@@ -1426,6 +1426,21 @@
   </si>
   <si>
     <t>Download fragmenten</t>
+  </si>
+  <si>
+    <t>back.nav.modules</t>
+  </si>
+  <si>
+    <t>back.nav.configuration</t>
+  </si>
+  <si>
+    <t>back.nav.content</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>Configuratie</t>
   </si>
 </sst>
 </file>
@@ -2058,11 +2073,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z217"/>
+  <dimension ref="A1:Z220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D210" sqref="D210"/>
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3731,886 +3746,878 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>295</v>
+        <v>468</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="D140" t="s">
-        <v>173</v>
+        <v>471</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>296</v>
+        <v>469</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="D141" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>297</v>
+        <v>467</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="D142" t="s">
-        <v>72</v>
+        <v>470</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="D143" t="s">
-        <v>299</v>
+        <v>173</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>301</v>
+        <v>175</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="D145" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>182</v>
+        <v>299</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="D147" t="s">
-        <v>184</v>
+        <v>301</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>306</v>
+        <v>190</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="D149" t="s">
-        <v>308</v>
+        <v>182</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="D150" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="D151" t="s">
-        <v>192</v>
+        <v>306</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="D152" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>314</v>
+        <v>190</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
       <c r="D155" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="D156" t="s">
-        <v>175</v>
+        <v>314</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="D158" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>324</v>
+        <v>72</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
       <c r="D161" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
       <c r="D162" t="s">
-        <v>328</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
       <c r="D163" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
       <c r="D164" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
       <c r="D165" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
       <c r="D166" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
       <c r="D167" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
       <c r="D168" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
       <c r="D169" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
       <c r="D170" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
       <c r="D171" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
       <c r="D172" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
       <c r="D175" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
       <c r="D176" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
       <c r="D177" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
       <c r="D178" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B179">
         <v>0</v>
       </c>
       <c r="D179" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
       <c r="D181" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
       <c r="D182" t="s">
-        <v>285</v>
+        <v>362</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
       <c r="D183" t="s">
-        <v>72</v>
+        <v>364</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
       <c r="D184" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B185">
         <v>0</v>
       </c>
       <c r="D185" t="s">
-        <v>182</v>
+        <v>285</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
       <c r="D186" t="s">
-        <v>373</v>
+        <v>72</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
       <c r="D187" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B188">
         <v>0</v>
       </c>
       <c r="D188" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
       <c r="D189" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
       <c r="D190" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>382</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>462</v>
+        <v>377</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
       <c r="D192" t="s">
-        <v>210</v>
+        <v>378</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>463</v>
+        <v>379</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
       <c r="D193" t="s">
-        <v>218</v>
+        <v>380</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>385</v>
+        <v>462</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
       <c r="D195" t="s">
-        <v>386</v>
-      </c>
-      <c r="E195" t="s">
-        <v>387</v>
+        <v>210</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>388</v>
+        <v>463</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
       <c r="D196" t="s">
-        <v>389</v>
-      </c>
-      <c r="E196" t="s">
-        <v>390</v>
+        <v>218</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>392</v>
-      </c>
-      <c r="E197" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B198">
         <v>0</v>
       </c>
       <c r="D198" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="E198" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E199" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
       <c r="D200" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E200" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>450</v>
+        <v>395</v>
       </c>
       <c r="E201" t="s">
-        <v>452</v>
+        <v>396</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B202">
         <v>0</v>
       </c>
       <c r="D202" t="s">
-        <v>453</v>
+        <v>398</v>
       </c>
       <c r="E202" t="s">
-        <v>451</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B203">
         <v>0</v>
       </c>
       <c r="D203" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E203" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B204">
         <v>0</v>
       </c>
       <c r="D204" t="s">
-        <v>409</v>
+        <v>450</v>
       </c>
       <c r="E204" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B205">
         <v>0</v>
       </c>
       <c r="D205" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="E205" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B206">
         <v>0</v>
       </c>
       <c r="D206" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="E206" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B207">
         <v>0</v>
       </c>
       <c r="D207" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E207" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B208">
         <v>0</v>
       </c>
       <c r="D208" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E208" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B209" s="2">
         <v>0</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E209" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B210" s="2">
         <v>0</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E210" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>420</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="D211" t="s">
+        <v>418</v>
+      </c>
+      <c r="E211" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B212" s="3">
+        <v>0</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E212" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B213" s="3">
+        <v>0</v>
+      </c>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E213" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
         <v>428</v>
       </c>
-      <c r="B211">
-        <v>0</v>
-      </c>
-      <c r="D211" t="s">
-        <v>429</v>
-      </c>
-      <c r="E211" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>431</v>
-      </c>
-      <c r="B212">
-        <v>0</v>
-      </c>
-      <c r="D212" t="s">
-        <v>432</v>
-      </c>
-      <c r="E212" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>434</v>
-      </c>
-      <c r="B213">
-        <v>0</v>
-      </c>
-      <c r="D213" t="s">
-        <v>435</v>
-      </c>
-      <c r="E213" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B214" s="3">
-        <v>0</v>
-      </c>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3" t="s">
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="D214" t="s">
         <v>429</v>
       </c>
       <c r="E214" t="s">
@@ -4618,52 +4625,95 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B215" s="3">
-        <v>0</v>
-      </c>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3" t="s">
-        <v>439</v>
+      <c r="A215" t="s">
+        <v>431</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="D215" t="s">
+        <v>432</v>
       </c>
       <c r="E215" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>434</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="D216" t="s">
+        <v>435</v>
+      </c>
+      <c r="E216" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B217" s="3">
+        <v>0</v>
+      </c>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E217" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B218" s="3">
+        <v>0</v>
+      </c>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E218" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
         <v>441</v>
       </c>
-      <c r="B216">
-        <v>0</v>
-      </c>
-      <c r="D216" t="s">
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="D219" t="s">
         <v>442</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E219" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
         <v>444</v>
       </c>
-      <c r="B217">
-        <v>0</v>
-      </c>
-      <c r="D217" t="s">
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="D220" t="s">
         <v>445</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E220" t="s">
         <v>446</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState ref="A2:E217">
-    <sortCondition ref="A217"/>
+  <sortState ref="A2:E220">
+    <sortCondition ref="A220"/>
   </sortState>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="474">
   <si>
     <t>name</t>
   </si>
@@ -1441,6 +1441,12 @@
   </si>
   <si>
     <t>Configuratie</t>
+  </si>
+  <si>
+    <t>auth.logout</t>
+  </si>
+  <si>
+    <t>Uitloggen</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1806,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2073,11 +2079,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z220"/>
+  <dimension ref="A1:Z221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B216" sqref="B216"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2316,57 +2322,60 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>472</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" t="s">
-        <v>84</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B20">
         <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2374,7 +2383,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2382,96 +2391,96 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23">
         <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B29">
         <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2479,99 +2488,93 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31">
         <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2585,2128 +2588,2142 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E43" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E44" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="E45" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E46" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E47" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>44</v>
+      </c>
+      <c r="E49" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="E51" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E52" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E53" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E54" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E55" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="E56" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>455</v>
+        <v>198</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>199</v>
+        <v>454</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>457</v>
       </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
         <v>458</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B80" s="3">
-        <v>0</v>
-      </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B81" s="3">
         <v>0</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3" t="s">
         <v>448</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>202</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="D82" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>208</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>218</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>38</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>226</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>459</v>
+        <v>231</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>464</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>233</v>
+        <v>459</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>234</v>
+        <v>464</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>456</v>
+        <v>246</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>249</v>
+        <v>456</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>461</v>
+        <v>250</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>466</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>252</v>
+        <v>461</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>72</v>
+        <v>466</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>254</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>259</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>210</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="D120" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="D123" t="s">
-        <v>72</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>218</v>
+        <v>72</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="D129" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="D130" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="D132" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="D133" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="D134" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
       <c r="D135" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="D136" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>460</v>
+        <v>290</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>465</v>
+        <v>291</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>292</v>
+        <v>460</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>293</v>
+        <v>465</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="D139" t="s">
-        <v>72</v>
+        <v>293</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>468</v>
+        <v>294</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="D140" t="s">
-        <v>471</v>
+        <v>72</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="D141" t="s">
-        <v>251</v>
+        <v>471</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="D142" t="s">
-        <v>470</v>
+        <v>251</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>295</v>
+        <v>467</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="D143" t="s">
-        <v>173</v>
+        <v>470</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="D145" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>299</v>
+        <v>72</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="D147" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>190</v>
+        <v>301</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="D149" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="D150" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="D151" t="s">
-        <v>306</v>
+        <v>184</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="D152" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>190</v>
+        <v>308</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
       <c r="D155" t="s">
-        <v>312</v>
+        <v>192</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="D156" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>24</v>
+        <v>314</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="D158" t="s">
-        <v>317</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>175</v>
+        <v>317</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
       <c r="D161" t="s">
-        <v>321</v>
+        <v>72</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
       <c r="D162" t="s">
-        <v>182</v>
+        <v>321</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
       <c r="D163" t="s">
-        <v>324</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
       <c r="D164" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
       <c r="D165" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
       <c r="D166" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
       <c r="D167" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
       <c r="D168" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
       <c r="D169" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
       <c r="D170" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
       <c r="D171" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
       <c r="D172" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
       <c r="D175" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
       <c r="D176" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
       <c r="D177" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
       <c r="D178" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B179">
         <v>0</v>
       </c>
       <c r="D179" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
       <c r="D181" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
       <c r="D182" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
       <c r="D183" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
       <c r="D184" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B185">
         <v>0</v>
       </c>
       <c r="D185" t="s">
-        <v>285</v>
+        <v>366</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
       <c r="D186" t="s">
-        <v>72</v>
+        <v>285</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
       <c r="D187" t="s">
-        <v>370</v>
+        <v>72</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B188">
         <v>0</v>
       </c>
       <c r="D188" t="s">
-        <v>182</v>
+        <v>370</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
       <c r="D189" t="s">
-        <v>373</v>
+        <v>182</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
       <c r="D190" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>190</v>
+        <v>375</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
       <c r="D192" t="s">
-        <v>378</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
       <c r="D193" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
       <c r="D194" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>462</v>
+        <v>381</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
       <c r="D195" t="s">
-        <v>210</v>
+        <v>382</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
       <c r="D196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>383</v>
+        <v>463</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D197" t="s">
-        <v>384</v>
+        <v>218</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>386</v>
-      </c>
-      <c r="E198" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E199" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
       <c r="D200" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E201" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B202">
         <v>0</v>
       </c>
       <c r="D202" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B203">
         <v>0</v>
       </c>
       <c r="D203" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E203" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B204">
         <v>0</v>
       </c>
       <c r="D204" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="E204" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B205">
         <v>0</v>
       </c>
       <c r="D205" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E205" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B206">
         <v>0</v>
       </c>
       <c r="D206" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B207">
         <v>0</v>
       </c>
       <c r="D207" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E207" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>408</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="D208" t="s">
+        <v>409</v>
+      </c>
+      <c r="E208" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>411</v>
       </c>
-      <c r="B208">
-        <v>0</v>
-      </c>
-      <c r="D208" t="s">
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="D209" t="s">
         <v>412</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E209" t="s">
         <v>413</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B209" s="2">
-        <v>0</v>
-      </c>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E209" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B210" s="2">
         <v>0</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E210" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B211" s="2">
+        <v>0</v>
+      </c>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E211" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
         <v>420</v>
       </c>
-      <c r="B211">
-        <v>0</v>
-      </c>
-      <c r="D211" t="s">
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="D212" t="s">
         <v>418</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E212" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B212" s="3">
-        <v>0</v>
-      </c>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E212" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B213" s="3">
         <v>0</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E213" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B214" s="3">
+        <v>0</v>
+      </c>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E214" t="s">
         <v>427</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>428</v>
-      </c>
-      <c r="B214">
-        <v>0</v>
-      </c>
-      <c r="D214" t="s">
-        <v>429</v>
-      </c>
-      <c r="E214" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B215">
         <v>0</v>
       </c>
       <c r="D215" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E215" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>431</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="D216" t="s">
+        <v>432</v>
+      </c>
+      <c r="E216" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
         <v>434</v>
       </c>
-      <c r="B216">
-        <v>0</v>
-      </c>
-      <c r="D216" t="s">
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="D217" t="s">
         <v>435</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E217" t="s">
         <v>436</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B217" s="3">
-        <v>0</v>
-      </c>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="E217" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B218" s="3">
         <v>0</v>
       </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E218" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B219" s="3">
+        <v>0</v>
+      </c>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E219" t="s">
         <v>440</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>441</v>
-      </c>
-      <c r="B219">
-        <v>0</v>
-      </c>
-      <c r="D219" t="s">
-        <v>442</v>
-      </c>
-      <c r="E219" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>441</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="D220" t="s">
+        <v>442</v>
+      </c>
+      <c r="E220" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
         <v>444</v>
       </c>
-      <c r="B220">
-        <v>0</v>
-      </c>
-      <c r="D220" t="s">
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="D221" t="s">
         <v>445</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E221" t="s">
         <v>446</v>
       </c>
     </row>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27011"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandedeyne/Sites/blender/database/seeds/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willem/Sites/blender/database/seeds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" activeTab="1"/>
+    <workbookView xWindow="20540" yWindow="3380" windowWidth="28800" windowHeight="17620"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="479">
   <si>
     <t>name</t>
   </si>
@@ -1447,6 +1450,21 @@
   </si>
   <si>
     <t>Uitloggen</t>
+  </si>
+  <si>
+    <t>home.title</t>
+  </si>
+  <si>
+    <t>home.metaDescription</t>
+  </si>
+  <si>
+    <t>Home titel</t>
+  </si>
+  <si>
+    <t>Home titre</t>
+  </si>
+  <si>
+    <t>Home metadescription</t>
   </si>
 </sst>
 </file>
@@ -1802,11 +1820,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2067,6 +2085,34 @@
         <v>48</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>474</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>476</v>
+      </c>
+      <c r="E17" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>475</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>478</v>
+      </c>
+      <c r="E18" t="s">
+        <v>478</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
@@ -2081,7 +2127,7 @@
   </sheetPr>
   <dimension ref="A1:Z221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="463">
   <si>
     <t>name</t>
   </si>
@@ -195,15 +195,6 @@
     <t>Stad</t>
   </si>
   <si>
-    <t>auth.correctFormErrors</t>
-  </si>
-  <si>
-    <t>Corrigeer de fouten hieronder.</t>
-  </si>
-  <si>
-    <t>Corrigez les erreurs plus bas.</t>
-  </si>
-  <si>
     <t>auth.country</t>
   </si>
   <si>
@@ -246,9 +237,6 @@
     <t>Naam</t>
   </si>
   <si>
-    <t>auth.linkValidUntil</t>
-  </si>
-  <si>
     <t>Ce lien est valable jusqu'au</t>
   </si>
   <si>
@@ -270,12 +258,6 @@
     <t>Login</t>
   </si>
   <si>
-    <t>auth.login.welcome</t>
-  </si>
-  <si>
-    <t>Welkom bij Blender. Gelieve hier in te loggen.</t>
-  </si>
-  <si>
     <t>auth.logout.title</t>
   </si>
   <si>
@@ -300,15 +282,6 @@
     <t>Votre compte n'est pas encore actif.</t>
   </si>
   <si>
-    <t>auth.oldUser.intro</t>
-  </si>
-  <si>
-    <t>auth.oldUser.outro</t>
-  </si>
-  <si>
-    <t>auth.oldUser.resetButton</t>
-  </si>
-  <si>
     <t>auth.password</t>
   </si>
   <si>
@@ -333,15 +306,9 @@
     <t>Che(è)r(e)</t>
   </si>
   <si>
-    <t>auth.passwordMail.intro</t>
-  </si>
-  <si>
     <t>Je hebt toegang gekregen tot</t>
   </si>
   <si>
-    <t>Vous avez êtes admis l'accès à</t>
-  </si>
-  <si>
     <t>auth.passwordMail.linkValidUntil</t>
   </si>
   <si>
@@ -357,18 +324,12 @@
     <t>auth.passwordMail.oldUser.intro</t>
   </si>
   <si>
-    <t>We ontvingen je vraag om je Blender wachtwoord te wijzigen op</t>
-  </si>
-  <si>
     <t>Nous avons reçu une demande de changer votre mot de passe</t>
   </si>
   <si>
     <t>auth.passwordMail.oldUser.outro</t>
   </si>
   <si>
-    <t>Was het een foutieve aanvraag? Negeer dan deze e-mail, je oude paswoord blijft gewoon werken.</t>
-  </si>
-  <si>
     <t>Dans le cas où vous avez fait la demande noot une réinitialisation de mot de passe , ignorez ce e-mail.</t>
   </si>
   <si>
@@ -381,9 +342,6 @@
     <t>Changer le mot de passe</t>
   </si>
   <si>
-    <t>auth.passwordMail.resetButton</t>
-  </si>
-  <si>
     <t>Wachtwoord instellen</t>
   </si>
   <si>
@@ -408,9 +366,6 @@
     <t>Créez votre profil</t>
   </si>
   <si>
-    <t>auth.register.title</t>
-  </si>
-  <si>
     <t>auth.register.toLogin</t>
   </si>
   <si>
@@ -1447,6 +1402,18 @@
   </si>
   <si>
     <t>Uitloggen</t>
+  </si>
+  <si>
+    <t>auth.titleRegister</t>
+  </si>
+  <si>
+    <t>We ontvingen je vraag om je wachtwoord te wijzigen op</t>
+  </si>
+  <si>
+    <t>Was het een foutieve aanvraag? Negeer dan deze e-mail, je oude wachtwoord blijft gewoon werken.</t>
+  </si>
+  <si>
+    <t>back.auth.titleChangePassword</t>
   </si>
 </sst>
 </file>
@@ -2079,11 +2046,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z221"/>
+  <dimension ref="A1:Z214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2091,7 +2058,7 @@
     <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="187.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80" customWidth="1"/>
     <col min="5" max="5" width="133.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="26" width="1.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2180,55 +2147,55 @@
       <c r="D5" t="s">
         <v>57</v>
       </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
         <v>64</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -2255,9 +2222,6 @@
       <c r="D11" t="s">
         <v>69</v>
       </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2269,391 +2233,421 @@
       <c r="D12" t="s">
         <v>72</v>
       </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>457</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" t="s">
-        <v>77</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
         <v>78</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
         <v>81</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>473</v>
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
         <v>91</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="E21" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B22">
         <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
         <v>93</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>460</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>461</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B30">
         <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B31">
         <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>129</v>
+      </c>
+      <c r="E36" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>114</v>
+      </c>
+      <c r="E37" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" t="s">
         <v>124</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>459</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2664,38 +2658,38 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" t="s">
         <v>143</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" t="s">
         <v>146</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2706,136 +2700,115 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
-      </c>
-      <c r="E52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
-      </c>
-      <c r="E53" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>160</v>
-      </c>
-      <c r="E54" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
-      </c>
-      <c r="E55" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>166</v>
-      </c>
-      <c r="E56" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>168</v>
       </c>
@@ -2846,7 +2819,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>170</v>
       </c>
@@ -2857,7 +2830,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>172</v>
       </c>
@@ -2868,7 +2841,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>174</v>
       </c>
@@ -2879,7 +2852,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>176</v>
       </c>
@@ -2890,7 +2863,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>178</v>
       </c>
@@ -2898,21 +2871,21 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>181</v>
       </c>
@@ -2920,1817 +2893,1740 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>187</v>
+        <v>440</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>188</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>189</v>
+        <v>439</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>462</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>197</v>
+        <v>442</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>79</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>198</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="D74" t="s">
-        <v>35</v>
+      <c r="A74" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>455</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="D75" t="s">
-        <v>38</v>
+      <c r="A75" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>454</v>
+        <v>187</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>457</v>
+        <v>194</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>458</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B81" s="3">
-        <v>0</v>
-      </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3" t="s">
-        <v>144</v>
+      <c r="A81" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B82" s="3">
-        <v>0</v>
-      </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3" t="s">
-        <v>448</v>
+      <c r="A82" t="s">
+        <v>197</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>205</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>210</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>29</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>213</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>221</v>
+        <v>444</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>35</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>38</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>459</v>
+        <v>230</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>464</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>234</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>446</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>240</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>242</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>456</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>251</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>461</v>
+        <v>246</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>466</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>259</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="D123" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>72</v>
+        <v>264</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>273</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="D129" t="s">
         <v>274</v>
-      </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-      <c r="D129" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>275</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="D130" t="s">
         <v>276</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-      <c r="D130" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>278</v>
+        <v>445</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>279</v>
+        <v>450</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="D132" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="D133" t="s">
-        <v>283</v>
+        <v>69</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>284</v>
+        <v>453</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="D134" t="s">
-        <v>285</v>
+        <v>456</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>286</v>
+        <v>454</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
       <c r="D135" t="s">
-        <v>287</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>288</v>
+        <v>452</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="D136" t="s">
-        <v>289</v>
+        <v>455</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>291</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>460</v>
+        <v>281</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>465</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="D139" t="s">
-        <v>293</v>
+        <v>69</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="D140" t="s">
-        <v>72</v>
+        <v>284</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>468</v>
+        <v>285</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="D141" t="s">
-        <v>471</v>
+        <v>286</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>469</v>
+        <v>287</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="D142" t="s">
-        <v>251</v>
+        <v>175</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>467</v>
+        <v>288</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="D143" t="s">
-        <v>470</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="D145" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>72</v>
+        <v>293</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="D147" t="s">
-        <v>299</v>
+        <v>175</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>301</v>
+        <v>177</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="D149" t="s">
-        <v>190</v>
+        <v>297</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="D150" t="s">
-        <v>182</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="D151" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="D152" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>308</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>190</v>
+        <v>69</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
       <c r="D155" t="s">
-        <v>192</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="D156" t="s">
-        <v>312</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="D158" t="s">
-        <v>24</v>
+        <v>311</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>175</v>
+        <v>315</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
       <c r="D161" t="s">
-        <v>72</v>
+        <v>317</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
       <c r="D162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
       <c r="D163" t="s">
-        <v>182</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>322</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="D164" t="s">
         <v>323</v>
-      </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-      <c r="D164" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>324</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="D165" t="s">
         <v>325</v>
-      </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-      <c r="D165" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>326</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="D166" t="s">
         <v>327</v>
-      </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-      <c r="D166" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>328</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
         <v>329</v>
-      </c>
-      <c r="B167">
-        <v>0</v>
-      </c>
-      <c r="D167" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>330</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="D168" t="s">
         <v>331</v>
-      </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-      <c r="D168" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>332</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="D169" t="s">
         <v>333</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-      <c r="D169" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>334</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="D170" t="s">
         <v>335</v>
-      </c>
-      <c r="B170">
-        <v>0</v>
-      </c>
-      <c r="D170" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>336</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="D171" t="s">
         <v>337</v>
-      </c>
-      <c r="B171">
-        <v>0</v>
-      </c>
-      <c r="D171" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>338</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="D172" t="s">
         <v>339</v>
-      </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-      <c r="D172" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>340</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
         <v>341</v>
-      </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-      <c r="D173" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>342</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="D174" t="s">
         <v>343</v>
-      </c>
-      <c r="B174">
-        <v>0</v>
-      </c>
-      <c r="D174" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>344</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="D175" t="s">
         <v>345</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-      <c r="D175" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>346</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="D176" t="s">
         <v>347</v>
       </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-      <c r="D176" t="s">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="D177" t="s">
         <v>349</v>
       </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-      <c r="D177" t="s">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="D178" t="s">
         <v>351</v>
       </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-      <c r="D178" t="s">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="D179" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>353</v>
       </c>
-      <c r="B179">
-        <v>0</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="D181" t="s">
         <v>355</v>
       </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-      <c r="D180" t="s">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="D182" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>357</v>
       </c>
-      <c r="B181">
-        <v>0</v>
-      </c>
-      <c r="D181" t="s">
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="D183" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>359</v>
       </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-      <c r="D182" t="s">
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="D184" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>361</v>
       </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="D185" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="D186" t="s">
         <v>363</v>
       </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-      <c r="D184" t="s">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="D187" t="s">
         <v>365</v>
       </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-      <c r="D185" t="s">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="D188" t="s">
         <v>367</v>
       </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-      <c r="D186" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>447</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="D189" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>448</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="D190" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>368</v>
       </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-      <c r="D187" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="D191" t="s">
         <v>369</v>
       </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-      <c r="D188" t="s">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="D192" t="s">
         <v>371</v>
       </c>
-      <c r="B189">
-        <v>0</v>
-      </c>
-      <c r="D189" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+      <c r="E192" t="s">
         <v>372</v>
-      </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-      <c r="D190" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>374</v>
-      </c>
-      <c r="B191">
-        <v>0</v>
-      </c>
-      <c r="D191" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>376</v>
-      </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-      <c r="D192" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
       <c r="D193" t="s">
-        <v>378</v>
+        <v>374</v>
+      </c>
+      <c r="E193" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
       <c r="D194" t="s">
-        <v>380</v>
+        <v>377</v>
+      </c>
+      <c r="E194" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>379</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="D195" t="s">
+        <v>380</v>
+      </c>
+      <c r="E195" t="s">
         <v>381</v>
-      </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-      <c r="D195" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>462</v>
+        <v>382</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
       <c r="D196" t="s">
-        <v>210</v>
+        <v>383</v>
+      </c>
+      <c r="E196" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>463</v>
+        <v>385</v>
       </c>
       <c r="B197">
         <v>0</v>
       </c>
       <c r="D197" t="s">
-        <v>218</v>
+        <v>386</v>
+      </c>
+      <c r="E197" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D198" t="s">
-        <v>384</v>
+        <v>435</v>
+      </c>
+      <c r="E198" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
       <c r="D200" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E200" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B202">
         <v>0</v>
       </c>
       <c r="D202" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E202" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>397</v>
-      </c>
-      <c r="B203">
-        <v>0</v>
-      </c>
-      <c r="D203" t="s">
-        <v>398</v>
+      <c r="A203" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B203" s="2">
+        <v>0</v>
+      </c>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>400</v>
-      </c>
-      <c r="B204">
-        <v>0</v>
-      </c>
-      <c r="D204" t="s">
-        <v>401</v>
+      <c r="A204" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B204" s="2">
+        <v>0</v>
+      </c>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="E204" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>405</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="D205" t="s">
         <v>403</v>
       </c>
-      <c r="B205">
-        <v>0</v>
-      </c>
-      <c r="D205" t="s">
-        <v>450</v>
-      </c>
       <c r="E205" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>404</v>
-      </c>
-      <c r="B206">
-        <v>0</v>
-      </c>
-      <c r="D206" t="s">
-        <v>453</v>
+      <c r="A206" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B206" s="3">
+        <v>0</v>
+      </c>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="E206" t="s">
-        <v>451</v>
+        <v>409</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>405</v>
-      </c>
-      <c r="B207">
-        <v>0</v>
-      </c>
-      <c r="D207" t="s">
-        <v>406</v>
+      <c r="A207" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B207" s="3">
+        <v>0</v>
+      </c>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="E207" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B208">
         <v>0</v>
       </c>
       <c r="D208" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E208" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B209">
         <v>0</v>
       </c>
       <c r="D209" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E209" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
+      <c r="A210" t="s">
+        <v>419</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="D210" t="s">
+        <v>420</v>
+      </c>
+      <c r="E210" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B211" s="3">
+        <v>0</v>
+      </c>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B210" s="2">
-        <v>0</v>
-      </c>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2" t="s">
+      <c r="E211" t="s">
         <v>415</v>
       </c>
-      <c r="E210" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B211" s="2">
-        <v>0</v>
-      </c>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E211" t="s">
-        <v>419</v>
-      </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>420</v>
-      </c>
-      <c r="B212">
-        <v>0</v>
-      </c>
-      <c r="D212" t="s">
-        <v>418</v>
+      <c r="A212" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B212" s="3">
+        <v>0</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3" t="s">
+        <v>424</v>
       </c>
       <c r="E212" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B213" s="3">
-        <v>0</v>
-      </c>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3" t="s">
-        <v>423</v>
+      <c r="A213" t="s">
+        <v>426</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="D213" t="s">
+        <v>427</v>
       </c>
       <c r="E213" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="B214" s="3">
-        <v>0</v>
-      </c>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3" t="s">
-        <v>426</v>
+      <c r="A214" t="s">
+        <v>429</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="D214" t="s">
+        <v>430</v>
       </c>
       <c r="E214" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>428</v>
-      </c>
-      <c r="B215">
-        <v>0</v>
-      </c>
-      <c r="D215" t="s">
-        <v>429</v>
-      </c>
-      <c r="E215" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
         <v>431</v>
-      </c>
-      <c r="B216">
-        <v>0</v>
-      </c>
-      <c r="D216" t="s">
-        <v>432</v>
-      </c>
-      <c r="E216" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>434</v>
-      </c>
-      <c r="B217">
-        <v>0</v>
-      </c>
-      <c r="D217" t="s">
-        <v>435</v>
-      </c>
-      <c r="E217" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B218" s="3">
-        <v>0</v>
-      </c>
-      <c r="C218" s="3"/>
-      <c r="D218" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="E218" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B219" s="3">
-        <v>0</v>
-      </c>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="E219" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>441</v>
-      </c>
-      <c r="B220">
-        <v>0</v>
-      </c>
-      <c r="D220" t="s">
-        <v>442</v>
-      </c>
-      <c r="E220" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>444</v>
-      </c>
-      <c r="B221">
-        <v>0</v>
-      </c>
-      <c r="D221" t="s">
-        <v>445</v>
-      </c>
-      <c r="E221" t="s">
-        <v>446</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState ref="A2:E220">
-    <sortCondition ref="A220"/>
+  <sortState ref="A2:E214">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willem/Sites/blender/database/seeds/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandedeyne/Sites/blender/database/seeds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20540" yWindow="3380" windowWidth="28800" windowHeight="17620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,6 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="463">
   <si>
     <t>name</t>
   </si>
@@ -198,15 +195,6 @@
     <t>Stad</t>
   </si>
   <si>
-    <t>auth.correctFormErrors</t>
-  </si>
-  <si>
-    <t>Corrigeer de fouten hieronder.</t>
-  </si>
-  <si>
-    <t>Corrigez les erreurs plus bas.</t>
-  </si>
-  <si>
     <t>auth.country</t>
   </si>
   <si>
@@ -249,9 +237,6 @@
     <t>Naam</t>
   </si>
   <si>
-    <t>auth.linkValidUntil</t>
-  </si>
-  <si>
     <t>Ce lien est valable jusqu'au</t>
   </si>
   <si>
@@ -273,12 +258,6 @@
     <t>Login</t>
   </si>
   <si>
-    <t>auth.login.welcome</t>
-  </si>
-  <si>
-    <t>Welkom bij Blender. Gelieve hier in te loggen.</t>
-  </si>
-  <si>
     <t>auth.logout.title</t>
   </si>
   <si>
@@ -303,15 +282,6 @@
     <t>Votre compte n'est pas encore actif.</t>
   </si>
   <si>
-    <t>auth.oldUser.intro</t>
-  </si>
-  <si>
-    <t>auth.oldUser.outro</t>
-  </si>
-  <si>
-    <t>auth.oldUser.resetButton</t>
-  </si>
-  <si>
     <t>auth.password</t>
   </si>
   <si>
@@ -336,15 +306,9 @@
     <t>Che(è)r(e)</t>
   </si>
   <si>
-    <t>auth.passwordMail.intro</t>
-  </si>
-  <si>
     <t>Je hebt toegang gekregen tot</t>
   </si>
   <si>
-    <t>Vous avez êtes admis l'accès à</t>
-  </si>
-  <si>
     <t>auth.passwordMail.linkValidUntil</t>
   </si>
   <si>
@@ -360,18 +324,12 @@
     <t>auth.passwordMail.oldUser.intro</t>
   </si>
   <si>
-    <t>We ontvingen je vraag om je Blender wachtwoord te wijzigen op</t>
-  </si>
-  <si>
     <t>Nous avons reçu une demande de changer votre mot de passe</t>
   </si>
   <si>
     <t>auth.passwordMail.oldUser.outro</t>
   </si>
   <si>
-    <t>Was het een foutieve aanvraag? Negeer dan deze e-mail, je oude paswoord blijft gewoon werken.</t>
-  </si>
-  <si>
     <t>Dans le cas où vous avez fait la demande noot une réinitialisation de mot de passe , ignorez ce e-mail.</t>
   </si>
   <si>
@@ -384,9 +342,6 @@
     <t>Changer le mot de passe</t>
   </si>
   <si>
-    <t>auth.passwordMail.resetButton</t>
-  </si>
-  <si>
     <t>Wachtwoord instellen</t>
   </si>
   <si>
@@ -411,9 +366,6 @@
     <t>Créez votre profil</t>
   </si>
   <si>
-    <t>auth.register.title</t>
-  </si>
-  <si>
     <t>auth.register.toLogin</t>
   </si>
   <si>
@@ -1452,19 +1404,16 @@
     <t>Uitloggen</t>
   </si>
   <si>
-    <t>home.title</t>
-  </si>
-  <si>
-    <t>home.metaDescription</t>
-  </si>
-  <si>
-    <t>Home titel</t>
-  </si>
-  <si>
-    <t>Home titre</t>
-  </si>
-  <si>
-    <t>Home metadescription</t>
+    <t>auth.titleRegister</t>
+  </si>
+  <si>
+    <t>We ontvingen je vraag om je wachtwoord te wijzigen op</t>
+  </si>
+  <si>
+    <t>Was het een foutieve aanvraag? Negeer dan deze e-mail, je oude wachtwoord blijft gewoon werken.</t>
+  </si>
+  <si>
+    <t>back.auth.titleChangePassword</t>
   </si>
 </sst>
 </file>
@@ -1820,11 +1769,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2085,34 +2034,6 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>474</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>476</v>
-      </c>
-      <c r="E17" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>475</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>478</v>
-      </c>
-      <c r="E18" t="s">
-        <v>478</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
@@ -2125,11 +2046,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z221"/>
+  <dimension ref="A1:Z214"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2137,7 +2058,7 @@
     <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="187.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80" customWidth="1"/>
     <col min="5" max="5" width="133.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="26" width="1.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2226,55 +2147,55 @@
       <c r="D5" t="s">
         <v>57</v>
       </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
         <v>64</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -2301,9 +2222,6 @@
       <c r="D11" t="s">
         <v>69</v>
       </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2315,391 +2233,421 @@
       <c r="D12" t="s">
         <v>72</v>
       </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>457</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" t="s">
-        <v>77</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
         <v>78</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
         <v>81</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>473</v>
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
         <v>91</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="E21" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B22">
         <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
         <v>93</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>460</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>461</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B30">
         <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B31">
         <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>129</v>
+      </c>
+      <c r="E36" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>114</v>
+      </c>
+      <c r="E37" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" t="s">
         <v>124</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>459</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2710,38 +2658,38 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" t="s">
         <v>143</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" t="s">
         <v>146</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2752,136 +2700,115 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
-      </c>
-      <c r="E52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
-      </c>
-      <c r="E53" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>160</v>
-      </c>
-      <c r="E54" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
-      </c>
-      <c r="E55" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>166</v>
-      </c>
-      <c r="E56" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>168</v>
       </c>
@@ -2892,7 +2819,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>170</v>
       </c>
@@ -2903,7 +2830,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>172</v>
       </c>
@@ -2914,7 +2841,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>174</v>
       </c>
@@ -2925,7 +2852,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>176</v>
       </c>
@@ -2936,7 +2863,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>178</v>
       </c>
@@ -2944,21 +2871,21 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>181</v>
       </c>
@@ -2966,1817 +2893,1740 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>187</v>
+        <v>440</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>188</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>189</v>
+        <v>439</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>462</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>197</v>
+        <v>442</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>79</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>198</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="D74" t="s">
-        <v>35</v>
+      <c r="A74" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>455</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="D75" t="s">
-        <v>38</v>
+      <c r="A75" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>454</v>
+        <v>187</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>457</v>
+        <v>194</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>458</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B81" s="3">
-        <v>0</v>
-      </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3" t="s">
-        <v>144</v>
+      <c r="A81" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B82" s="3">
-        <v>0</v>
-      </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3" t="s">
-        <v>448</v>
+      <c r="A82" t="s">
+        <v>197</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>205</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>210</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>29</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>213</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>221</v>
+        <v>444</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>35</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>38</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>459</v>
+        <v>230</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>464</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>234</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>446</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>240</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>242</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>456</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>251</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>461</v>
+        <v>246</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>466</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>259</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="D123" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>72</v>
+        <v>264</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>273</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="D129" t="s">
         <v>274</v>
-      </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-      <c r="D129" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>275</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="D130" t="s">
         <v>276</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-      <c r="D130" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>278</v>
+        <v>445</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>279</v>
+        <v>450</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="D132" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="D133" t="s">
-        <v>283</v>
+        <v>69</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>284</v>
+        <v>453</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="D134" t="s">
-        <v>285</v>
+        <v>456</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>286</v>
+        <v>454</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
       <c r="D135" t="s">
-        <v>287</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>288</v>
+        <v>452</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="D136" t="s">
-        <v>289</v>
+        <v>455</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>291</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>460</v>
+        <v>281</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>465</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="D139" t="s">
-        <v>293</v>
+        <v>69</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="D140" t="s">
-        <v>72</v>
+        <v>284</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>468</v>
+        <v>285</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="D141" t="s">
-        <v>471</v>
+        <v>286</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>469</v>
+        <v>287</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="D142" t="s">
-        <v>251</v>
+        <v>175</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>467</v>
+        <v>288</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="D143" t="s">
-        <v>470</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="D145" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>72</v>
+        <v>293</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="D147" t="s">
-        <v>299</v>
+        <v>175</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>301</v>
+        <v>177</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="D149" t="s">
-        <v>190</v>
+        <v>297</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="D150" t="s">
-        <v>182</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="D151" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="D152" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>308</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>190</v>
+        <v>69</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
       <c r="D155" t="s">
-        <v>192</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="D156" t="s">
-        <v>312</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="D158" t="s">
-        <v>24</v>
+        <v>311</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>175</v>
+        <v>315</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
       <c r="D161" t="s">
-        <v>72</v>
+        <v>317</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
       <c r="D162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
       <c r="D163" t="s">
-        <v>182</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>322</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="D164" t="s">
         <v>323</v>
-      </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-      <c r="D164" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>324</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="D165" t="s">
         <v>325</v>
-      </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-      <c r="D165" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>326</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="D166" t="s">
         <v>327</v>
-      </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-      <c r="D166" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>328</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
         <v>329</v>
-      </c>
-      <c r="B167">
-        <v>0</v>
-      </c>
-      <c r="D167" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>330</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="D168" t="s">
         <v>331</v>
-      </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-      <c r="D168" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>332</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="D169" t="s">
         <v>333</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-      <c r="D169" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>334</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="D170" t="s">
         <v>335</v>
-      </c>
-      <c r="B170">
-        <v>0</v>
-      </c>
-      <c r="D170" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>336</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="D171" t="s">
         <v>337</v>
-      </c>
-      <c r="B171">
-        <v>0</v>
-      </c>
-      <c r="D171" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>338</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="D172" t="s">
         <v>339</v>
-      </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-      <c r="D172" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>340</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
         <v>341</v>
-      </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-      <c r="D173" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>342</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="D174" t="s">
         <v>343</v>
-      </c>
-      <c r="B174">
-        <v>0</v>
-      </c>
-      <c r="D174" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>344</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="D175" t="s">
         <v>345</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-      <c r="D175" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>346</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="D176" t="s">
         <v>347</v>
       </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-      <c r="D176" t="s">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="D177" t="s">
         <v>349</v>
       </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-      <c r="D177" t="s">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="D178" t="s">
         <v>351</v>
       </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-      <c r="D178" t="s">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="D179" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>353</v>
       </c>
-      <c r="B179">
-        <v>0</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="D181" t="s">
         <v>355</v>
       </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-      <c r="D180" t="s">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="D182" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>357</v>
       </c>
-      <c r="B181">
-        <v>0</v>
-      </c>
-      <c r="D181" t="s">
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="D183" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>359</v>
       </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-      <c r="D182" t="s">
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="D184" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>361</v>
       </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="D185" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="D186" t="s">
         <v>363</v>
       </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-      <c r="D184" t="s">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="D187" t="s">
         <v>365</v>
       </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-      <c r="D185" t="s">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="D188" t="s">
         <v>367</v>
       </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-      <c r="D186" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>447</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="D189" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>448</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="D190" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>368</v>
       </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-      <c r="D187" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="D191" t="s">
         <v>369</v>
       </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-      <c r="D188" t="s">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="D192" t="s">
         <v>371</v>
       </c>
-      <c r="B189">
-        <v>0</v>
-      </c>
-      <c r="D189" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+      <c r="E192" t="s">
         <v>372</v>
-      </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-      <c r="D190" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>374</v>
-      </c>
-      <c r="B191">
-        <v>0</v>
-      </c>
-      <c r="D191" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>376</v>
-      </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-      <c r="D192" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
       <c r="D193" t="s">
-        <v>378</v>
+        <v>374</v>
+      </c>
+      <c r="E193" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
       <c r="D194" t="s">
-        <v>380</v>
+        <v>377</v>
+      </c>
+      <c r="E194" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>379</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="D195" t="s">
+        <v>380</v>
+      </c>
+      <c r="E195" t="s">
         <v>381</v>
-      </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-      <c r="D195" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>462</v>
+        <v>382</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
       <c r="D196" t="s">
-        <v>210</v>
+        <v>383</v>
+      </c>
+      <c r="E196" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>463</v>
+        <v>385</v>
       </c>
       <c r="B197">
         <v>0</v>
       </c>
       <c r="D197" t="s">
-        <v>218</v>
+        <v>386</v>
+      </c>
+      <c r="E197" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D198" t="s">
-        <v>384</v>
+        <v>435</v>
+      </c>
+      <c r="E198" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
       <c r="D200" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E200" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B202">
         <v>0</v>
       </c>
       <c r="D202" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E202" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>397</v>
-      </c>
-      <c r="B203">
-        <v>0</v>
-      </c>
-      <c r="D203" t="s">
-        <v>398</v>
+      <c r="A203" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B203" s="2">
+        <v>0</v>
+      </c>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>400</v>
-      </c>
-      <c r="B204">
-        <v>0</v>
-      </c>
-      <c r="D204" t="s">
-        <v>401</v>
+      <c r="A204" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B204" s="2">
+        <v>0</v>
+      </c>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="E204" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>405</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="D205" t="s">
         <v>403</v>
       </c>
-      <c r="B205">
-        <v>0</v>
-      </c>
-      <c r="D205" t="s">
-        <v>450</v>
-      </c>
       <c r="E205" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>404</v>
-      </c>
-      <c r="B206">
-        <v>0</v>
-      </c>
-      <c r="D206" t="s">
-        <v>453</v>
+      <c r="A206" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B206" s="3">
+        <v>0</v>
+      </c>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="E206" t="s">
-        <v>451</v>
+        <v>409</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>405</v>
-      </c>
-      <c r="B207">
-        <v>0</v>
-      </c>
-      <c r="D207" t="s">
-        <v>406</v>
+      <c r="A207" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B207" s="3">
+        <v>0</v>
+      </c>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="E207" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B208">
         <v>0</v>
       </c>
       <c r="D208" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E208" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B209">
         <v>0</v>
       </c>
       <c r="D209" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E209" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
+      <c r="A210" t="s">
+        <v>419</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="D210" t="s">
+        <v>420</v>
+      </c>
+      <c r="E210" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B211" s="3">
+        <v>0</v>
+      </c>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B210" s="2">
-        <v>0</v>
-      </c>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2" t="s">
+      <c r="E211" t="s">
         <v>415</v>
       </c>
-      <c r="E210" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B211" s="2">
-        <v>0</v>
-      </c>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E211" t="s">
-        <v>419</v>
-      </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>420</v>
-      </c>
-      <c r="B212">
-        <v>0</v>
-      </c>
-      <c r="D212" t="s">
-        <v>418</v>
+      <c r="A212" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B212" s="3">
+        <v>0</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3" t="s">
+        <v>424</v>
       </c>
       <c r="E212" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B213" s="3">
-        <v>0</v>
-      </c>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3" t="s">
-        <v>423</v>
+      <c r="A213" t="s">
+        <v>426</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="D213" t="s">
+        <v>427</v>
       </c>
       <c r="E213" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="B214" s="3">
-        <v>0</v>
-      </c>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3" t="s">
-        <v>426</v>
+      <c r="A214" t="s">
+        <v>429</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="D214" t="s">
+        <v>430</v>
       </c>
       <c r="E214" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>428</v>
-      </c>
-      <c r="B215">
-        <v>0</v>
-      </c>
-      <c r="D215" t="s">
-        <v>429</v>
-      </c>
-      <c r="E215" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
         <v>431</v>
-      </c>
-      <c r="B216">
-        <v>0</v>
-      </c>
-      <c r="D216" t="s">
-        <v>432</v>
-      </c>
-      <c r="E216" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>434</v>
-      </c>
-      <c r="B217">
-        <v>0</v>
-      </c>
-      <c r="D217" t="s">
-        <v>435</v>
-      </c>
-      <c r="E217" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B218" s="3">
-        <v>0</v>
-      </c>
-      <c r="C218" s="3"/>
-      <c r="D218" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="E218" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B219" s="3">
-        <v>0</v>
-      </c>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="E219" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>441</v>
-      </c>
-      <c r="B220">
-        <v>0</v>
-      </c>
-      <c r="D220" t="s">
-        <v>442</v>
-      </c>
-      <c r="E220" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>444</v>
-      </c>
-      <c r="B221">
-        <v>0</v>
-      </c>
-      <c r="D221" t="s">
-        <v>445</v>
-      </c>
-      <c r="E221" t="s">
-        <v>446</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState ref="A2:E220">
-    <sortCondition ref="A220"/>
+  <sortState ref="A2:E214">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27106"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandedeyne/Sites/blender/database/seeds/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willem/Sites/blender/database/seeds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="467">
   <si>
     <t>name</t>
   </si>
@@ -1414,6 +1417,18 @@
   </si>
   <si>
     <t>back.auth.titleChangePassword</t>
+  </si>
+  <si>
+    <t>back.nav.users</t>
+  </si>
+  <si>
+    <t>Profielen</t>
+  </si>
+  <si>
+    <t>back.nav.system</t>
+  </si>
+  <si>
+    <t>Systeem</t>
   </si>
 </sst>
 </file>
@@ -2046,11 +2061,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z214"/>
+  <dimension ref="A1:Z216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3681,945 +3696,967 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="D136" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>280</v>
+        <v>465</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>158</v>
+        <v>466</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>281</v>
+        <v>452</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>160</v>
+        <v>455</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="D139" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="D140" t="s">
-        <v>284</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="D141" t="s">
-        <v>286</v>
+        <v>69</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="D142" t="s">
-        <v>175</v>
+        <v>284</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="D143" t="s">
-        <v>167</v>
+        <v>286</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="D145" t="s">
-        <v>291</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>293</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="D147" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>177</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="D149" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="D150" t="s">
-        <v>299</v>
+        <v>177</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="D151" t="s">
-        <v>24</v>
+        <v>297</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="D152" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>69</v>
+        <v>302</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
       <c r="D155" t="s">
-        <v>306</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="D156" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="D158" t="s">
-        <v>311</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
       <c r="D161" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
       <c r="D162" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
       <c r="D163" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
       <c r="D164" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
       <c r="D165" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
       <c r="D166" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
       <c r="D167" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
       <c r="D168" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
       <c r="D169" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
       <c r="D170" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
       <c r="D171" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
       <c r="D172" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
       <c r="D175" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>342</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="D176" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>344</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="D177" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>346</v>
       </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="D178" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>348</v>
       </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="D179" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>350</v>
       </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-      <c r="D178" t="s">
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="D180" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>352</v>
       </c>
-      <c r="B179">
-        <v>0</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="D181" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>353</v>
       </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="D182" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>354</v>
       </c>
-      <c r="B181">
-        <v>0</v>
-      </c>
-      <c r="D181" t="s">
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="D183" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>356</v>
       </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-      <c r="D182" t="s">
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="D184" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>357</v>
       </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="D185" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>359</v>
       </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-      <c r="D184" t="s">
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="D186" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>361</v>
       </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-      <c r="D185" t="s">
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="D187" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>362</v>
       </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-      <c r="D186" t="s">
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="D188" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>364</v>
       </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-      <c r="D187" t="s">
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="D189" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>366</v>
       </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-      <c r="D188" t="s">
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="D190" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>447</v>
       </c>
-      <c r="B189">
-        <v>0</v>
-      </c>
-      <c r="D189" t="s">
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="D191" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>448</v>
       </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-      <c r="D190" t="s">
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="D192" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>368</v>
-      </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-      <c r="D191" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>370</v>
-      </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-      <c r="D192" t="s">
-        <v>371</v>
-      </c>
-      <c r="E192" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>374</v>
-      </c>
-      <c r="E193" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
       <c r="D194" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E194" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
       <c r="D195" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
       <c r="D196" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E196" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B197">
         <v>0</v>
       </c>
       <c r="D197" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B198">
         <v>0</v>
       </c>
       <c r="D198" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="E198" t="s">
-        <v>437</v>
+        <v>384</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="E199" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
       <c r="D200" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="E200" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>390</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="D202" t="s">
+        <v>391</v>
+      </c>
+      <c r="E202" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>393</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="D203" t="s">
+        <v>394</v>
+      </c>
+      <c r="E203" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
         <v>396</v>
       </c>
-      <c r="B202">
-        <v>0</v>
-      </c>
-      <c r="D202" t="s">
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="D204" t="s">
         <v>397</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E204" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="2" t="s">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B203" s="2">
-        <v>0</v>
-      </c>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2" t="s">
+      <c r="B205" s="2">
+        <v>0</v>
+      </c>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E205" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="s">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B204" s="2">
-        <v>0</v>
-      </c>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2" t="s">
+      <c r="B206" s="2">
+        <v>0</v>
+      </c>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E206" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>405</v>
       </c>
-      <c r="B205">
-        <v>0</v>
-      </c>
-      <c r="D205" t="s">
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="D207" t="s">
         <v>403</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E207" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="3" t="s">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B206" s="3">
-        <v>0</v>
-      </c>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3" t="s">
+      <c r="B208" s="3">
+        <v>0</v>
+      </c>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E208" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="3" t="s">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B207" s="3">
-        <v>0</v>
-      </c>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3" t="s">
+      <c r="B209" s="3">
+        <v>0</v>
+      </c>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E209" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>413</v>
-      </c>
-      <c r="B208">
-        <v>0</v>
-      </c>
-      <c r="D208" t="s">
-        <v>414</v>
-      </c>
-      <c r="E208" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>416</v>
-      </c>
-      <c r="B209">
-        <v>0</v>
-      </c>
-      <c r="D209" t="s">
-        <v>417</v>
-      </c>
-      <c r="E209" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>413</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="D210" t="s">
+        <v>414</v>
+      </c>
+      <c r="E210" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>416</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="D211" t="s">
+        <v>417</v>
+      </c>
+      <c r="E211" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
         <v>419</v>
       </c>
-      <c r="B210">
-        <v>0</v>
-      </c>
-      <c r="D210" t="s">
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="D212" t="s">
         <v>420</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E212" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="3" t="s">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B211" s="3">
-        <v>0</v>
-      </c>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3" t="s">
+      <c r="B213" s="3">
+        <v>0</v>
+      </c>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E213" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="3" t="s">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B212" s="3">
-        <v>0</v>
-      </c>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3" t="s">
+      <c r="B214" s="3">
+        <v>0</v>
+      </c>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E214" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
         <v>426</v>
       </c>
-      <c r="B213">
-        <v>0</v>
-      </c>
-      <c r="D213" t="s">
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="D215" t="s">
         <v>427</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E215" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
         <v>429</v>
       </c>
-      <c r="B214">
-        <v>0</v>
-      </c>
-      <c r="D214" t="s">
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="D216" t="s">
         <v>430</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E216" t="s">
         <v>431</v>
       </c>
     </row>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willem/Sites/blender/database/seeds/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freek/dev/github/blender/database/seeds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" activeTab="1"/>
+    <workbookView xWindow="24800" yWindow="6460" windowWidth="28800" windowHeight="17620"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="471">
   <si>
     <t>name</t>
   </si>
@@ -1429,6 +1429,18 @@
   </si>
   <si>
     <t>Systeem</t>
+  </si>
+  <si>
+    <t>cookieConsent.message</t>
+  </si>
+  <si>
+    <t>cookieConsent.agree</t>
+  </si>
+  <si>
+    <t>Voor deze sites gebruiken we cookies om de gebruikservaring te verbeteren. Indien u verder surft gaan we ervan uit dat u cookies toelaat.</t>
+  </si>
+  <si>
+    <t>Ok</t>
   </si>
 </sst>
 </file>
@@ -1784,11 +1796,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2049,6 +2061,22 @@
         <v>48</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>467</v>
+      </c>
+      <c r="D17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>468</v>
+      </c>
+      <c r="D18" t="s">
+        <v>470</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
@@ -2063,8 +2091,8 @@
   </sheetPr>
   <dimension ref="A1:Z216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24800" yWindow="6460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView xWindow="22400" yWindow="6460" windowWidth="28800" windowHeight="17620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="473">
   <si>
     <t>name</t>
   </si>
@@ -1441,6 +1441,12 @@
   </si>
   <si>
     <t>Ok</t>
+  </si>
+  <si>
+    <t>back.articles.parent_id</t>
+  </si>
+  <si>
+    <t>Sub artikel van</t>
   </si>
 </sst>
 </file>
@@ -1798,9 +1804,9 @@
   </sheetPr>
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2089,11 +2095,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z216"/>
+  <dimension ref="A1:Z217"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4688,6 +4694,17 @@
         <v>431</v>
       </c>
     </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>471</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="D217" t="s">
+        <v>472</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <sortState ref="A2:E214">

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22400" yWindow="6460" windowWidth="28800" windowHeight="17620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="28700"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="495">
   <si>
     <t>name</t>
   </si>
@@ -1447,6 +1447,72 @@
   </si>
   <si>
     <t>Sub artikel van</t>
+  </si>
+  <si>
+    <t>form.name</t>
+  </si>
+  <si>
+    <t>form.telephone</t>
+  </si>
+  <si>
+    <t>form.email</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>form.address</t>
+  </si>
+  <si>
+    <t>form.postal</t>
+  </si>
+  <si>
+    <t>Plaatsnaam</t>
+  </si>
+  <si>
+    <t>form.city</t>
+  </si>
+  <si>
+    <t>Opmerkingen</t>
+  </si>
+  <si>
+    <t>contact.button</t>
+  </si>
+  <si>
+    <t>form.fieldsAreRequired</t>
+  </si>
+  <si>
+    <t>Deze velden zijn verplicht</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Postal</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Verstuur</t>
+  </si>
+  <si>
+    <t>Send</t>
+  </si>
+  <si>
+    <t>Required fields</t>
+  </si>
+  <si>
+    <t>contact.remarks</t>
   </si>
 </sst>
 </file>
@@ -1493,11 +1559,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1802,11 +1871,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2067,7 +2136,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>467</v>
       </c>
@@ -2075,13 +2144,115 @@
         <v>469</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>468</v>
       </c>
       <c r="D18" t="s">
         <v>470</v>
       </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>473</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>474</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>475</v>
+      </c>
+      <c r="D21" t="s">
+        <v>476</v>
+      </c>
+      <c r="E21" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>477</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>478</v>
+      </c>
+      <c r="D23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>480</v>
+      </c>
+      <c r="D24" t="s">
+        <v>479</v>
+      </c>
+      <c r="E24" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>494</v>
+      </c>
+      <c r="D25" t="s">
+        <v>481</v>
+      </c>
+      <c r="E25" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>482</v>
+      </c>
+      <c r="D26" t="s">
+        <v>491</v>
+      </c>
+      <c r="E26" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>483</v>
+      </c>
+      <c r="D27" t="s">
+        <v>484</v>
+      </c>
+      <c r="E27" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -2097,8 +2268,8 @@
   </sheetPr>
   <dimension ref="A1:Z217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27309"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freek/dev/github/blender/database/seeds/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandedeyne/Sites/blender/database/seeds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="28700"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="21060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="497">
   <si>
     <t>name</t>
   </si>
@@ -1513,6 +1513,12 @@
   </si>
   <si>
     <t>contact.remarks</t>
+  </si>
+  <si>
+    <t>back.seo.title</t>
+  </si>
+  <si>
+    <t>Paginatitel</t>
   </si>
 </sst>
 </file>
@@ -1873,7 +1879,7 @@
   </sheetPr>
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
@@ -2266,11 +2272,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z217"/>
+  <dimension ref="A1:Z218"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D215" sqref="D215"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4209,670 +4215,681 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>318</v>
+        <v>495</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
       <c r="D164" t="s">
-        <v>319</v>
+        <v>496</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
       <c r="D165" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
       <c r="D166" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
       <c r="D167" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
       <c r="D168" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
       <c r="D169" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
       <c r="D170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
       <c r="D171" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
       <c r="D172" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
       <c r="D175" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
       <c r="D176" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
       <c r="D177" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
       <c r="D178" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B179">
         <v>0</v>
       </c>
       <c r="D179" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
       <c r="D181" t="s">
-        <v>270</v>
+        <v>351</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
       <c r="D182" t="s">
-        <v>69</v>
+        <v>270</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
       <c r="D183" t="s">
-        <v>355</v>
+        <v>69</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
       <c r="D184" t="s">
-        <v>167</v>
+        <v>355</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B185">
         <v>0</v>
       </c>
       <c r="D185" t="s">
-        <v>358</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
       <c r="D186" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
       <c r="D187" t="s">
-        <v>175</v>
+        <v>360</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B188">
         <v>0</v>
       </c>
       <c r="D188" t="s">
-        <v>363</v>
+        <v>175</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
       <c r="D189" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
       <c r="D190" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>447</v>
+        <v>366</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>195</v>
+        <v>367</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
       <c r="D192" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>368</v>
+        <v>448</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D193" t="s">
-        <v>369</v>
+        <v>203</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>371</v>
-      </c>
-      <c r="E194" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
       <c r="D195" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
       <c r="D196" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E196" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B197">
         <v>0</v>
       </c>
       <c r="D197" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E197" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B198">
         <v>0</v>
       </c>
       <c r="D198" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E198" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
       <c r="D200" t="s">
-        <v>435</v>
+        <v>386</v>
       </c>
       <c r="E200" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E201" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B202">
         <v>0</v>
       </c>
       <c r="D202" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="E202" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B203">
         <v>0</v>
       </c>
       <c r="D203" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>393</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="D204" t="s">
+        <v>394</v>
+      </c>
+      <c r="E204" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
         <v>396</v>
       </c>
-      <c r="B204">
-        <v>0</v>
-      </c>
-      <c r="D204" t="s">
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="D205" t="s">
         <v>397</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E205" t="s">
         <v>398</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B205" s="2">
-        <v>0</v>
-      </c>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E205" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B206" s="2">
         <v>0</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E206" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B207" s="2">
+        <v>0</v>
+      </c>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E207" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>405</v>
       </c>
-      <c r="B207">
-        <v>0</v>
-      </c>
-      <c r="D207" t="s">
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="D208" t="s">
         <v>403</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E208" t="s">
         <v>406</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B208" s="3">
-        <v>0</v>
-      </c>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E208" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B209" s="3">
         <v>0</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E209" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B210" s="3">
+        <v>0</v>
+      </c>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E210" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>413</v>
-      </c>
-      <c r="B210">
-        <v>0</v>
-      </c>
-      <c r="D210" t="s">
-        <v>414</v>
-      </c>
-      <c r="E210" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B211">
         <v>0</v>
       </c>
       <c r="D211" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E211" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
+        <v>416</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="D212" t="s">
+        <v>417</v>
+      </c>
+      <c r="E212" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
         <v>419</v>
       </c>
-      <c r="B212">
-        <v>0</v>
-      </c>
-      <c r="D212" t="s">
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="D213" t="s">
         <v>420</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E213" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B213" s="3">
-        <v>0</v>
-      </c>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="E213" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B214" s="3">
         <v>0</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E214" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B215" s="3">
+        <v>0</v>
+      </c>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E215" t="s">
         <v>425</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>426</v>
-      </c>
-      <c r="B215">
-        <v>0</v>
-      </c>
-      <c r="D215" t="s">
-        <v>427</v>
-      </c>
-      <c r="E215" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B216">
         <v>0</v>
       </c>
       <c r="D216" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E216" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>429</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="D217" t="s">
+        <v>430</v>
+      </c>
+      <c r="E217" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>471</v>
       </c>
-      <c r="B217">
-        <v>0</v>
-      </c>
-      <c r="D217" t="s">
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="D218" t="s">
         <v>472</v>
       </c>
     </row>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandedeyne/Sites/blender/database/seeds/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willem/Sites/blender/database/seeds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="21060" activeTab="1"/>
+    <workbookView xWindow="4720" yWindow="1060" windowWidth="25600" windowHeight="21060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="496">
   <si>
     <t>name</t>
   </si>
@@ -543,9 +543,6 @@
     <t>back.articles.save</t>
   </si>
   <si>
-    <t>Bewaar artikel</t>
-  </si>
-  <si>
     <t>back.articles.singular</t>
   </si>
   <si>
@@ -903,9 +900,6 @@
     <t>back.newsItems.save</t>
   </si>
   <si>
-    <t>Bewaar nieuwsbericht</t>
-  </si>
-  <si>
     <t>back.newsItems.singular</t>
   </si>
   <si>
@@ -1446,9 +1440,6 @@
     <t>back.articles.parent_id</t>
   </si>
   <si>
-    <t>Sub artikel van</t>
-  </si>
-  <si>
     <t>form.name</t>
   </si>
   <si>
@@ -1519,6 +1510,12 @@
   </si>
   <si>
     <t>Paginatitel</t>
+  </si>
+  <si>
+    <t>Hoofdartikel</t>
+  </si>
+  <si>
+    <t>Bewaar wijzigingen</t>
   </si>
 </sst>
 </file>
@@ -2144,117 +2141,117 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>465</v>
+      </c>
+      <c r="D17" t="s">
         <v>467</v>
-      </c>
-      <c r="D17" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D18" t="s">
         <v>468</v>
-      </c>
-      <c r="D18" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D19" t="s">
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D20" t="s">
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D21" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E21" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D23" t="s">
         <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D24" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E24" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D25" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D26" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E26" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D27" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E27" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.2">
@@ -2275,8 +2272,8 @@
   <dimension ref="A1:Z218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A164" sqref="A164"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2479,13 +2476,13 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -2627,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E25" t="s">
         <v>99</v>
@@ -2641,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E26" t="s">
         <v>101</v>
@@ -2864,7 +2861,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3053,56 +3050,56 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>171</v>
+        <v>495</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
         <v>172</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="D59" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
         <v>174</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="D60" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
         <v>176</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="D61" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
         <v>178</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="D62" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3113,7 +3110,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3124,7 +3121,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3135,7 +3132,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3146,7 +3143,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3157,7 +3154,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3168,7 +3165,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3179,7 +3176,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3190,7 +3187,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3201,7 +3198,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3212,18 +3209,18 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B74" s="3">
         <v>0</v>
@@ -3235,41 +3232,41 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B75" s="3">
         <v>0</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
         <v>187</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="D76" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
         <v>189</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="D77" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3280,29 +3277,29 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>191</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
         <v>192</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="D79" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>193</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
         <v>194</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="D80" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3313,29 +3310,29 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
         <v>197</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="D82" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>198</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
         <v>199</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="D83" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3346,29 +3343,29 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
         <v>202</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="D85" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
         <v>204</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="D86" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3379,18 +3376,18 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>206</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
         <v>207</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="D88" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3401,183 +3398,183 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
         <v>210</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="D90" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>211</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
         <v>212</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="D91" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>213</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
         <v>214</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="D92" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>215</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
         <v>216</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="D93" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>217</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
         <v>218</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="D95" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>219</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
         <v>220</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="D96" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>221</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
         <v>222</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="D97" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>223</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
         <v>224</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="D98" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>225</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
         <v>226</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="D99" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>227</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
         <v>228</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="D100" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>229</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
         <v>230</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="D101" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>232</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="D103" t="s">
         <v>233</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="D103" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>234</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="D104" t="s">
         <v>235</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="D104" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -3588,51 +3585,51 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>237</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="D107" t="s">
         <v>238</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="D107" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>240</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
         <v>241</v>
-      </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="D109" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>242</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
         <v>243</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-      <c r="D110" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -3643,18 +3640,18 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -3665,40 +3662,40 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>249</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="D116" t="s">
         <v>250</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="D116" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -3709,172 +3706,172 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>253</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="D119" t="s">
         <v>254</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="D119" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>255</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="D120" t="s">
         <v>256</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="D120" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>258</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="D122" t="s">
         <v>259</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="D122" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>260</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="D123" t="s">
         <v>261</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="D123" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>262</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="D124" t="s">
         <v>263</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="D124" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>264</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="D125" t="s">
         <v>265</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="D125" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>266</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
         <v>267</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="D126" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>268</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="D127" t="s">
         <v>269</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="D127" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>270</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="D128" t="s">
         <v>271</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-      <c r="D128" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>272</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="D129" t="s">
         <v>273</v>
-      </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-      <c r="D129" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>274</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="D130" t="s">
         <v>275</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-      <c r="D130" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>276</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="D132" t="s">
         <v>277</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-      <c r="D132" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3885,62 +3882,62 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="D134" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
       <c r="D135" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="D136" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3951,7 +3948,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3962,7 +3959,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3973,40 +3970,40 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="D142" t="s">
         <v>283</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-      <c r="D142" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="D143" t="s">
         <v>285</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-      <c r="D143" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -4017,7 +4014,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -4028,73 +4025,73 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="D147" t="s">
-        <v>291</v>
+        <v>495</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="D149" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="D150" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="D151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="D152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -4105,18 +4102,18 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -4127,7 +4124,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -4138,18 +4135,18 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -4160,271 +4157,271 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
       <c r="D161" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
       <c r="D162" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
       <c r="D163" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
       <c r="D164" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
       <c r="D165" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
       <c r="D166" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
       <c r="D167" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
       <c r="D168" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
       <c r="D169" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
       <c r="D170" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
       <c r="D171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
       <c r="D172" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
       <c r="D175" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
       <c r="D176" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
       <c r="D177" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
       <c r="D178" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B179">
         <v>0</v>
       </c>
       <c r="D179" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
       <c r="D181" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
       <c r="D182" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4435,18 +4432,18 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
       <c r="D184" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4457,440 +4454,440 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
       <c r="D186" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
       <c r="D187" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B188">
         <v>0</v>
       </c>
       <c r="D188" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
       <c r="D189" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
       <c r="D190" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
       <c r="D192" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
       <c r="D193" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>368</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="D195" t="s">
+        <v>369</v>
+      </c>
+      <c r="E195" t="s">
         <v>370</v>
-      </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-      <c r="D195" t="s">
-        <v>371</v>
-      </c>
-      <c r="E195" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>371</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="D196" t="s">
+        <v>372</v>
+      </c>
+      <c r="E196" t="s">
         <v>373</v>
-      </c>
-      <c r="B196">
-        <v>0</v>
-      </c>
-      <c r="D196" t="s">
-        <v>374</v>
-      </c>
-      <c r="E196" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>374</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="D197" t="s">
+        <v>375</v>
+      </c>
+      <c r="E197" t="s">
         <v>376</v>
-      </c>
-      <c r="B197">
-        <v>0</v>
-      </c>
-      <c r="D197" t="s">
-        <v>377</v>
-      </c>
-      <c r="E197" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
+        <v>377</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="D198" t="s">
+        <v>378</v>
+      </c>
+      <c r="E198" t="s">
         <v>379</v>
-      </c>
-      <c r="B198">
-        <v>0</v>
-      </c>
-      <c r="D198" t="s">
-        <v>380</v>
-      </c>
-      <c r="E198" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>380</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="D199" t="s">
+        <v>381</v>
+      </c>
+      <c r="E199" t="s">
         <v>382</v>
-      </c>
-      <c r="B199">
-        <v>0</v>
-      </c>
-      <c r="D199" t="s">
-        <v>383</v>
-      </c>
-      <c r="E199" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>383</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="D200" t="s">
+        <v>384</v>
+      </c>
+      <c r="E200" t="s">
         <v>385</v>
-      </c>
-      <c r="B200">
-        <v>0</v>
-      </c>
-      <c r="D200" t="s">
-        <v>386</v>
-      </c>
-      <c r="E200" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
       <c r="D201" t="s">
+        <v>433</v>
+      </c>
+      <c r="E201" t="s">
         <v>435</v>
-      </c>
-      <c r="E201" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B202">
         <v>0</v>
       </c>
       <c r="D202" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E202" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
+        <v>388</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="D203" t="s">
+        <v>389</v>
+      </c>
+      <c r="E203" t="s">
         <v>390</v>
-      </c>
-      <c r="B203">
-        <v>0</v>
-      </c>
-      <c r="D203" t="s">
-        <v>391</v>
-      </c>
-      <c r="E203" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>391</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="D204" t="s">
+        <v>392</v>
+      </c>
+      <c r="E204" t="s">
         <v>393</v>
-      </c>
-      <c r="B204">
-        <v>0</v>
-      </c>
-      <c r="D204" t="s">
-        <v>394</v>
-      </c>
-      <c r="E204" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>394</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="D205" t="s">
+        <v>395</v>
+      </c>
+      <c r="E205" t="s">
         <v>396</v>
-      </c>
-      <c r="B205">
-        <v>0</v>
-      </c>
-      <c r="D205" t="s">
-        <v>397</v>
-      </c>
-      <c r="E205" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B206" s="2">
         <v>0</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B207" s="2">
         <v>0</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E207" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B208">
         <v>0</v>
       </c>
       <c r="D208" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E208" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B209" s="3">
         <v>0</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B210" s="3">
         <v>0</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E210" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>411</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="D211" t="s">
+        <v>412</v>
+      </c>
+      <c r="E211" t="s">
         <v>413</v>
-      </c>
-      <c r="B211">
-        <v>0</v>
-      </c>
-      <c r="D211" t="s">
-        <v>414</v>
-      </c>
-      <c r="E211" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
+        <v>414</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="D212" t="s">
+        <v>415</v>
+      </c>
+      <c r="E212" t="s">
         <v>416</v>
-      </c>
-      <c r="B212">
-        <v>0</v>
-      </c>
-      <c r="D212" t="s">
-        <v>417</v>
-      </c>
-      <c r="E212" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>417</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="D213" t="s">
+        <v>418</v>
+      </c>
+      <c r="E213" t="s">
         <v>419</v>
-      </c>
-      <c r="B213">
-        <v>0</v>
-      </c>
-      <c r="D213" t="s">
-        <v>420</v>
-      </c>
-      <c r="E213" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B214" s="3">
         <v>0</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E214" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B215" s="3">
         <v>0</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E215" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>424</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="D216" t="s">
+        <v>425</v>
+      </c>
+      <c r="E216" t="s">
         <v>426</v>
-      </c>
-      <c r="B216">
-        <v>0</v>
-      </c>
-      <c r="D216" t="s">
-        <v>427</v>
-      </c>
-      <c r="E216" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>427</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="D217" t="s">
+        <v>428</v>
+      </c>
+      <c r="E217" t="s">
         <v>429</v>
-      </c>
-      <c r="B217">
-        <v>0</v>
-      </c>
-      <c r="D217" t="s">
-        <v>430</v>
-      </c>
-      <c r="E217" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B218">
         <v>0</v>
       </c>
       <c r="D218" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="1060" windowWidth="25600" windowHeight="21060" activeTab="1"/>
+    <workbookView xWindow="13500" yWindow="4140" windowWidth="25600" windowHeight="21060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="499">
   <si>
     <t>name</t>
   </si>
@@ -1516,6 +1516,15 @@
   </si>
   <si>
     <t>Bewaar wijzigingen</t>
+  </si>
+  <si>
+    <t>back.seo.help</t>
+  </si>
+  <si>
+    <t>Article principal</t>
+  </si>
+  <si>
+    <t>Deze velden worden standaard afgeleid uit de inhoud. Vul een veld in om te overschrijven.</t>
   </si>
 </sst>
 </file>
@@ -2269,11 +2278,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z218"/>
+  <dimension ref="A1:Z219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D147" sqref="D147"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4889,6 +4898,20 @@
       <c r="D218" t="s">
         <v>494</v>
       </c>
+      <c r="E218" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>496</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="D219" t="s">
+        <v>498</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="501">
   <si>
     <t>name</t>
   </si>
@@ -1525,6 +1525,12 @@
   </si>
   <si>
     <t>Deze velden worden standaard afgeleid uit de inhoud. Vul een veld in om te overschrijven.</t>
+  </si>
+  <si>
+    <t>back.formResponses.mailConfigMissing</t>
+  </si>
+  <si>
+    <t>Momenteel worden reacties nog niet gemaild omdat er geen bestemming werd ingesteld. Download hier de backup van alle reacties als .xlsx-bestand (Excel).</t>
   </si>
 </sst>
 </file>
@@ -2278,11 +2284,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z219"/>
+  <dimension ref="A1:Z220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D219" sqref="D219"/>
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D220" sqref="D220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4913,6 +4919,17 @@
         <v>498</v>
       </c>
     </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>499</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="D220" t="s">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <sortState ref="A2:E214">

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -1530,7 +1530,7 @@
     <t>back.formResponses.mailConfigMissing</t>
   </si>
   <si>
-    <t>Momenteel worden reacties nog niet gemaild omdat er geen bestemming werd ingesteld. Download hier de backup van alle reacties als .xlsx-bestand (Excel).</t>
+    <t xml:space="preserve">Momenteel worden reacties nog niet gemaild omdat er geen bestemming werd ingesteld. </t>
   </si>
 </sst>
 </file>
@@ -2288,7 +2288,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D220" sqref="D220"/>
+      <selection pane="bottomLeft" activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="502">
   <si>
     <t>name</t>
   </si>
@@ -591,15 +591,9 @@
     <t>back.backUsers.administrator</t>
   </si>
   <si>
-    <t>Administrator</t>
-  </si>
-  <si>
     <t>back.backUsers.automaticCredentialsMailInfo</t>
   </si>
   <si>
-    <t>Zodra je deze nieuwe administrator bewaart, zullen we hem/haar een e-mail sturen met een link om het wachtwoord in te stellen.</t>
-  </si>
-  <si>
     <t>back.backUsers.first_name</t>
   </si>
   <si>
@@ -642,9 +636,6 @@
     <t>back.backUsers.new</t>
   </si>
   <si>
-    <t>Nieuwe administrator</t>
-  </si>
-  <si>
     <t>back.backUsers.password</t>
   </si>
   <si>
@@ -666,15 +657,9 @@
     <t>back.backUsers.save</t>
   </si>
   <si>
-    <t>Bewaar administrator</t>
-  </si>
-  <si>
     <t>back.backUsers.title</t>
   </si>
   <si>
-    <t>Administrators</t>
-  </si>
-  <si>
     <t>back.change</t>
   </si>
   <si>
@@ -1531,6 +1516,24 @@
   </si>
   <si>
     <t xml:space="preserve">Momenteel worden reacties nog niet gemaild omdat er geen bestemming werd ingesteld. </t>
+  </si>
+  <si>
+    <t>Beheerder</t>
+  </si>
+  <si>
+    <t>Zodra je deze nieuwe beheerder bewaart, zullen we hem/haar een e-mail sturen met een link om het wachtwoord in te stellen.</t>
+  </si>
+  <si>
+    <t>Nieuwe beheerder</t>
+  </si>
+  <si>
+    <t>Er is een mail verstuurd waarmee deze beheerder zelf een wachtwoord kan instellen.</t>
+  </si>
+  <si>
+    <t>Bewaar beheerder</t>
+  </si>
+  <si>
+    <t>Beheerders</t>
   </si>
 </sst>
 </file>
@@ -2156,117 +2159,117 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D17" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D18" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D19" t="s">
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D20" t="s">
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D21" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E21" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D23" t="s">
         <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D24" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E24" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D25" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E25" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D26" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E26" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D27" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E27" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.2">
@@ -2287,8 +2290,8 @@
   <dimension ref="A1:Z220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A228" sqref="A228"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2491,13 +2494,13 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -2639,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E25" t="s">
         <v>99</v>
@@ -2653,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E26" t="s">
         <v>101</v>
@@ -2876,7 +2879,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2958,7 +2961,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>153</v>
       </c>
@@ -2969,7 +2972,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>155</v>
       </c>
@@ -2980,7 +2983,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>157</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>159</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>161</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>163</v>
       </c>
@@ -3024,7 +3027,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -3035,7 +3038,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>166</v>
       </c>
@@ -3046,1894 +3049,1896 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>464</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>489</v>
+      </c>
+      <c r="E57" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>168</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>170</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="D58" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>171</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>173</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>175</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>177</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>179</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>180</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="D64" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>438</v>
+        <v>182</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>183</v>
+        <v>432</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>460</v>
+        <v>185</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>441</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B74" s="3">
-        <v>0</v>
-      </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3" t="s">
-        <v>129</v>
+      <c r="A74" t="s">
+        <v>435</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B75" s="3">
         <v>0</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>431</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>186</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="D76" t="s">
-        <v>187</v>
+      <c r="A76" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>189</v>
+        <v>496</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>497</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>192</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>35</v>
+        <v>498</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>207</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>210</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>212</v>
+        <v>499</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>214</v>
+        <v>500</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>216</v>
+        <v>501</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>442</v>
+        <v>210</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>447</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>217</v>
+        <v>437</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>218</v>
+        <v>442</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>439</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>233</v>
+        <v>434</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>234</v>
+        <v>494</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>235</v>
+        <v>495</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>444</v>
+        <v>227</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>449</v>
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>69</v>
+        <v>230</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>237</v>
+        <v>439</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>238</v>
+        <v>444</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>176</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>26</v>
+        <v>236</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>199</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>254</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="D120" t="s">
-        <v>256</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="D123" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="D129" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="D130" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>443</v>
+        <v>267</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>448</v>
+        <v>268</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="D132" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>278</v>
+        <v>438</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="D133" t="s">
-        <v>69</v>
+        <v>443</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>451</v>
+        <v>271</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="D134" t="s">
-        <v>454</v>
+        <v>272</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>452</v>
+        <v>273</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
       <c r="D135" t="s">
-        <v>235</v>
+        <v>69</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="D136" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>464</v>
+        <v>230</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>279</v>
+        <v>458</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="D139" t="s">
-        <v>158</v>
+        <v>459</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>280</v>
+        <v>456</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="D140" t="s">
-        <v>160</v>
+        <v>457</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="D141" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="D142" t="s">
-        <v>283</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="D143" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="D145" t="s">
-        <v>167</v>
+        <v>280</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="D147" t="s">
-        <v>495</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>291</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="D149" t="s">
-        <v>174</v>
+        <v>490</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="D150" t="s">
-        <v>176</v>
+        <v>286</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="D151" t="s">
-        <v>295</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="D152" t="s">
-        <v>297</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>24</v>
+        <v>290</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
       <c r="D155" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="D156" t="s">
-        <v>69</v>
+        <v>295</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>304</v>
+        <v>160</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="D158" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>309</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
       <c r="D161" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
       <c r="D162" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
       <c r="D163" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>492</v>
+        <v>307</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
       <c r="D164" t="s">
-        <v>493</v>
+        <v>308</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
       <c r="D165" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>318</v>
+        <v>491</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
       <c r="D166" t="s">
-        <v>319</v>
+        <v>493</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>320</v>
+        <v>487</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
       <c r="D167" t="s">
-        <v>321</v>
+        <v>488</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
       <c r="D168" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
       <c r="D169" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
       <c r="D170" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
       <c r="D171" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
       <c r="D172" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
       <c r="D175" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
       <c r="D176" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
       <c r="D177" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
       <c r="D178" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B179">
         <v>0</v>
       </c>
       <c r="D179" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
       <c r="D181" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
       <c r="D182" t="s">
-        <v>269</v>
+        <v>340</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
       <c r="D183" t="s">
-        <v>69</v>
+        <v>342</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
       <c r="D184" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B185">
         <v>0</v>
       </c>
       <c r="D185" t="s">
-        <v>167</v>
+        <v>264</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
       <c r="D186" t="s">
-        <v>356</v>
+        <v>69</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
       <c r="D187" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B188">
         <v>0</v>
       </c>
       <c r="D188" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
       <c r="D189" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
       <c r="D190" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>365</v>
+        <v>174</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>445</v>
+        <v>355</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
       <c r="D192" t="s">
-        <v>194</v>
+        <v>356</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>446</v>
+        <v>357</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
       <c r="D193" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>368</v>
+        <v>440</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
       <c r="D195" t="s">
-        <v>369</v>
-      </c>
-      <c r="E195" t="s">
-        <v>370</v>
+        <v>192</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>371</v>
+        <v>441</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
       <c r="D196" t="s">
-        <v>372</v>
-      </c>
-      <c r="E196" t="s">
-        <v>373</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>375</v>
-      </c>
-      <c r="E197" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B198">
         <v>0</v>
       </c>
       <c r="D198" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="E199" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
       <c r="D200" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="E200" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="E201" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B202">
         <v>0</v>
       </c>
       <c r="D202" t="s">
-        <v>436</v>
+        <v>376</v>
       </c>
       <c r="E202" t="s">
-        <v>434</v>
+        <v>377</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B203">
         <v>0</v>
       </c>
       <c r="D203" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E203" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B204">
         <v>0</v>
       </c>
       <c r="D204" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="E204" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B205">
         <v>0</v>
       </c>
       <c r="D205" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="E205" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B206" s="2">
         <v>0</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="E206" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B207" s="2">
         <v>0</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="E207" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B208">
         <v>0</v>
       </c>
       <c r="D208" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="E208" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B209" s="3">
         <v>0</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B210" s="3">
         <v>0</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="E210" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>398</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="D211" t="s">
+        <v>396</v>
+      </c>
+      <c r="E211" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B212" s="3">
+        <v>0</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E212" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B213" s="3">
+        <v>0</v>
+      </c>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E213" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>406</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="D214" t="s">
+        <v>407</v>
+      </c>
+      <c r="E214" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>409</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="D215" t="s">
+        <v>410</v>
+      </c>
+      <c r="E215" t="s">
         <v>411</v>
-      </c>
-      <c r="B211">
-        <v>0</v>
-      </c>
-      <c r="D211" t="s">
-        <v>412</v>
-      </c>
-      <c r="E211" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>414</v>
-      </c>
-      <c r="B212">
-        <v>0</v>
-      </c>
-      <c r="D212" t="s">
-        <v>415</v>
-      </c>
-      <c r="E212" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>417</v>
-      </c>
-      <c r="B213">
-        <v>0</v>
-      </c>
-      <c r="D213" t="s">
-        <v>418</v>
-      </c>
-      <c r="E213" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="B214" s="3">
-        <v>0</v>
-      </c>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="E214" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="B215" s="3">
-        <v>0</v>
-      </c>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E215" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B216">
         <v>0</v>
       </c>
       <c r="D216" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E216" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>427</v>
-      </c>
-      <c r="B217">
-        <v>0</v>
-      </c>
-      <c r="D217" t="s">
-        <v>428</v>
+      <c r="A217" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B217" s="3">
+        <v>0</v>
+      </c>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="E217" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>469</v>
-      </c>
-      <c r="B218">
-        <v>0</v>
-      </c>
-      <c r="D218" t="s">
-        <v>494</v>
+      <c r="A218" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B218" s="3">
+        <v>0</v>
+      </c>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="E218" t="s">
-        <v>497</v>
+        <v>418</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>496</v>
+        <v>419</v>
       </c>
       <c r="B219">
         <v>0</v>
       </c>
       <c r="D219" t="s">
-        <v>498</v>
+        <v>420</v>
+      </c>
+      <c r="E219" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>499</v>
+        <v>422</v>
       </c>
       <c r="B220">
         <v>0</v>
       </c>
       <c r="D220" t="s">
-        <v>500</v>
+        <v>423</v>
+      </c>
+      <c r="E220" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState ref="A2:E214">
-    <sortCondition ref="A2"/>
+  <sortState ref="A2:Z220">
+    <sortCondition ref="A2:A220"/>
   </sortState>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27309"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freek/dev/github/blender/database/seeds/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandedeyne/Sites/blender/database/seeds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="4140" windowWidth="25600" windowHeight="21060" activeTab="1"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="25600" windowHeight="21060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="507">
   <si>
     <t>name</t>
   </si>
@@ -1519,6 +1519,36 @@
   </si>
   <si>
     <t>formResponses.mailConfigMissing</t>
+  </si>
+  <si>
+    <t>Redirects</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>Naar</t>
+  </si>
+  <si>
+    <t>Nieuwe redirect</t>
+  </si>
+  <si>
+    <t>Bewaar redirect</t>
+  </si>
+  <si>
+    <t>redirects.title</t>
+  </si>
+  <si>
+    <t>redirects.old_url</t>
+  </si>
+  <si>
+    <t>redirects.new_url</t>
+  </si>
+  <si>
+    <t>redirects.new</t>
+  </si>
+  <si>
+    <t>redirects.save</t>
   </si>
 </sst>
 </file>
@@ -2354,11 +2384,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA219"/>
+  <dimension ref="A1:AA224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B210" sqref="B210"/>
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5646,6 +5676,81 @@
         <v>267</v>
       </c>
     </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>338</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C220" s="2">
+        <v>0</v>
+      </c>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>338</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C221" s="2">
+        <v>0</v>
+      </c>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>338</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C222" s="2">
+        <v>0</v>
+      </c>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>338</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C223" s="2">
+        <v>0</v>
+      </c>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>338</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C224" s="2">
+        <v>0</v>
+      </c>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <sortState ref="B2:F214">

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -15,6 +15,9 @@
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
     <sheet name="hidden" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">hidden!$A$1:$F$224</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -1089,57 +1092,6 @@
     <t>articles.title</t>
   </si>
   <si>
-    <t>backUsers.administrator</t>
-  </si>
-  <si>
-    <t>backUsers.automaticCredentialsMailInfo</t>
-  </si>
-  <si>
-    <t>backUsers.first_name</t>
-  </si>
-  <si>
-    <t>backUsers.gravatarInfo</t>
-  </si>
-  <si>
-    <t>backUsers.justNow</t>
-  </si>
-  <si>
-    <t>backUsers.last_name</t>
-  </si>
-  <si>
-    <t>backUsers.lastActivity</t>
-  </si>
-  <si>
-    <t>backUsers.locale</t>
-  </si>
-  <si>
-    <t>backUsers.name</t>
-  </si>
-  <si>
-    <t>backUsers.neverLoggedIn</t>
-  </si>
-  <si>
-    <t>backUsers.new</t>
-  </si>
-  <si>
-    <t>backUsers.password</t>
-  </si>
-  <si>
-    <t>backUsers.passwordChangeInfo</t>
-  </si>
-  <si>
-    <t>backUsers.passwordConfirmation</t>
-  </si>
-  <si>
-    <t>backUsers.passwordMailSent</t>
-  </si>
-  <si>
-    <t>backUsers.save</t>
-  </si>
-  <si>
-    <t>backUsers.title</t>
-  </si>
-  <si>
     <t>change</t>
   </si>
   <si>
@@ -1191,51 +1143,6 @@
     <t>fragments.title</t>
   </si>
   <si>
-    <t>frontUsers.automaticCredentialsMailInfo</t>
-  </si>
-  <si>
-    <t>frontUsers.first_name</t>
-  </si>
-  <si>
-    <t>frontUsers.justNow</t>
-  </si>
-  <si>
-    <t>frontUsers.last_name</t>
-  </si>
-  <si>
-    <t>frontUsers.lastActivity</t>
-  </si>
-  <si>
-    <t>frontUsers.locale</t>
-  </si>
-  <si>
-    <t>frontUsers.member</t>
-  </si>
-  <si>
-    <t>frontUsers.name</t>
-  </si>
-  <si>
-    <t>frontUsers.neverLoggedIn</t>
-  </si>
-  <si>
-    <t>frontUsers.new</t>
-  </si>
-  <si>
-    <t>frontUsers.passwordChangeInfo</t>
-  </si>
-  <si>
-    <t>frontUsers.passwordMailSent</t>
-  </si>
-  <si>
-    <t>frontUsers.save</t>
-  </si>
-  <si>
-    <t>frontUsers.sendResetLink</t>
-  </si>
-  <si>
-    <t>frontUsers.title</t>
-  </si>
-  <si>
     <t>locationpicker.search</t>
   </si>
   <si>
@@ -1275,45 +1182,6 @@
     <t>nav.modules</t>
   </si>
   <si>
-    <t>newsItems.downloads</t>
-  </si>
-  <si>
-    <t>newsItems.images</t>
-  </si>
-  <si>
-    <t>newsItems.name</t>
-  </si>
-  <si>
-    <t>newsItems.new</t>
-  </si>
-  <si>
-    <t>newsItems.news_category</t>
-  </si>
-  <si>
-    <t>newsItems.news_tag</t>
-  </si>
-  <si>
-    <t>newsItems.online</t>
-  </si>
-  <si>
-    <t>newsItems.publish_date</t>
-  </si>
-  <si>
-    <t>newsItems.save</t>
-  </si>
-  <si>
-    <t>newsItems.singular</t>
-  </si>
-  <si>
-    <t>newsItems.tags</t>
-  </si>
-  <si>
-    <t>newsItems.text</t>
-  </si>
-  <si>
-    <t>newsItems.title</t>
-  </si>
-  <si>
     <t>people.career</t>
   </si>
   <si>
@@ -1549,6 +1417,141 @@
   </si>
   <si>
     <t>redirects.save</t>
+  </si>
+  <si>
+    <t>news.downloads</t>
+  </si>
+  <si>
+    <t>news.images</t>
+  </si>
+  <si>
+    <t>news.name</t>
+  </si>
+  <si>
+    <t>news.new</t>
+  </si>
+  <si>
+    <t>news.news_category</t>
+  </si>
+  <si>
+    <t>news.news_tag</t>
+  </si>
+  <si>
+    <t>news.online</t>
+  </si>
+  <si>
+    <t>news.publish_date</t>
+  </si>
+  <si>
+    <t>news.save</t>
+  </si>
+  <si>
+    <t>news.singular</t>
+  </si>
+  <si>
+    <t>news.tags</t>
+  </si>
+  <si>
+    <t>news.text</t>
+  </si>
+  <si>
+    <t>news.title</t>
+  </si>
+  <si>
+    <t>members.automaticCredentialsMailInfo</t>
+  </si>
+  <si>
+    <t>members.first_name</t>
+  </si>
+  <si>
+    <t>members.justNow</t>
+  </si>
+  <si>
+    <t>members.last_name</t>
+  </si>
+  <si>
+    <t>members.lastActivity</t>
+  </si>
+  <si>
+    <t>members.locale</t>
+  </si>
+  <si>
+    <t>members.member</t>
+  </si>
+  <si>
+    <t>members.name</t>
+  </si>
+  <si>
+    <t>members.neverLoggedIn</t>
+  </si>
+  <si>
+    <t>members.new</t>
+  </si>
+  <si>
+    <t>members.passwordChangeInfo</t>
+  </si>
+  <si>
+    <t>members.passwordMailSent</t>
+  </si>
+  <si>
+    <t>members.save</t>
+  </si>
+  <si>
+    <t>members.sendResetLink</t>
+  </si>
+  <si>
+    <t>members.title</t>
+  </si>
+  <si>
+    <t>administrators.administrator</t>
+  </si>
+  <si>
+    <t>administrators.automaticCredentialsMailInfo</t>
+  </si>
+  <si>
+    <t>administrators.first_name</t>
+  </si>
+  <si>
+    <t>administrators.gravatarInfo</t>
+  </si>
+  <si>
+    <t>administrators.justNow</t>
+  </si>
+  <si>
+    <t>administrators.last_name</t>
+  </si>
+  <si>
+    <t>administrators.lastActivity</t>
+  </si>
+  <si>
+    <t>administrators.locale</t>
+  </si>
+  <si>
+    <t>administrators.name</t>
+  </si>
+  <si>
+    <t>administrators.neverLoggedIn</t>
+  </si>
+  <si>
+    <t>administrators.new</t>
+  </si>
+  <si>
+    <t>administrators.password</t>
+  </si>
+  <si>
+    <t>administrators.passwordChangeInfo</t>
+  </si>
+  <si>
+    <t>administrators.passwordConfirmation</t>
+  </si>
+  <si>
+    <t>administrators.passwordMailSent</t>
+  </si>
+  <si>
+    <t>administrators.save</t>
+  </si>
+  <si>
+    <t>administrators.title</t>
   </si>
 </sst>
 </file>
@@ -2387,8 +2390,8 @@
   <dimension ref="A1:AA224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A224" sqref="A224"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3587,7 +3590,7 @@
         <v>338</v>
       </c>
       <c r="B76" t="s">
-        <v>353</v>
+        <v>490</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3601,7 +3604,7 @@
         <v>338</v>
       </c>
       <c r="B77" t="s">
-        <v>354</v>
+        <v>491</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -3615,7 +3618,7 @@
         <v>338</v>
       </c>
       <c r="B78" t="s">
-        <v>355</v>
+        <v>492</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3629,7 +3632,7 @@
         <v>338</v>
       </c>
       <c r="B79" t="s">
-        <v>356</v>
+        <v>493</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3643,7 +3646,7 @@
         <v>338</v>
       </c>
       <c r="B80" t="s">
-        <v>357</v>
+        <v>494</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3657,7 +3660,7 @@
         <v>338</v>
       </c>
       <c r="B81" t="s">
-        <v>358</v>
+        <v>495</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3671,7 +3674,7 @@
         <v>338</v>
       </c>
       <c r="B82" t="s">
-        <v>359</v>
+        <v>496</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3685,7 +3688,7 @@
         <v>338</v>
       </c>
       <c r="B83" t="s">
-        <v>360</v>
+        <v>497</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -3699,7 +3702,7 @@
         <v>338</v>
       </c>
       <c r="B84" t="s">
-        <v>361</v>
+        <v>498</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -3713,7 +3716,7 @@
         <v>338</v>
       </c>
       <c r="B85" t="s">
-        <v>362</v>
+        <v>499</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -3727,7 +3730,7 @@
         <v>338</v>
       </c>
       <c r="B86" t="s">
-        <v>363</v>
+        <v>500</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3741,7 +3744,7 @@
         <v>338</v>
       </c>
       <c r="B87" t="s">
-        <v>364</v>
+        <v>501</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3755,7 +3758,7 @@
         <v>338</v>
       </c>
       <c r="B88" t="s">
-        <v>365</v>
+        <v>502</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3769,7 +3772,7 @@
         <v>338</v>
       </c>
       <c r="B89" t="s">
-        <v>366</v>
+        <v>503</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3783,7 +3786,7 @@
         <v>338</v>
       </c>
       <c r="B90" t="s">
-        <v>367</v>
+        <v>504</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3797,7 +3800,7 @@
         <v>338</v>
       </c>
       <c r="B91" t="s">
-        <v>368</v>
+        <v>505</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3811,7 +3814,7 @@
         <v>338</v>
       </c>
       <c r="B92" t="s">
-        <v>369</v>
+        <v>506</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3825,7 +3828,7 @@
         <v>338</v>
       </c>
       <c r="B93" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3839,7 +3842,7 @@
         <v>338</v>
       </c>
       <c r="B94" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -3853,7 +3856,7 @@
         <v>338</v>
       </c>
       <c r="B95" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -3867,7 +3870,7 @@
         <v>338</v>
       </c>
       <c r="B96" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -3881,7 +3884,7 @@
         <v>338</v>
       </c>
       <c r="B97" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -3895,7 +3898,7 @@
         <v>338</v>
       </c>
       <c r="B98" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -3909,7 +3912,7 @@
         <v>338</v>
       </c>
       <c r="B99" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -3923,7 +3926,7 @@
         <v>338</v>
       </c>
       <c r="B100" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -3937,7 +3940,7 @@
         <v>338</v>
       </c>
       <c r="B101" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -3951,7 +3954,7 @@
         <v>338</v>
       </c>
       <c r="B102" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -3965,7 +3968,7 @@
         <v>338</v>
       </c>
       <c r="B103" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -3979,7 +3982,7 @@
         <v>338</v>
       </c>
       <c r="B104" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -3993,7 +3996,7 @@
         <v>338</v>
       </c>
       <c r="B105" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -4007,7 +4010,7 @@
         <v>338</v>
       </c>
       <c r="B106" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -4021,7 +4024,7 @@
         <v>338</v>
       </c>
       <c r="B107" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -4035,7 +4038,7 @@
         <v>338</v>
       </c>
       <c r="B108" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -4049,7 +4052,7 @@
         <v>338</v>
       </c>
       <c r="B109" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -4063,7 +4066,7 @@
         <v>338</v>
       </c>
       <c r="B110" t="s">
-        <v>387</v>
+        <v>475</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -4077,7 +4080,7 @@
         <v>338</v>
       </c>
       <c r="B111" t="s">
-        <v>388</v>
+        <v>476</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -4091,7 +4094,7 @@
         <v>338</v>
       </c>
       <c r="B112" t="s">
-        <v>389</v>
+        <v>477</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -4105,7 +4108,7 @@
         <v>338</v>
       </c>
       <c r="B113" t="s">
-        <v>390</v>
+        <v>478</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -4119,7 +4122,7 @@
         <v>338</v>
       </c>
       <c r="B114" t="s">
-        <v>391</v>
+        <v>479</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -4133,7 +4136,7 @@
         <v>338</v>
       </c>
       <c r="B115" t="s">
-        <v>392</v>
+        <v>480</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -4147,7 +4150,7 @@
         <v>338</v>
       </c>
       <c r="B116" t="s">
-        <v>393</v>
+        <v>481</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -4161,7 +4164,7 @@
         <v>338</v>
       </c>
       <c r="B117" t="s">
-        <v>394</v>
+        <v>482</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -4175,7 +4178,7 @@
         <v>338</v>
       </c>
       <c r="B118" t="s">
-        <v>395</v>
+        <v>483</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -4189,7 +4192,7 @@
         <v>338</v>
       </c>
       <c r="B119" t="s">
-        <v>396</v>
+        <v>484</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -4203,7 +4206,7 @@
         <v>338</v>
       </c>
       <c r="B120" t="s">
-        <v>397</v>
+        <v>485</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -4217,7 +4220,7 @@
         <v>338</v>
       </c>
       <c r="B121" t="s">
-        <v>398</v>
+        <v>486</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -4231,7 +4234,7 @@
         <v>338</v>
       </c>
       <c r="B122" t="s">
-        <v>399</v>
+        <v>487</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -4245,7 +4248,7 @@
         <v>338</v>
       </c>
       <c r="B123" t="s">
-        <v>400</v>
+        <v>488</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -4259,7 +4262,7 @@
         <v>338</v>
       </c>
       <c r="B124" t="s">
-        <v>401</v>
+        <v>489</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -4273,7 +4276,7 @@
         <v>338</v>
       </c>
       <c r="B125" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -4287,7 +4290,7 @@
         <v>338</v>
       </c>
       <c r="B126" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -4301,7 +4304,7 @@
         <v>338</v>
       </c>
       <c r="B127" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -4315,7 +4318,7 @@
         <v>338</v>
       </c>
       <c r="B128" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -4329,7 +4332,7 @@
         <v>338</v>
       </c>
       <c r="B129" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -4343,7 +4346,7 @@
         <v>338</v>
       </c>
       <c r="B130" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -4357,7 +4360,7 @@
         <v>338</v>
       </c>
       <c r="B131" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -4371,7 +4374,7 @@
         <v>338</v>
       </c>
       <c r="B132" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -4399,7 +4402,7 @@
         <v>338</v>
       </c>
       <c r="B134" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -4413,7 +4416,7 @@
         <v>338</v>
       </c>
       <c r="B135" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -4427,7 +4430,7 @@
         <v>338</v>
       </c>
       <c r="B136" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -4441,7 +4444,7 @@
         <v>338</v>
       </c>
       <c r="B137" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -4455,7 +4458,7 @@
         <v>338</v>
       </c>
       <c r="B138" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -4469,7 +4472,7 @@
         <v>338</v>
       </c>
       <c r="B139" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -4483,7 +4486,7 @@
         <v>338</v>
       </c>
       <c r="B140" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -4497,7 +4500,7 @@
         <v>338</v>
       </c>
       <c r="B141" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -4511,7 +4514,7 @@
         <v>338</v>
       </c>
       <c r="B142" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -4525,7 +4528,7 @@
         <v>338</v>
       </c>
       <c r="B143" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -4539,7 +4542,7 @@
         <v>338</v>
       </c>
       <c r="B144" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -4553,7 +4556,7 @@
         <v>338</v>
       </c>
       <c r="B145" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -4567,7 +4570,7 @@
         <v>338</v>
       </c>
       <c r="B146" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -4581,7 +4584,7 @@
         <v>338</v>
       </c>
       <c r="B147" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -4595,7 +4598,7 @@
         <v>338</v>
       </c>
       <c r="B148" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -4609,7 +4612,7 @@
         <v>338</v>
       </c>
       <c r="B149" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -4623,7 +4626,7 @@
         <v>338</v>
       </c>
       <c r="B150" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -4637,7 +4640,7 @@
         <v>338</v>
       </c>
       <c r="B151" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -4651,7 +4654,7 @@
         <v>338</v>
       </c>
       <c r="B152" t="s">
-        <v>428</v>
+        <v>383</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -4665,7 +4668,7 @@
         <v>338</v>
       </c>
       <c r="B153" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -4679,7 +4682,7 @@
         <v>338</v>
       </c>
       <c r="B154" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -4693,7 +4696,7 @@
         <v>338</v>
       </c>
       <c r="B155" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -4707,7 +4710,7 @@
         <v>338</v>
       </c>
       <c r="B156" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -4721,7 +4724,7 @@
         <v>338</v>
       </c>
       <c r="B157" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -4735,7 +4738,7 @@
         <v>338</v>
       </c>
       <c r="B158" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -4749,7 +4752,7 @@
         <v>338</v>
       </c>
       <c r="B159" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -4763,7 +4766,7 @@
         <v>338</v>
       </c>
       <c r="B160" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -4777,7 +4780,7 @@
         <v>338</v>
       </c>
       <c r="B161" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -4791,7 +4794,7 @@
         <v>338</v>
       </c>
       <c r="B162" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -4805,7 +4808,7 @@
         <v>338</v>
       </c>
       <c r="B163" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -4819,7 +4822,7 @@
         <v>338</v>
       </c>
       <c r="B164" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -4833,7 +4836,7 @@
         <v>338</v>
       </c>
       <c r="B165" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -4847,7 +4850,7 @@
         <v>338</v>
       </c>
       <c r="B166" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -4861,7 +4864,7 @@
         <v>338</v>
       </c>
       <c r="B167" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -4875,7 +4878,7 @@
         <v>338</v>
       </c>
       <c r="B168" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -4889,7 +4892,7 @@
         <v>338</v>
       </c>
       <c r="B169" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -4903,7 +4906,7 @@
         <v>338</v>
       </c>
       <c r="B170" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -4917,7 +4920,7 @@
         <v>338</v>
       </c>
       <c r="B171" t="s">
-        <v>447</v>
+        <v>402</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -4931,7 +4934,7 @@
         <v>338</v>
       </c>
       <c r="B172" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -4945,7 +4948,7 @@
         <v>338</v>
       </c>
       <c r="B173" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -4959,7 +4962,7 @@
         <v>338</v>
       </c>
       <c r="B174" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -4973,7 +4976,7 @@
         <v>338</v>
       </c>
       <c r="B175" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -4987,7 +4990,7 @@
         <v>338</v>
       </c>
       <c r="B176" t="s">
-        <v>452</v>
+        <v>407</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -5001,7 +5004,7 @@
         <v>338</v>
       </c>
       <c r="B177" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -5015,7 +5018,7 @@
         <v>338</v>
       </c>
       <c r="B178" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -5029,7 +5032,7 @@
         <v>338</v>
       </c>
       <c r="B179" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -5043,7 +5046,7 @@
         <v>338</v>
       </c>
       <c r="B180" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -5057,7 +5060,7 @@
         <v>338</v>
       </c>
       <c r="B181" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -5071,7 +5074,7 @@
         <v>338</v>
       </c>
       <c r="B182" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -5085,7 +5088,7 @@
         <v>338</v>
       </c>
       <c r="B183" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -5099,7 +5102,7 @@
         <v>338</v>
       </c>
       <c r="B184" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -5113,7 +5116,7 @@
         <v>338</v>
       </c>
       <c r="B185" t="s">
-        <v>461</v>
+        <v>416</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -5127,7 +5130,7 @@
         <v>338</v>
       </c>
       <c r="B186" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -5141,7 +5144,7 @@
         <v>338</v>
       </c>
       <c r="B187" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -5155,7 +5158,7 @@
         <v>338</v>
       </c>
       <c r="B188" t="s">
-        <v>464</v>
+        <v>419</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -5169,7 +5172,7 @@
         <v>338</v>
       </c>
       <c r="B189" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -5183,7 +5186,7 @@
         <v>338</v>
       </c>
       <c r="B190" t="s">
-        <v>466</v>
+        <v>421</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -5197,7 +5200,7 @@
         <v>338</v>
       </c>
       <c r="B191" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -5211,7 +5214,7 @@
         <v>338</v>
       </c>
       <c r="B192" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -5225,7 +5228,7 @@
         <v>338</v>
       </c>
       <c r="B193" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -5236,10 +5239,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="B194" t="s">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -5253,10 +5256,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="B195" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -5270,10 +5273,10 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="B196" t="s">
-        <v>473</v>
+        <v>428</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -5287,9 +5290,9 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>474</v>
-      </c>
-      <c r="B197" t="s">
+        <v>429</v>
+      </c>
+      <c r="B197" s="3" t="s">
         <v>286</v>
       </c>
       <c r="C197">
@@ -5304,10 +5307,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>474</v>
-      </c>
-      <c r="B198" t="s">
-        <v>475</v>
+        <v>429</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>430</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -5321,10 +5324,10 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="B199" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -5338,10 +5341,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="B200" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -5355,10 +5358,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="B201" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -5372,10 +5375,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="B202" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -5389,10 +5392,10 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="B203" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -5406,10 +5409,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="B204" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -5423,10 +5426,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -5441,10 +5444,10 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -5459,10 +5462,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
       <c r="B207" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -5476,7 +5479,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>282</v>
@@ -5494,10 +5497,10 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
       <c r="C209" s="3">
         <v>0</v>
@@ -5512,10 +5515,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
       <c r="B210" t="s">
-        <v>487</v>
+        <v>442</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -5529,10 +5532,10 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
       <c r="B211" t="s">
-        <v>488</v>
+        <v>443</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -5546,10 +5549,10 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>482</v>
-      </c>
-      <c r="B212" t="s">
-        <v>489</v>
+        <v>437</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -5563,10 +5566,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>490</v>
+        <v>445</v>
       </c>
       <c r="C213" s="3">
         <v>0</v>
@@ -5581,10 +5584,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="C214" s="3">
         <v>0</v>
@@ -5599,10 +5602,10 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>482</v>
-      </c>
-      <c r="B215" t="s">
-        <v>492</v>
+        <v>437</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -5616,10 +5619,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>482</v>
-      </c>
-      <c r="B216" t="s">
-        <v>493</v>
+        <v>437</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -5636,7 +5639,7 @@
         <v>338</v>
       </c>
       <c r="B217" t="s">
-        <v>494</v>
+        <v>449</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -5653,7 +5656,7 @@
         <v>338</v>
       </c>
       <c r="B218" t="s">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -5667,7 +5670,7 @@
         <v>338</v>
       </c>
       <c r="B219" t="s">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -5681,14 +5684,14 @@
         <v>338</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>502</v>
+        <v>457</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2" t="s">
-        <v>497</v>
+        <v>452</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -5696,14 +5699,14 @@
         <v>338</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>503</v>
+        <v>458</v>
       </c>
       <c r="C221" s="2">
         <v>0</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2" t="s">
-        <v>498</v>
+        <v>453</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -5711,14 +5714,14 @@
         <v>338</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>504</v>
+        <v>459</v>
       </c>
       <c r="C222" s="2">
         <v>0</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2" t="s">
-        <v>499</v>
+        <v>454</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -5726,14 +5729,14 @@
         <v>338</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="C223" s="2">
         <v>0</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -5741,19 +5744,20 @@
         <v>338</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>506</v>
+        <v>461</v>
       </c>
       <c r="C224" s="2">
         <v>0</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState ref="B2:F214">
+  <autoFilter ref="A1:F224"/>
+  <sortState ref="A2:B224">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="509">
   <si>
     <t>name</t>
   </si>
@@ -1552,6 +1552,12 @@
   </si>
   <si>
     <t>administrators.title</t>
+  </si>
+  <si>
+    <t>backToIndex</t>
+  </si>
+  <si>
+    <t>Terug naar overzicht</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1607,6 +1613,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2387,11 +2394,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA224"/>
+  <dimension ref="A1:AA225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B195" sqref="B195"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A225" sqref="A225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5754,6 +5761,20 @@
         <v>456</v>
       </c>
     </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>338</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C225" s="6">
+        <v>0</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:F224"/>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27715"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandedeyne/Sites/blender/database/seeds/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willem/Sites/blender/database/seeds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="25600" windowHeight="21060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="511">
   <si>
     <t>name</t>
   </si>
@@ -1558,6 +1558,12 @@
   </si>
   <si>
     <t>Terug naar overzicht</t>
+  </si>
+  <si>
+    <t>auth.frontLink</t>
+  </si>
+  <si>
+    <t>Publieke site</t>
   </si>
 </sst>
 </file>
@@ -2394,11 +2400,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA225"/>
+  <dimension ref="A1:AA226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A225" sqref="A225"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5775,6 +5781,20 @@
         <v>508</v>
       </c>
     </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>338</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C226" s="6">
+        <v>0</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:F224"/>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -2403,8 +2403,8 @@
   <dimension ref="A1:AA226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27907"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
     <sheet name="hidden" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">hidden!$A$1:$F$224</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">hidden!$A$1:$F$215</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="487">
   <si>
     <t>name</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Naam</t>
   </si>
   <si>
-    <t>Ce lien est valable jusqu'au</t>
-  </si>
-  <si>
     <t>Je bent nu uitgelogd.</t>
   </si>
   <si>
@@ -219,30 +216,6 @@
     <t>auth.passwordConfirm</t>
   </si>
   <si>
-    <t>Beste</t>
-  </si>
-  <si>
-    <t>Che(è)r(e)</t>
-  </si>
-  <si>
-    <t>Je hebt toegang gekregen tot</t>
-  </si>
-  <si>
-    <t>Deze link is geldig tot</t>
-  </si>
-  <si>
-    <t>Nous avons reçu une demande de changer votre mot de passe</t>
-  </si>
-  <si>
-    <t>Dans le cas où vous avez fait la demande noot une réinitialisation de mot de passe , ignorez ce e-mail.</t>
-  </si>
-  <si>
-    <t>Wachtwoord wijzigen</t>
-  </si>
-  <si>
-    <t>Changer le mot de passe</t>
-  </si>
-  <si>
     <t>Wachtwoord instellen</t>
   </si>
   <si>
@@ -726,18 +699,6 @@
     <t>Terug naar login</t>
   </si>
   <si>
-    <t>Uw wachtwoord op</t>
-  </si>
-  <si>
-    <t>Accès à</t>
-  </si>
-  <si>
-    <t>Votre mot de passe sur</t>
-  </si>
-  <si>
-    <t>Toegang tot</t>
-  </si>
-  <si>
     <t>De reacties worden standaard gemaild naar &lt;strong&gt;:recipients&lt;/strong&gt;. Download hier de backup van alle reacties als .xlsx-bestand (Excel).</t>
   </si>
   <si>
@@ -762,12 +723,6 @@
     <t>Uitloggen</t>
   </si>
   <si>
-    <t>We ontvingen je vraag om je wachtwoord te wijzigen op</t>
-  </si>
-  <si>
-    <t>Was het een foutieve aanvraag? Negeer dan deze e-mail, je oude wachtwoord blijft gewoon werken.</t>
-  </si>
-  <si>
     <t>Profielen</t>
   </si>
   <si>
@@ -969,27 +924,6 @@
     <t>passwordConfirm</t>
   </si>
   <si>
-    <t>passwordMail.compellation</t>
-  </si>
-  <si>
-    <t>passwordMail.linkValidUntil</t>
-  </si>
-  <si>
-    <t>passwordMail.newUser.intro</t>
-  </si>
-  <si>
-    <t>passwordMail.newUser.resetButton</t>
-  </si>
-  <si>
-    <t>passwordMail.oldUser.intro</t>
-  </si>
-  <si>
-    <t>passwordMail.oldUser.outro</t>
-  </si>
-  <si>
-    <t>passwordMail.oldUser.resetButton</t>
-  </si>
-  <si>
     <t>register</t>
   </si>
   <si>
@@ -1327,12 +1261,6 @@
   </si>
   <si>
     <t>sent</t>
-  </si>
-  <si>
-    <t>subjectEmail</t>
-  </si>
-  <si>
-    <t>subjectEmailNewUser</t>
   </si>
   <si>
     <t>throttle</t>
@@ -1926,7 +1854,7 @@
   </sheetPr>
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
@@ -1943,10 +1871,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1984,10 +1912,10 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2001,10 +1929,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2018,10 +1946,10 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2035,10 +1963,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2052,10 +1980,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2069,10 +1997,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2086,10 +2014,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2103,10 +2031,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2120,10 +2048,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2137,10 +2065,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2154,10 +2082,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2171,10 +2099,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2188,10 +2116,10 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2205,10 +2133,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" t="s">
         <v>274</v>
-      </c>
-      <c r="B15" t="s">
-        <v>289</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2222,10 +2150,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2239,29 +2167,29 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B17" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="E17" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E18" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -2270,119 +2198,119 @@
         <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B20" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B21" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E21" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="F21" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="E22" t="s">
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="E24" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="F24" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="E25" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="F25" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E26" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F26" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="E27" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="F27" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.2">
@@ -2400,11 +2328,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA226"/>
+  <dimension ref="A1:AA217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2419,10 +2347,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2460,10 +2388,10 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2474,10 +2402,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2491,10 +2419,10 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2505,10 +2433,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2519,10 +2447,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2536,10 +2464,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2550,10 +2478,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2564,10 +2492,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2581,10 +2509,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2598,10 +2526,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2612,109 +2540,109 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B12" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
         <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B13" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
         <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B14" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B16" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
         <v>54</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B17" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
         <v>56</v>
-      </c>
-      <c r="F17" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B18" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2725,27 +2653,27 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B19" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
         <v>59</v>
-      </c>
-      <c r="F19" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B20" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2759,10 +2687,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2770,33 +2698,27 @@
       <c r="E21" t="s">
         <v>62</v>
       </c>
-      <c r="F21" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B22" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" t="s">
         <v>298</v>
-      </c>
-      <c r="B23" t="s">
-        <v>314</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2804,259 +2726,268 @@
       <c r="E23" t="s">
         <v>64</v>
       </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B25" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B26" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>244</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="F28" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>80</v>
+      </c>
+      <c r="F29" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s">
         <v>75</v>
-      </c>
-      <c r="F31" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F36" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B37" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B38" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B39" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3070,2066 +3001,2048 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B40" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="F40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B41" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
+        <v>95</v>
+      </c>
+      <c r="F41" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B42" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
-      </c>
-      <c r="F44" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B46" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>100</v>
-      </c>
-      <c r="F46" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B47" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B49" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B50" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B51" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B52" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B53" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B54" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B55" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s">
-        <v>346</v>
+        <v>39</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s">
-        <v>347</v>
+        <v>41</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s">
-        <v>348</v>
+        <v>49</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>264</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B59" t="s">
-        <v>349</v>
+        <v>57</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B60" t="s">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B61" t="s">
-        <v>351</v>
+        <v>68</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B62" t="s">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>24</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>338</v>
-      </c>
-      <c r="B67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="E67" t="s">
-        <v>26</v>
+        <v>316</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>338</v>
-      </c>
-      <c r="B68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="E68" t="s">
-        <v>78</v>
+        <v>316</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>467</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>468</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>469</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>470</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>236</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>338</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C74" s="3">
-        <v>0</v>
-      </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3" t="s">
-        <v>89</v>
+        <v>316</v>
+      </c>
+      <c r="B74" t="s">
+        <v>471</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>338</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" s="3">
-        <v>0</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3" t="s">
-        <v>230</v>
+        <v>316</v>
+      </c>
+      <c r="B75" t="s">
+        <v>472</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B76" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B77" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B78" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B79" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B80" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B81" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B82" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B83" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B84" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B85" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B86" t="s">
-        <v>500</v>
+        <v>331</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B87" t="s">
-        <v>501</v>
+        <v>332</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>24</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B88" t="s">
-        <v>502</v>
+        <v>333</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B89" t="s">
-        <v>503</v>
+        <v>334</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B90" t="s">
-        <v>504</v>
+        <v>335</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B91" t="s">
-        <v>505</v>
+        <v>336</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B92" t="s">
-        <v>506</v>
+        <v>337</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>316</v>
+      </c>
+      <c r="B93" t="s">
         <v>338</v>
       </c>
-      <c r="B93" t="s">
-        <v>353</v>
-      </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B94" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>237</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B95" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B96" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B97" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B98" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B99" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B100" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B101" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B102" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>235</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B103" t="s">
-        <v>363</v>
+        <v>451</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B104" t="s">
-        <v>364</v>
+        <v>452</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B105" t="s">
-        <v>365</v>
+        <v>453</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B106" t="s">
-        <v>366</v>
+        <v>454</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B107" t="s">
-        <v>367</v>
+        <v>455</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B108" t="s">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B109" t="s">
-        <v>369</v>
+        <v>457</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B110" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B111" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B112" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B113" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B114" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B115" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B116" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B117" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B118" t="s">
-        <v>483</v>
+        <v>348</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B119" t="s">
-        <v>484</v>
+        <v>349</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B120" t="s">
-        <v>485</v>
+        <v>350</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B121" t="s">
-        <v>486</v>
+        <v>351</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B122" t="s">
-        <v>487</v>
+        <v>352</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B123" t="s">
-        <v>488</v>
+        <v>353</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B124" t="s">
-        <v>489</v>
+        <v>354</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B125" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B126" t="s">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B127" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>151</v>
+        <v>228</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B128" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B129" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B130" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B131" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B132" t="s">
-        <v>377</v>
+        <v>438</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B133" t="s">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B134" t="s">
-        <v>378</v>
+        <v>440</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>241</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B135" t="s">
-        <v>379</v>
+        <v>441</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B136" t="s">
-        <v>380</v>
+        <v>442</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B137" t="s">
-        <v>381</v>
+        <v>443</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>246</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B138" t="s">
-        <v>382</v>
+        <v>444</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>240</v>
+        <v>103</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B139" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B140" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B141" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B142" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B143" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="C143">
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B144" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B145" t="s">
-        <v>468</v>
+        <v>361</v>
       </c>
       <c r="C145">
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B146" t="s">
-        <v>469</v>
+        <v>362</v>
       </c>
       <c r="C146">
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B147" t="s">
-        <v>470</v>
+        <v>363</v>
       </c>
       <c r="C147">
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>264</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B148" t="s">
-        <v>471</v>
+        <v>364</v>
       </c>
       <c r="C148">
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B149" t="s">
-        <v>472</v>
+        <v>365</v>
       </c>
       <c r="C149">
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B150" t="s">
-        <v>473</v>
+        <v>366</v>
       </c>
       <c r="C150">
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B151" t="s">
-        <v>474</v>
+        <v>367</v>
       </c>
       <c r="C151">
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B152" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C152">
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B153" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="C153">
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B154" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="C154">
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B155" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="C155">
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B156" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C156">
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B157" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="C157">
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B158" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B159" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B160" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B161" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="C161">
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B162" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B163" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C163">
         <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B164" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>262</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B165" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="C165">
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B166" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="C166">
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B167" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C167">
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B168" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="C168">
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B169" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="C169">
         <v>0</v>
       </c>
       <c r="E169" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B170" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C170">
         <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B171" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="C171">
         <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B172" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C172">
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B173" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="C173">
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B174" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C174">
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B175" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="C175">
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B176" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C176">
         <v>0</v>
       </c>
       <c r="E176" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>316</v>
+      </c>
+      <c r="B177" t="s">
+        <v>393</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>316</v>
+      </c>
+      <c r="B178" t="s">
+        <v>394</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="E178" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>316</v>
+      </c>
+      <c r="B179" t="s">
+        <v>395</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="E179" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>316</v>
+      </c>
+      <c r="B180" t="s">
+        <v>396</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>316</v>
+      </c>
+      <c r="B181" t="s">
+        <v>397</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="E181" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>316</v>
+      </c>
+      <c r="B182" t="s">
+        <v>398</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="E182" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>338</v>
-      </c>
-      <c r="B177" t="s">
-        <v>408</v>
-      </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-      <c r="E177" t="s">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>316</v>
+      </c>
+      <c r="B183" t="s">
+        <v>399</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="E183" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>338</v>
-      </c>
-      <c r="B178" t="s">
-        <v>409</v>
-      </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-      <c r="E178" t="s">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>316</v>
+      </c>
+      <c r="B184" t="s">
+        <v>400</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="E184" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>338</v>
-      </c>
-      <c r="B179" t="s">
-        <v>410</v>
-      </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
-      <c r="E179" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>338</v>
-      </c>
-      <c r="B180" t="s">
-        <v>411</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-      <c r="E180" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>338</v>
-      </c>
-      <c r="B181" t="s">
-        <v>412</v>
-      </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-      <c r="E181" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>338</v>
-      </c>
-      <c r="B182" t="s">
-        <v>413</v>
-      </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-      <c r="E182" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>338</v>
-      </c>
-      <c r="B183" t="s">
-        <v>414</v>
-      </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-      <c r="E183" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>338</v>
-      </c>
-      <c r="B184" t="s">
-        <v>415</v>
-      </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-      <c r="E184" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B185" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -5138,82 +5051,94 @@
         <v>112</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B186" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="C186">
         <v>0</v>
       </c>
       <c r="E186" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>403</v>
+      </c>
+      <c r="B187" t="s">
+        <v>404</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="E187" t="s">
+        <v>182</v>
+      </c>
+      <c r="F187" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>403</v>
+      </c>
+      <c r="B188" t="s">
+        <v>405</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="E188" t="s">
+        <v>184</v>
+      </c>
+      <c r="F188" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>403</v>
+      </c>
+      <c r="B189" t="s">
+        <v>406</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="E189" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>338</v>
-      </c>
-      <c r="B187" t="s">
-        <v>418</v>
-      </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-      <c r="E187" t="s">
+      <c r="F189" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>338</v>
-      </c>
-      <c r="B188" t="s">
-        <v>419</v>
-      </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-      <c r="E188" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>338</v>
-      </c>
-      <c r="B189" t="s">
-        <v>420</v>
-      </c>
-      <c r="C189">
-        <v>0</v>
-      </c>
-      <c r="E189" t="s">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>407</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="E190" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>338</v>
-      </c>
-      <c r="B190" t="s">
-        <v>421</v>
-      </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-      <c r="E190" t="s">
+      <c r="F190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>338</v>
-      </c>
-      <c r="B191" t="s">
-        <v>422</v>
+        <v>407</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -5221,583 +5146,439 @@
       <c r="E191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F191" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="B192" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="C192">
         <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>121</v>
+        <v>192</v>
+      </c>
+      <c r="F192" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="B193" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="C193">
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>124</v>
+        <v>194</v>
+      </c>
+      <c r="F193" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="B194" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="C194">
         <v>0</v>
       </c>
       <c r="E194" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F194" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="B195" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="C195">
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F195" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>425</v>
-      </c>
-      <c r="B196" t="s">
-        <v>428</v>
-      </c>
-      <c r="C196">
-        <v>0</v>
-      </c>
-      <c r="E196" t="s">
-        <v>195</v>
+        <v>413</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C196" s="2">
+        <v>0</v>
+      </c>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="F196" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>429</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C197">
-        <v>0</v>
-      </c>
-      <c r="E197" t="s">
-        <v>197</v>
+        <v>413</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C197" s="2">
+        <v>0</v>
+      </c>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="F197" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>429</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>430</v>
+        <v>413</v>
+      </c>
+      <c r="B198" t="s">
+        <v>416</v>
       </c>
       <c r="C198">
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F198" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>429</v>
-      </c>
-      <c r="B199" t="s">
-        <v>431</v>
-      </c>
-      <c r="C199">
-        <v>0</v>
-      </c>
-      <c r="E199" t="s">
-        <v>201</v>
+        <v>413</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C199" s="3">
+        <v>0</v>
+      </c>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="F199" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>429</v>
-      </c>
-      <c r="B200" t="s">
-        <v>432</v>
-      </c>
-      <c r="C200">
-        <v>0</v>
-      </c>
-      <c r="E200" t="s">
-        <v>231</v>
+        <v>413</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C200" s="3">
+        <v>0</v>
+      </c>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="F200" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B201" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="C201">
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="F201" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B202" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="C202">
         <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F202" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>429</v>
-      </c>
-      <c r="B203" t="s">
-        <v>435</v>
+        <v>413</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="C203">
         <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F203" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>429</v>
-      </c>
-      <c r="B204" t="s">
-        <v>436</v>
-      </c>
-      <c r="C204">
-        <v>0</v>
-      </c>
-      <c r="E204" t="s">
-        <v>207</v>
+        <v>413</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C204" s="3">
+        <v>0</v>
+      </c>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="F204" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>437</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C205" s="2">
-        <v>0</v>
-      </c>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2" t="s">
-        <v>209</v>
+        <v>413</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C205" s="3">
+        <v>0</v>
+      </c>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="F205" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>437</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C206" s="2">
-        <v>0</v>
-      </c>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2" t="s">
-        <v>211</v>
+        <v>413</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="E206" t="s">
+        <v>217</v>
       </c>
       <c r="F206" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>437</v>
-      </c>
-      <c r="B207" t="s">
-        <v>440</v>
+        <v>413</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>424</v>
       </c>
       <c r="C207">
         <v>0</v>
       </c>
       <c r="E207" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="F207" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>316</v>
+      </c>
+      <c r="B208" t="s">
+        <v>425</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="E208" t="s">
+        <v>248</v>
+      </c>
+      <c r="F208" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>316</v>
+      </c>
+      <c r="B209" t="s">
+        <v>426</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="E209" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>316</v>
+      </c>
+      <c r="B210" t="s">
+        <v>427</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="E210" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>316</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C211" s="2">
+        <v>0</v>
+      </c>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>316</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C212" s="2">
+        <v>0</v>
+      </c>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>316</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C213" s="2">
+        <v>0</v>
+      </c>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>316</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C214" s="2">
+        <v>0</v>
+      </c>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>316</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B208" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C208" s="3">
-        <v>0</v>
-      </c>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F208" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>437</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C209" s="3">
-        <v>0</v>
-      </c>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F209" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>437</v>
-      </c>
-      <c r="B210" t="s">
-        <v>442</v>
-      </c>
-      <c r="C210">
-        <v>0</v>
-      </c>
-      <c r="E210" t="s">
-        <v>218</v>
-      </c>
-      <c r="F210" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>437</v>
-      </c>
-      <c r="B211" t="s">
-        <v>443</v>
-      </c>
-      <c r="C211">
-        <v>0</v>
-      </c>
-      <c r="E211" t="s">
-        <v>220</v>
-      </c>
-      <c r="F211" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>437</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C212">
-        <v>0</v>
-      </c>
-      <c r="E212" t="s">
-        <v>222</v>
-      </c>
-      <c r="F212" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>437</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C213" s="3">
-        <v>0</v>
-      </c>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F213" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>437</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C214" s="3">
-        <v>0</v>
-      </c>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F214" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>437</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C215">
-        <v>0</v>
-      </c>
-      <c r="E215" t="s">
-        <v>226</v>
-      </c>
-      <c r="F215" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C215" s="2">
+        <v>0</v>
+      </c>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>437</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C216">
-        <v>0</v>
-      </c>
-      <c r="E216" t="s">
-        <v>228</v>
-      </c>
-      <c r="F216" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C216" s="6">
+        <v>0</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>338</v>
-      </c>
-      <c r="B217" t="s">
-        <v>449</v>
-      </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
-      <c r="E217" t="s">
-        <v>263</v>
-      </c>
-      <c r="F217" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>338</v>
-      </c>
-      <c r="B218" t="s">
-        <v>450</v>
-      </c>
-      <c r="C218">
-        <v>0</v>
-      </c>
-      <c r="E218" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>338</v>
-      </c>
-      <c r="B219" t="s">
-        <v>451</v>
-      </c>
-      <c r="C219">
-        <v>0</v>
-      </c>
-      <c r="E219" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>338</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C220" s="2">
-        <v>0</v>
-      </c>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>338</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C221" s="2">
-        <v>0</v>
-      </c>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>338</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C222" s="2">
-        <v>0</v>
-      </c>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>338</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C223" s="2">
-        <v>0</v>
-      </c>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>338</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C224" s="2">
-        <v>0</v>
-      </c>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>338</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="C225" s="6">
-        <v>0</v>
-      </c>
-      <c r="E225" s="6" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>338</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="C226" s="6">
-        <v>0</v>
-      </c>
-      <c r="E226" s="6" t="s">
-        <v>510</v>
+        <v>316</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C217" s="6">
+        <v>0</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:F224"/>
+  <autoFilter ref="A1:F215"/>
   <sortState ref="A2:B224">
     <sortCondition ref="B2"/>
   </sortState>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27715"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willem/Sites/blender/database/seeds/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freek/dev/sites/blender/database/seeds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27200"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="490">
   <si>
     <t>name</t>
   </si>
@@ -1492,13 +1492,22 @@
   </si>
   <si>
     <t>Publieke site</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>googleMyBusinessUrl</t>
+  </si>
+  <si>
+    <t>fax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1508,6 +1517,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1535,10 +1550,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1548,8 +1564,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1856,7 +1875,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2313,7 +2332,122 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="4"/>
     </row>
   </sheetData>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="27200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="491">
   <si>
     <t>name</t>
   </si>
@@ -1501,6 +1501,9 @@
   </si>
   <si>
     <t>fax</t>
+  </si>
+  <si>
+    <t>passwordMail.oldUser.resetButton</t>
   </si>
 </sst>
 </file>
@@ -1873,9 +1876,9 @@
   </sheetPr>
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2462,11 +2465,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA217"/>
+  <dimension ref="A1:AA218"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD194"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5710,6 +5713,20 @@
         <v>486</v>
       </c>
     </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>283</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C218" s="6">
+        <v>0</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:F215"/>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27309"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freek/dev/sites/blender/database/seeds/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandedeyne/Sites/blender/database/seeds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27200"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="21080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
     <sheet name="hidden" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">hidden!$A$1:$F$215</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">hidden!$A$1:$F$214</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="488">
   <si>
     <t>name</t>
   </si>
@@ -534,9 +534,6 @@
     <t>Er zijn nog geen gegevens beschikbaar.</t>
   </si>
   <si>
-    <t>Analytics is nog niet geconfigureerd.</t>
-  </si>
-  <si>
     <t>Aantal bezoekers</t>
   </si>
   <si>
@@ -1177,9 +1174,6 @@
   </si>
   <si>
     <t>statistics.noData</t>
-  </si>
-  <si>
-    <t>statistics.notConfigured</t>
   </si>
   <si>
     <t>statistics.numberOfVisitors</t>
@@ -1873,7 +1867,7 @@
   </sheetPr>
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
@@ -1890,10 +1884,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1931,10 +1925,10 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1948,10 +1942,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1965,10 +1959,10 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1982,10 +1976,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1999,10 +1993,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2016,10 +2010,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2033,10 +2027,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2050,10 +2044,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2067,10 +2061,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2084,10 +2078,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2101,10 +2095,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2118,10 +2112,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2135,10 +2129,10 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2152,10 +2146,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2169,10 +2163,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2186,29 +2180,29 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -2217,124 +2211,124 @@
         <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E22" t="s">
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E23" t="s">
         <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E26" t="s">
+        <v>243</v>
+      </c>
+      <c r="F26" t="s">
         <v>244</v>
-      </c>
-      <c r="F26" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
@@ -2347,10 +2341,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -2360,10 +2354,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -2373,10 +2367,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -2386,10 +2380,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
@@ -2399,10 +2393,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -2412,10 +2406,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
@@ -2425,10 +2419,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -2438,10 +2432,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -2462,11 +2456,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA217"/>
+  <dimension ref="A1:AA216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD194"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2481,10 +2475,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2522,10 +2516,10 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2536,10 +2530,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" t="s">
         <v>283</v>
-      </c>
-      <c r="B3" t="s">
-        <v>284</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2553,10 +2547,10 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2567,10 +2561,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2581,10 +2575,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2598,10 +2592,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2612,10 +2606,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2626,10 +2620,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2643,10 +2637,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2660,10 +2654,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2674,10 +2668,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2691,10 +2685,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2708,24 +2702,24 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2739,10 +2733,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2756,10 +2750,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2773,10 +2767,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2787,10 +2781,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2804,10 +2798,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2821,10 +2815,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2835,10 +2829,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2849,10 +2843,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2866,10 +2860,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2883,10 +2877,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2900,10 +2894,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2917,10 +2911,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2934,10 +2928,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2951,10 +2945,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2968,10 +2962,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2985,10 +2979,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -3002,10 +2996,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -3019,10 +3013,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3036,10 +3030,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3050,10 +3044,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3067,10 +3061,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3084,10 +3078,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -3101,10 +3095,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -3118,10 +3112,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3135,10 +3129,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -3152,10 +3146,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -3169,10 +3163,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>315</v>
+      </c>
+      <c r="B42" t="s">
         <v>316</v>
-      </c>
-      <c r="B42" t="s">
-        <v>317</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3183,10 +3177,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3197,10 +3191,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -3211,10 +3205,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3225,10 +3219,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B46" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3239,10 +3233,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3253,10 +3247,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -3267,10 +3261,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -3281,10 +3275,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B50" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3295,24 +3289,24 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B52" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3323,10 +3317,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B53" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -3337,10 +3331,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B54" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -3351,10 +3345,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3365,7 +3359,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -3379,7 +3373,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B57" t="s">
         <v>41</v>
@@ -3393,7 +3387,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B58" t="s">
         <v>49</v>
@@ -3407,7 +3401,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
@@ -3421,7 +3415,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
@@ -3435,7 +3429,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B61" t="s">
         <v>68</v>
@@ -3449,7 +3443,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B62" t="s">
         <v>73</v>
@@ -3463,7 +3457,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B63" t="s">
         <v>76</v>
@@ -3477,7 +3471,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B64" t="s">
         <v>79</v>
@@ -3491,7 +3485,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B65" t="s">
         <v>85</v>
@@ -3505,7 +3499,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B66" t="s">
         <v>86</v>
@@ -3514,12 +3508,12 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>87</v>
@@ -3534,7 +3528,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>88</v>
@@ -3544,15 +3538,15 @@
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B69" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3563,10 +3557,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B70" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3577,10 +3571,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B71" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -3591,10 +3585,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B72" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -3605,10 +3599,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B73" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -3619,10 +3613,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B74" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3633,10 +3627,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B75" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -3647,10 +3641,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B76" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3661,10 +3655,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B77" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -3675,10 +3669,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B78" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3689,10 +3683,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B79" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3703,10 +3697,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B80" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3717,10 +3711,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B81" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3731,10 +3725,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B82" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3745,10 +3739,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B83" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -3759,10 +3753,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B84" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -3773,10 +3767,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B85" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -3787,10 +3781,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B86" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3801,24 +3795,24 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B87" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B88" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3829,10 +3823,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B89" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3843,10 +3837,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B90" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3857,10 +3851,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B91" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3871,10 +3865,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B92" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3885,10 +3879,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B93" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3899,10 +3893,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B94" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -3913,24 +3907,24 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B95" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B96" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -3941,10 +3935,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B97" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -3955,24 +3949,24 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B98" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B99" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -3983,10 +3977,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B100" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -3997,10 +3991,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B101" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -4011,10 +4005,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B102" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -4025,10 +4019,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B103" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -4039,10 +4033,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B104" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -4053,10 +4047,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B105" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -4067,10 +4061,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B106" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -4081,10 +4075,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B107" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -4095,10 +4089,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B108" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -4109,10 +4103,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B109" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -4123,10 +4117,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B110" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -4137,10 +4131,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B111" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -4151,10 +4145,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B112" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -4165,10 +4159,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B113" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -4179,10 +4173,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B114" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -4193,10 +4187,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B115" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -4207,10 +4201,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B116" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -4221,10 +4215,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B117" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -4235,10 +4229,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B118" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -4249,10 +4243,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B119" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -4263,10 +4257,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B120" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -4277,10 +4271,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B121" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -4291,10 +4285,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B122" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -4305,10 +4299,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B123" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -4319,24 +4313,24 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B124" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B125" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -4347,7 +4341,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B126" t="s">
         <v>0</v>
@@ -4361,24 +4355,24 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B127" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B128" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -4389,52 +4383,52 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B129" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B130" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B131" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B132" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -4445,10 +4439,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B133" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -4459,10 +4453,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B134" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -4473,10 +4467,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B135" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -4487,10 +4481,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B136" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -4501,10 +4495,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B137" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -4515,10 +4509,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B138" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -4529,10 +4523,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B139" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -4543,24 +4537,24 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B140" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B141" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -4571,10 +4565,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B142" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -4585,10 +4579,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B143" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -4599,10 +4593,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B144" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -4613,10 +4607,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B145" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -4627,10 +4621,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B146" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -4641,10 +4635,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B147" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -4655,10 +4649,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B148" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -4669,10 +4663,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B149" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -4683,10 +4677,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B150" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -4697,10 +4691,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B151" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -4711,10 +4705,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B152" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -4725,10 +4719,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B153" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -4739,10 +4733,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B154" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -4753,10 +4747,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B155" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -4767,10 +4761,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B156" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -4781,24 +4775,24 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B157" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C157">
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B158" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -4809,10 +4803,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B159" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -4823,10 +4817,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B160" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -4837,10 +4831,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B161" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -4851,10 +4845,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B162" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -4865,10 +4859,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B163" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -4879,10 +4873,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B164" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -4893,10 +4887,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B165" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -4907,10 +4901,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B166" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -4921,10 +4915,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B167" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -4935,10 +4929,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B168" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -4949,10 +4943,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B169" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -4963,10 +4957,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B170" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -4977,10 +4971,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B171" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -4991,10 +4985,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B172" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -5005,10 +4999,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B173" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -5019,80 +5013,80 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B174" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C174">
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B175" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C175">
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B176" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C176">
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B177" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C177">
         <v>0</v>
       </c>
       <c r="E177" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B178" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C178">
         <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B179" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -5103,38 +5097,38 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B180" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C180">
         <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B181" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C181">
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B182" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -5145,10 +5139,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B183" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -5159,35 +5153,35 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B184" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C184">
         <v>0</v>
       </c>
       <c r="E184" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B185" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C185">
         <v>0</v>
       </c>
       <c r="E185" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>316</v>
+        <v>401</v>
       </c>
       <c r="B186" t="s">
         <v>402</v>
@@ -5196,193 +5190,196 @@
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>115</v>
+        <v>181</v>
+      </c>
+      <c r="F186" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>401</v>
+      </c>
+      <c r="B187" t="s">
         <v>403</v>
       </c>
-      <c r="B187" t="s">
-        <v>404</v>
-      </c>
       <c r="C187">
         <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F187" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B188" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C188">
         <v>0</v>
       </c>
       <c r="E188" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F188" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>403</v>
-      </c>
-      <c r="B189" t="s">
-        <v>406</v>
+        <v>405</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="C189">
         <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F189" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>271</v>
+        <v>406</v>
       </c>
       <c r="C190">
         <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F190" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>405</v>
+      </c>
+      <c r="B191" t="s">
         <v>407</v>
       </c>
-      <c r="B191" s="3" t="s">
-        <v>408</v>
-      </c>
       <c r="C191">
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F191" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B192" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C192">
         <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F192" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B193" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C193">
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F193" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B194" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C194">
         <v>0</v>
       </c>
       <c r="E194" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F194" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>407</v>
-      </c>
-      <c r="B195" t="s">
+        <v>411</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C195">
-        <v>0</v>
-      </c>
-      <c r="E195" t="s">
-        <v>198</v>
+      <c r="C195" s="2">
+        <v>0</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="F195" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>411</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F196" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>413</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C197" s="2">
-        <v>0</v>
-      </c>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2" t="s">
-        <v>202</v>
+        <v>411</v>
+      </c>
+      <c r="B197" t="s">
+        <v>414</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>201</v>
       </c>
       <c r="F197" t="s">
         <v>203</v>
@@ -5390,201 +5387,198 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>413</v>
-      </c>
-      <c r="B198" t="s">
-        <v>416</v>
-      </c>
-      <c r="C198">
-        <v>0</v>
-      </c>
-      <c r="E198" t="s">
-        <v>202</v>
+        <v>411</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C198" s="3">
+        <v>0</v>
+      </c>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="F198" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>267</v>
+        <v>415</v>
       </c>
       <c r="C199" s="3">
         <v>0</v>
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F199" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>413</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C200" s="3">
-        <v>0</v>
-      </c>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3" t="s">
-        <v>207</v>
+        <v>411</v>
+      </c>
+      <c r="B200" t="s">
+        <v>416</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>208</v>
       </c>
       <c r="F200" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B201" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C201">
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F201" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>413</v>
-      </c>
-      <c r="B202" t="s">
-        <v>419</v>
+        <v>411</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="C202">
         <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F202" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C203">
-        <v>0</v>
-      </c>
-      <c r="E203" t="s">
-        <v>213</v>
+        <v>419</v>
+      </c>
+      <c r="C203" s="3">
+        <v>0</v>
+      </c>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F203" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C204" s="3">
         <v>0</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F204" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C205" s="3">
-        <v>0</v>
-      </c>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3" t="s">
-        <v>215</v>
+        <v>421</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="E205" t="s">
+        <v>216</v>
       </c>
       <c r="F205" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C206">
         <v>0</v>
       </c>
       <c r="E206" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F206" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>413</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>424</v>
+        <v>315</v>
+      </c>
+      <c r="B207" t="s">
+        <v>423</v>
       </c>
       <c r="C207">
         <v>0</v>
       </c>
       <c r="E207" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="F207" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B208" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C208">
         <v>0</v>
       </c>
       <c r="E208" t="s">
-        <v>248</v>
-      </c>
-      <c r="F208" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B209" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -5595,96 +5589,96 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>316</v>
-      </c>
-      <c r="B210" t="s">
-        <v>427</v>
-      </c>
-      <c r="C210">
-        <v>0</v>
-      </c>
-      <c r="E210" t="s">
-        <v>252</v>
+        <v>315</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C210" s="2">
+        <v>0</v>
+      </c>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C211" s="2">
         <v>0</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C212" s="2">
         <v>0</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C213" s="2">
         <v>0</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C214" s="2">
         <v>0</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>316</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C215" s="2">
-        <v>0</v>
-      </c>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2" t="s">
-        <v>432</v>
+        <v>315</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C215" s="6">
+        <v>0</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>483</v>
@@ -5696,23 +5690,9 @@
         <v>484</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>316</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="C217" s="6">
-        <v>0</v>
-      </c>
-      <c r="E217" s="6" t="s">
-        <v>486</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:F215"/>
+  <autoFilter ref="A1:F214"/>
   <sortState ref="A2:B224">
     <sortCondition ref="B2"/>
   </sortState>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="27200" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27200"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="490">
   <si>
     <t>name</t>
   </si>
@@ -1501,9 +1501,6 @@
   </si>
   <si>
     <t>fax</t>
-  </si>
-  <si>
-    <t>passwordMail.oldUser.resetButton</t>
   </si>
 </sst>
 </file>
@@ -1876,9 +1873,9 @@
   </sheetPr>
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2465,11 +2462,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA218"/>
+  <dimension ref="A1:AA217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D222" sqref="D222"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5713,20 +5710,6 @@
         <v>486</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>283</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="C218" s="6">
-        <v>0</v>
-      </c>
-      <c r="E218" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:F215"/>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="346">
   <si>
     <t>name</t>
   </si>
@@ -498,204 +498,6 @@
     <t>Bewaar persoon</t>
   </si>
   <si>
-    <t>Persoon</t>
-  </si>
-  <si>
-    <t>Telefoonnummer</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>sinds</t>
-  </si>
-  <si>
-    <t>Browsers</t>
-  </si>
-  <si>
-    <t>Zoekterm</t>
-  </si>
-  <si>
-    <t>Statistieken</t>
-  </si>
-  <si>
-    <t>Meeste gebruikte browsers</t>
-  </si>
-  <si>
-    <t>Meest gebruikte zoektermen</t>
-  </si>
-  <si>
-    <t>Meest bezochte pagina's</t>
-  </si>
-  <si>
-    <t>Er zijn nog geen gegevens beschikbaar.</t>
-  </si>
-  <si>
-    <t>Analytics is nog niet geconfigureerd.</t>
-  </si>
-  <si>
-    <t>Aantal bezoekers</t>
-  </si>
-  <si>
-    <t>Pagina</t>
-  </si>
-  <si>
-    <t>Sessies</t>
-  </si>
-  <si>
-    <t>Bron</t>
-  </si>
-  <si>
-    <t>Bronnen</t>
-  </si>
-  <si>
-    <t>Statistieken afgelopen jaar</t>
-  </si>
-  <si>
-    <t>Bezoekers</t>
-  </si>
-  <si>
-    <t>Bezoeken</t>
-  </si>
-  <si>
-    <t>Nieuwe tag</t>
-  </si>
-  <si>
-    <t>Bewaar tag</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Nieuwscategorie</t>
-  </si>
-  <si>
-    <t>Nieuwstag</t>
-  </si>
-  <si>
-    <t>Engels</t>
-  </si>
-  <si>
-    <t>Anglais</t>
-  </si>
-  <si>
-    <t>Frans</t>
-  </si>
-  <si>
-    <t>Français</t>
-  </si>
-  <si>
-    <t>Nederlands</t>
-  </si>
-  <si>
-    <t>Néerlandais</t>
-  </si>
-  <si>
-    <t>Wachtwoorden moeten minstens 8 karakters lang zijn.</t>
-  </si>
-  <si>
-    <t>Les mots de passe doivent contenir au moins  8 caractères.</t>
-  </si>
-  <si>
-    <t>Your password has been reset!</t>
-  </si>
-  <si>
-    <t>Votre mot de passe a été réinitialisé</t>
-  </si>
-  <si>
-    <t>We hebben je een mail verstuurd met daarin een link waarmee je je wachtwoord kan wijzigen.</t>
-  </si>
-  <si>
-    <t>Nous vous avons envoyé un mail avec un lien qui vous permet de changer votre mot de passe.</t>
-  </si>
-  <si>
-    <t>Teveel login pogingen. Je kan opnieuw proberen binnen :seconds seconden.</t>
-  </si>
-  <si>
-    <t>Trop de tentatives de connexion. Vous pouvez réessayer dans :seconds secondes.</t>
-  </si>
-  <si>
-    <t>Deze link is niet geldig.</t>
-  </si>
-  <si>
-    <t>Ce lien n´est pas valable.</t>
-  </si>
-  <si>
-    <t>Er is geen gebruiker met dat e-mailadres.</t>
-  </si>
-  <si>
-    <t>Il n´y a pas d´utilisateur avec cette adress e-mail.</t>
-  </si>
-  <si>
-    <t>U moet tweemaal hetzelfde wachtwoord opgeven.</t>
-  </si>
-  <si>
-    <t>Veuillez remplir le même mot de passe deux fois.</t>
-  </si>
-  <si>
-    <t>U moet hier een datum opgeven in het formaat dd/mm/yyyy.</t>
-  </si>
-  <si>
-    <t>Veuillez remplir la date au format dd/mm/yyyy.</t>
-  </si>
-  <si>
-    <t>Veullez remplir ici une date au format dd/mm/yyyy.</t>
-  </si>
-  <si>
-    <t>Dit is geen geldig e-mailadres.</t>
-  </si>
-  <si>
-    <t>Cette adresse e-mail n´est pas valable</t>
-  </si>
-  <si>
-    <t>Corrigeer de fouten in het formulier.</t>
-  </si>
-  <si>
-    <t>Corrigez les erreurs dans le formulaire.</t>
-  </si>
-  <si>
-    <t>De inhoud van dit veld moet minstens :min karakters lang zijn.</t>
-  </si>
-  <si>
-    <t>Ce champ doit contenir au moins ... caractères.</t>
-  </si>
-  <si>
-    <t>U moet een geldig telefoonnummer ingegeven.</t>
-  </si>
-  <si>
-    <t>Veuillez remplir un numéro de téléphone valable</t>
-  </si>
-  <si>
-    <t>Dit is een verplicht veld.</t>
-  </si>
-  <si>
-    <t>Ce champ est obligatoire.</t>
-  </si>
-  <si>
-    <t>Dit zijn onbestaande tags.</t>
-  </si>
-  <si>
-    <t>Ces tags n´existent pas.</t>
-  </si>
-  <si>
-    <t>Er bestaat al een record met dit :attribute.</t>
-  </si>
-  <si>
-    <t>Il existe déjà un fichier avec cet :attribute.</t>
-  </si>
-  <si>
-    <t>Gelieve een geldige url in te geven.</t>
-  </si>
-  <si>
-    <t>Veuillez remplir un url valable.</t>
-  </si>
-  <si>
     <t>Terug naar login</t>
   </si>
   <si>
@@ -774,24 +576,9 @@
     <t>Required fields</t>
   </si>
   <si>
-    <t>Paginatitel</t>
-  </si>
-  <si>
-    <t>Hoofdartikel</t>
-  </si>
-  <si>
     <t>Bewaar wijzigingen</t>
   </si>
   <si>
-    <t>Article principal</t>
-  </si>
-  <si>
-    <t>Deze velden worden standaard afgeleid uit de inhoud. Vul een veld in om te overschrijven.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Momenteel worden reacties nog niet gemaild omdat er geen bestemming werd ingesteld. </t>
-  </si>
-  <si>
     <t>group</t>
   </si>
   <si>
@@ -1140,213 +927,6 @@
     <t>people.save</t>
   </si>
   <si>
-    <t>people.singular</t>
-  </si>
-  <si>
-    <t>people.telephone</t>
-  </si>
-  <si>
-    <t>people.title</t>
-  </si>
-  <si>
-    <t>people.type</t>
-  </si>
-  <si>
-    <t>seo.title</t>
-  </si>
-  <si>
-    <t>since</t>
-  </si>
-  <si>
-    <t>statistics.browsers</t>
-  </si>
-  <si>
-    <t>statistics.keyword</t>
-  </si>
-  <si>
-    <t>statistics.menuTitle</t>
-  </si>
-  <si>
-    <t>statistics.mostUsedBrowsers</t>
-  </si>
-  <si>
-    <t>statistics.mostUsedKeywords</t>
-  </si>
-  <si>
-    <t>statistics.mostVisitedPages</t>
-  </si>
-  <si>
-    <t>statistics.noData</t>
-  </si>
-  <si>
-    <t>statistics.notConfigured</t>
-  </si>
-  <si>
-    <t>statistics.numberOfVisitors</t>
-  </si>
-  <si>
-    <t>statistics.page</t>
-  </si>
-  <si>
-    <t>statistics.sessions</t>
-  </si>
-  <si>
-    <t>statistics.source</t>
-  </si>
-  <si>
-    <t>statistics.sources</t>
-  </si>
-  <si>
-    <t>statistics.title</t>
-  </si>
-  <si>
-    <t>statistics.visitors</t>
-  </si>
-  <si>
-    <t>statistics.visits</t>
-  </si>
-  <si>
-    <t>tags.description</t>
-  </si>
-  <si>
-    <t>tags.name</t>
-  </si>
-  <si>
-    <t>tags.new</t>
-  </si>
-  <si>
-    <t>tags.online</t>
-  </si>
-  <si>
-    <t>tags.save</t>
-  </si>
-  <si>
-    <t>tags.singular</t>
-  </si>
-  <si>
-    <t>tags.title</t>
-  </si>
-  <si>
-    <t>tags.type</t>
-  </si>
-  <si>
-    <t>tags.types.news_category</t>
-  </si>
-  <si>
-    <t>tags.types.news_tag</t>
-  </si>
-  <si>
-    <t>users.justNow</t>
-  </si>
-  <si>
-    <t>users.neverLoggedIn</t>
-  </si>
-  <si>
-    <t>locales</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
-    <t>nl</t>
-  </si>
-  <si>
-    <t>passwords</t>
-  </si>
-  <si>
-    <t>reset</t>
-  </si>
-  <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>throttle</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>confirmed</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>date_format</t>
-  </si>
-  <si>
-    <t>failedForm</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>tags_exist</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>articles.parent_id</t>
-  </si>
-  <si>
-    <t>seo.help</t>
-  </si>
-  <si>
-    <t>formResponses.mailConfigMissing</t>
-  </si>
-  <si>
-    <t>Redirects</t>
-  </si>
-  <si>
-    <t>Van</t>
-  </si>
-  <si>
-    <t>Naar</t>
-  </si>
-  <si>
-    <t>Nieuwe redirect</t>
-  </si>
-  <si>
-    <t>Bewaar redirect</t>
-  </si>
-  <si>
-    <t>redirects.title</t>
-  </si>
-  <si>
-    <t>redirects.old_url</t>
-  </si>
-  <si>
-    <t>redirects.new_url</t>
-  </si>
-  <si>
-    <t>redirects.new</t>
-  </si>
-  <si>
-    <t>redirects.save</t>
-  </si>
-  <si>
     <t>news.downloads</t>
   </si>
   <si>
@@ -1480,18 +1060,6 @@
   </si>
   <si>
     <t>administrators.title</t>
-  </si>
-  <si>
-    <t>backToIndex</t>
-  </si>
-  <si>
-    <t>Terug naar overzicht</t>
-  </si>
-  <si>
-    <t>auth.frontLink</t>
-  </si>
-  <si>
-    <t>Publieke site</t>
   </si>
   <si>
     <t>company</t>
@@ -1873,7 +1441,7 @@
   </sheetPr>
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
@@ -1890,10 +1458,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1931,10 +1499,10 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1948,10 +1516,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1965,10 +1533,10 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1982,10 +1550,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1999,10 +1567,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2016,10 +1584,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2033,10 +1601,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2050,10 +1618,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>197</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2067,10 +1635,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2084,10 +1652,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>199</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2101,10 +1669,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2118,10 +1686,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>201</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2135,10 +1703,10 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2152,10 +1720,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>203</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2169,10 +1737,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2186,29 +1754,29 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s">
-        <v>275</v>
+        <v>204</v>
       </c>
       <c r="E17" t="s">
-        <v>232</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="E18" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -2217,124 +1785,124 @@
         <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s">
-        <v>274</v>
+        <v>203</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="E21" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="F21" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="E22" t="s">
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="E23" t="s">
         <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>279</v>
+        <v>208</v>
       </c>
       <c r="E24" t="s">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="F24" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s">
-        <v>280</v>
+        <v>209</v>
       </c>
       <c r="E25" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
-        <v>281</v>
+        <v>210</v>
       </c>
       <c r="E26" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="B27" t="s">
-        <v>282</v>
+        <v>211</v>
       </c>
       <c r="E27" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="F27" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>487</v>
+        <v>343</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
@@ -2347,10 +1915,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>487</v>
+        <v>343</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -2360,10 +1928,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>487</v>
+        <v>343</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>488</v>
+        <v>344</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -2373,10 +1941,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>487</v>
+        <v>343</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -2386,10 +1954,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>487</v>
+        <v>343</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>279</v>
+        <v>208</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
@@ -2399,10 +1967,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>487</v>
+        <v>343</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>285</v>
+        <v>214</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -2412,10 +1980,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>487</v>
+        <v>343</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>274</v>
+        <v>203</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
@@ -2425,10 +1993,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>487</v>
+        <v>343</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>489</v>
+        <v>345</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -2438,10 +2006,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>487</v>
+        <v>343</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -2464,9 +2032,9 @@
   </sheetPr>
   <dimension ref="A1:AA217"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A193" sqref="A193:XFD194"/>
+      <selection pane="bottomLeft" activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2481,10 +2049,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2522,10 +2090,10 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2536,10 +2104,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>213</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2553,10 +2121,10 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>208</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2567,10 +2135,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>214</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2581,10 +2149,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2598,10 +2166,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>215</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2612,10 +2180,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>197</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2626,10 +2194,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>216</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2643,10 +2211,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>217</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2660,10 +2228,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2674,10 +2242,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>218</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2691,10 +2259,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2708,24 +2276,24 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>221</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2739,10 +2307,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B16" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2756,10 +2324,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>223</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2773,10 +2341,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2787,10 +2355,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s">
-        <v>295</v>
+        <v>224</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2804,10 +2372,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
+        <v>225</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2821,10 +2389,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2835,10 +2403,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s">
-        <v>297</v>
+        <v>226</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2849,10 +2417,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2866,10 +2434,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2883,10 +2451,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s">
-        <v>300</v>
+        <v>229</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2900,10 +2468,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s">
-        <v>301</v>
+        <v>230</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2917,10 +2485,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s">
-        <v>302</v>
+        <v>231</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2934,10 +2502,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s">
-        <v>303</v>
+        <v>232</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2951,10 +2519,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s">
-        <v>304</v>
+        <v>233</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2968,10 +2536,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
-        <v>305</v>
+        <v>234</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2985,10 +2553,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B31" t="s">
-        <v>306</v>
+        <v>235</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -3002,10 +2570,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s">
-        <v>307</v>
+        <v>236</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -3019,10 +2587,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B33" t="s">
-        <v>274</v>
+        <v>203</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3036,10 +2604,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s">
-        <v>308</v>
+        <v>237</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3050,10 +2618,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B35" t="s">
-        <v>309</v>
+        <v>238</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3067,10 +2635,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B36" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3084,10 +2652,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B37" t="s">
-        <v>311</v>
+        <v>240</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -3101,10 +2669,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B38" t="s">
-        <v>312</v>
+        <v>241</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -3118,10 +2686,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B39" t="s">
-        <v>313</v>
+        <v>242</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3135,10 +2703,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B40" t="s">
-        <v>314</v>
+        <v>243</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -3152,10 +2720,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B41" t="s">
-        <v>315</v>
+        <v>244</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -3169,10 +2737,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B42" t="s">
-        <v>317</v>
+        <v>246</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3183,10 +2751,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B43" t="s">
-        <v>318</v>
+        <v>247</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3197,10 +2765,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B44" t="s">
-        <v>319</v>
+        <v>248</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -3211,10 +2779,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B45" t="s">
-        <v>320</v>
+        <v>249</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3225,10 +2793,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B46" t="s">
-        <v>321</v>
+        <v>250</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3239,10 +2807,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B47" t="s">
-        <v>322</v>
+        <v>251</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3253,10 +2821,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B48" t="s">
-        <v>323</v>
+        <v>252</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -3267,10 +2835,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B49" t="s">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -3281,10 +2849,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B50" t="s">
-        <v>325</v>
+        <v>254</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3295,24 +2863,24 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B51" t="s">
-        <v>326</v>
+        <v>255</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B52" t="s">
-        <v>327</v>
+        <v>256</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3323,10 +2891,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B53" t="s">
-        <v>328</v>
+        <v>257</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -3337,10 +2905,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B54" t="s">
-        <v>329</v>
+        <v>258</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -3351,10 +2919,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B55" t="s">
-        <v>330</v>
+        <v>259</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3365,7 +2933,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -3379,7 +2947,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B57" t="s">
         <v>41</v>
@@ -3393,7 +2961,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B58" t="s">
         <v>49</v>
@@ -3407,7 +2975,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
@@ -3421,7 +2989,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
@@ -3435,7 +3003,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B61" t="s">
         <v>68</v>
@@ -3449,7 +3017,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B62" t="s">
         <v>73</v>
@@ -3463,7 +3031,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B63" t="s">
         <v>76</v>
@@ -3477,7 +3045,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B64" t="s">
         <v>79</v>
@@ -3491,7 +3059,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B65" t="s">
         <v>85</v>
@@ -3505,7 +3073,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B66" t="s">
         <v>86</v>
@@ -3514,12 +3082,12 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>87</v>
@@ -3534,7 +3102,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>88</v>
@@ -3544,15 +3112,15 @@
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B69" t="s">
-        <v>466</v>
+        <v>326</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3563,10 +3131,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B70" t="s">
-        <v>467</v>
+        <v>327</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3577,10 +3145,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B71" t="s">
-        <v>468</v>
+        <v>328</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -3591,10 +3159,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B72" t="s">
-        <v>469</v>
+        <v>329</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -3605,10 +3173,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B73" t="s">
-        <v>470</v>
+        <v>330</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -3619,10 +3187,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B74" t="s">
-        <v>471</v>
+        <v>331</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3633,10 +3201,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B75" t="s">
-        <v>472</v>
+        <v>332</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -3647,10 +3215,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B76" t="s">
-        <v>473</v>
+        <v>333</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3661,10 +3229,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B77" t="s">
-        <v>474</v>
+        <v>334</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -3675,10 +3243,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B78" t="s">
-        <v>475</v>
+        <v>335</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3689,10 +3257,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B79" t="s">
-        <v>476</v>
+        <v>336</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3703,10 +3271,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B80" t="s">
-        <v>477</v>
+        <v>337</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3717,10 +3285,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B81" t="s">
-        <v>478</v>
+        <v>338</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3731,10 +3299,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B82" t="s">
-        <v>479</v>
+        <v>339</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3745,10 +3313,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B83" t="s">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -3759,10 +3327,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B84" t="s">
-        <v>481</v>
+        <v>341</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -3773,10 +3341,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B85" t="s">
-        <v>482</v>
+        <v>342</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -3787,10 +3355,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B86" t="s">
-        <v>331</v>
+        <v>260</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3801,24 +3369,24 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B87" t="s">
-        <v>332</v>
+        <v>261</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B88" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3829,10 +3397,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B89" t="s">
-        <v>334</v>
+        <v>263</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3843,10 +3411,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B90" t="s">
-        <v>335</v>
+        <v>264</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3857,10 +3425,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B91" t="s">
-        <v>336</v>
+        <v>265</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3871,10 +3439,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B92" t="s">
-        <v>337</v>
+        <v>266</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3885,10 +3453,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B93" t="s">
-        <v>338</v>
+        <v>267</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3899,10 +3467,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B94" t="s">
-        <v>339</v>
+        <v>268</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -3913,24 +3481,24 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B95" t="s">
-        <v>340</v>
+        <v>269</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B96" t="s">
-        <v>341</v>
+        <v>270</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -3941,10 +3509,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B97" t="s">
-        <v>342</v>
+        <v>271</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -3955,24 +3523,24 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B98" t="s">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B99" t="s">
-        <v>344</v>
+        <v>273</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -3983,10 +3551,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B100" t="s">
-        <v>345</v>
+        <v>274</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -3997,10 +3565,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B101" t="s">
-        <v>346</v>
+        <v>275</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -4011,10 +3579,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B102" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -4025,10 +3593,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B103" t="s">
-        <v>451</v>
+        <v>311</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -4039,10 +3607,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B104" t="s">
-        <v>452</v>
+        <v>312</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -4053,10 +3621,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B105" t="s">
-        <v>453</v>
+        <v>313</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -4067,10 +3635,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B106" t="s">
-        <v>454</v>
+        <v>314</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -4081,10 +3649,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B107" t="s">
-        <v>455</v>
+        <v>315</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -4095,10 +3663,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>245</v>
+      </c>
+      <c r="B108" t="s">
         <v>316</v>
-      </c>
-      <c r="B108" t="s">
-        <v>456</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -4109,10 +3677,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B109" t="s">
-        <v>457</v>
+        <v>317</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -4123,10 +3691,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B110" t="s">
-        <v>458</v>
+        <v>318</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -4137,10 +3705,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B111" t="s">
-        <v>459</v>
+        <v>319</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -4151,10 +3719,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B112" t="s">
-        <v>460</v>
+        <v>320</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -4165,10 +3733,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B113" t="s">
-        <v>461</v>
+        <v>321</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -4179,10 +3747,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B114" t="s">
-        <v>462</v>
+        <v>322</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -4193,10 +3761,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B115" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -4207,10 +3775,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B116" t="s">
-        <v>464</v>
+        <v>324</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -4221,10 +3789,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B117" t="s">
-        <v>465</v>
+        <v>325</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -4235,10 +3803,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B118" t="s">
-        <v>348</v>
+        <v>277</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -4249,10 +3817,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B119" t="s">
-        <v>349</v>
+        <v>278</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -4263,10 +3831,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B120" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -4277,10 +3845,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B121" t="s">
-        <v>351</v>
+        <v>280</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -4291,10 +3859,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B122" t="s">
-        <v>352</v>
+        <v>281</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -4305,10 +3873,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B123" t="s">
-        <v>353</v>
+        <v>282</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -4319,24 +3887,24 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B124" t="s">
-        <v>354</v>
+        <v>283</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B125" t="s">
-        <v>355</v>
+        <v>284</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -4347,7 +3915,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B126" t="s">
         <v>0</v>
@@ -4361,24 +3929,24 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B127" t="s">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B128" t="s">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -4389,52 +3957,52 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B129" t="s">
-        <v>358</v>
+        <v>287</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B130" t="s">
-        <v>359</v>
+        <v>288</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B131" t="s">
-        <v>360</v>
+        <v>289</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B132" t="s">
-        <v>438</v>
+        <v>298</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -4445,10 +4013,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B133" t="s">
-        <v>439</v>
+        <v>299</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -4459,10 +4027,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B134" t="s">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -4473,10 +4041,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B135" t="s">
-        <v>441</v>
+        <v>301</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -4487,10 +4055,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B136" t="s">
-        <v>442</v>
+        <v>302</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -4501,10 +4069,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B137" t="s">
-        <v>443</v>
+        <v>303</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -4515,10 +4083,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B138" t="s">
-        <v>444</v>
+        <v>304</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -4529,10 +4097,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B139" t="s">
-        <v>445</v>
+        <v>305</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -4543,24 +4111,24 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B140" t="s">
-        <v>446</v>
+        <v>306</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B141" t="s">
-        <v>447</v>
+        <v>307</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -4571,10 +4139,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B142" t="s">
-        <v>448</v>
+        <v>308</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -4585,10 +4153,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B143" t="s">
-        <v>449</v>
+        <v>309</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -4599,10 +4167,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B144" t="s">
-        <v>450</v>
+        <v>310</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -4613,10 +4181,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B145" t="s">
-        <v>361</v>
+        <v>290</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -4627,10 +4195,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B146" t="s">
-        <v>362</v>
+        <v>291</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -4641,10 +4209,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B147" t="s">
-        <v>363</v>
+        <v>292</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -4655,10 +4223,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B148" t="s">
-        <v>364</v>
+        <v>293</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -4669,10 +4237,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B149" t="s">
-        <v>365</v>
+        <v>294</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -4683,10 +4251,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B150" t="s">
-        <v>366</v>
+        <v>295</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -4697,10 +4265,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B151" t="s">
-        <v>367</v>
+        <v>296</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -4711,10 +4279,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="B152" t="s">
-        <v>368</v>
+        <v>297</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -4723,992 +4291,96 @@
         <v>154</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>316</v>
-      </c>
-      <c r="B153" t="s">
-        <v>369</v>
-      </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-      <c r="E153" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>316</v>
-      </c>
-      <c r="B154" t="s">
-        <v>370</v>
-      </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="E154" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>316</v>
-      </c>
-      <c r="B155" t="s">
-        <v>371</v>
-      </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-      <c r="E155" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>316</v>
-      </c>
-      <c r="B156" t="s">
-        <v>372</v>
-      </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-      <c r="E156" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>316</v>
-      </c>
-      <c r="B157" t="s">
-        <v>373</v>
-      </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
-      <c r="E157" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>316</v>
-      </c>
-      <c r="B158" t="s">
-        <v>374</v>
-      </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-      <c r="E158" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>316</v>
-      </c>
-      <c r="B159" t="s">
-        <v>375</v>
-      </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-      <c r="E159" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>316</v>
-      </c>
-      <c r="B160" t="s">
-        <v>376</v>
-      </c>
-      <c r="C160">
-        <v>0</v>
-      </c>
-      <c r="E160" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>316</v>
-      </c>
-      <c r="B161" t="s">
-        <v>377</v>
-      </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
-      <c r="E161" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>316</v>
-      </c>
-      <c r="B162" t="s">
-        <v>378</v>
-      </c>
-      <c r="C162">
-        <v>0</v>
-      </c>
-      <c r="E162" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>316</v>
-      </c>
-      <c r="B163" t="s">
-        <v>379</v>
-      </c>
-      <c r="C163">
-        <v>0</v>
-      </c>
-      <c r="E163" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>316</v>
-      </c>
-      <c r="B164" t="s">
-        <v>380</v>
-      </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-      <c r="E164" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>316</v>
-      </c>
-      <c r="B165" t="s">
-        <v>381</v>
-      </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-      <c r="E165" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>316</v>
-      </c>
-      <c r="B166" t="s">
-        <v>382</v>
-      </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-      <c r="E166" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>316</v>
-      </c>
-      <c r="B167" t="s">
-        <v>383</v>
-      </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="E167" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>316</v>
-      </c>
-      <c r="B168" t="s">
-        <v>384</v>
-      </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-      <c r="E168" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>316</v>
-      </c>
-      <c r="B169" t="s">
-        <v>385</v>
-      </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-      <c r="E169" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>316</v>
-      </c>
-      <c r="B170" t="s">
-        <v>386</v>
-      </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-      <c r="E170" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>316</v>
-      </c>
-      <c r="B171" t="s">
-        <v>387</v>
-      </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-      <c r="E171" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>316</v>
-      </c>
-      <c r="B172" t="s">
-        <v>388</v>
-      </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-      <c r="E172" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>316</v>
-      </c>
-      <c r="B173" t="s">
-        <v>389</v>
-      </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-      <c r="E173" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>316</v>
-      </c>
-      <c r="B174" t="s">
-        <v>390</v>
-      </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-      <c r="E174" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>316</v>
-      </c>
-      <c r="B175" t="s">
-        <v>391</v>
-      </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-      <c r="E175" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>316</v>
-      </c>
-      <c r="B176" t="s">
-        <v>392</v>
-      </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-      <c r="E176" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>316</v>
-      </c>
-      <c r="B177" t="s">
-        <v>393</v>
-      </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-      <c r="E177" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>316</v>
-      </c>
-      <c r="B178" t="s">
-        <v>394</v>
-      </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-      <c r="E178" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>316</v>
-      </c>
-      <c r="B179" t="s">
-        <v>395</v>
-      </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
-      <c r="E179" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>316</v>
-      </c>
-      <c r="B180" t="s">
-        <v>396</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-      <c r="E180" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>316</v>
-      </c>
-      <c r="B181" t="s">
-        <v>397</v>
-      </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-      <c r="E181" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>316</v>
-      </c>
-      <c r="B182" t="s">
-        <v>398</v>
-      </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-      <c r="E182" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>316</v>
-      </c>
-      <c r="B183" t="s">
-        <v>399</v>
-      </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-      <c r="E183" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>316</v>
-      </c>
-      <c r="B184" t="s">
-        <v>400</v>
-      </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-      <c r="E184" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>316</v>
-      </c>
-      <c r="B185" t="s">
-        <v>401</v>
-      </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-      <c r="E185" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>316</v>
-      </c>
-      <c r="B186" t="s">
-        <v>402</v>
-      </c>
-      <c r="C186">
-        <v>0</v>
-      </c>
-      <c r="E186" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>403</v>
-      </c>
-      <c r="B187" t="s">
-        <v>404</v>
-      </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-      <c r="E187" t="s">
-        <v>182</v>
-      </c>
-      <c r="F187" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>403</v>
-      </c>
-      <c r="B188" t="s">
-        <v>405</v>
-      </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-      <c r="E188" t="s">
-        <v>184</v>
-      </c>
-      <c r="F188" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>403</v>
-      </c>
-      <c r="B189" t="s">
-        <v>406</v>
-      </c>
-      <c r="C189">
-        <v>0</v>
-      </c>
-      <c r="E189" t="s">
-        <v>186</v>
-      </c>
-      <c r="F189" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>407</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-      <c r="E190" t="s">
-        <v>188</v>
-      </c>
-      <c r="F190" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>407</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-      <c r="E191" t="s">
-        <v>190</v>
-      </c>
-      <c r="F191" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>407</v>
-      </c>
-      <c r="B192" t="s">
-        <v>409</v>
-      </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-      <c r="E192" t="s">
-        <v>192</v>
-      </c>
-      <c r="F192" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>407</v>
-      </c>
-      <c r="B193" t="s">
-        <v>410</v>
-      </c>
-      <c r="C193">
-        <v>0</v>
-      </c>
-      <c r="E193" t="s">
-        <v>194</v>
-      </c>
-      <c r="F193" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>407</v>
-      </c>
-      <c r="B194" t="s">
-        <v>411</v>
-      </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-      <c r="E194" t="s">
-        <v>196</v>
-      </c>
-      <c r="F194" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>407</v>
-      </c>
-      <c r="B195" t="s">
-        <v>412</v>
-      </c>
-      <c r="C195">
-        <v>0</v>
-      </c>
-      <c r="E195" t="s">
-        <v>198</v>
-      </c>
-      <c r="F195" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>413</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C196" s="2">
-        <v>0</v>
-      </c>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B190" s="3"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B191" s="3"/>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
       <c r="D196" s="2"/>
-      <c r="E196" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F196" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>413</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C197" s="2">
-        <v>0</v>
-      </c>
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
       <c r="D197" s="2"/>
-      <c r="E197" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F197" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>413</v>
-      </c>
-      <c r="B198" t="s">
-        <v>416</v>
-      </c>
-      <c r="C198">
-        <v>0</v>
-      </c>
-      <c r="E198" t="s">
-        <v>202</v>
-      </c>
-      <c r="F198" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>413</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C199" s="3">
-        <v>0</v>
-      </c>
+      <c r="E197" s="2"/>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
       <c r="D199" s="3"/>
-      <c r="E199" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F199" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>413</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C200" s="3">
-        <v>0</v>
-      </c>
+      <c r="E199" s="3"/>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
       <c r="D200" s="3"/>
-      <c r="E200" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F200" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>413</v>
-      </c>
-      <c r="B201" t="s">
-        <v>418</v>
-      </c>
-      <c r="C201">
-        <v>0</v>
-      </c>
-      <c r="E201" t="s">
-        <v>209</v>
-      </c>
-      <c r="F201" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>413</v>
-      </c>
-      <c r="B202" t="s">
-        <v>419</v>
-      </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
-      <c r="E202" t="s">
-        <v>211</v>
-      </c>
-      <c r="F202" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>413</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C203">
-        <v>0</v>
-      </c>
-      <c r="E203" t="s">
-        <v>213</v>
-      </c>
-      <c r="F203" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>413</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="C204" s="3">
-        <v>0</v>
-      </c>
+      <c r="E200" s="3"/>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B203" s="3"/>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
       <c r="D204" s="3"/>
-      <c r="E204" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F204" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>413</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C205" s="3">
-        <v>0</v>
-      </c>
+      <c r="E204" s="3"/>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
       <c r="D205" s="3"/>
-      <c r="E205" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F205" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>413</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C206">
-        <v>0</v>
-      </c>
-      <c r="E206" t="s">
-        <v>217</v>
-      </c>
-      <c r="F206" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>413</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C207">
-        <v>0</v>
-      </c>
-      <c r="E207" t="s">
-        <v>219</v>
-      </c>
-      <c r="F207" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>316</v>
-      </c>
-      <c r="B208" t="s">
-        <v>425</v>
-      </c>
-      <c r="C208">
-        <v>0</v>
-      </c>
-      <c r="E208" t="s">
-        <v>248</v>
-      </c>
-      <c r="F208" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>316</v>
-      </c>
-      <c r="B209" t="s">
-        <v>426</v>
-      </c>
-      <c r="C209">
-        <v>0</v>
-      </c>
-      <c r="E209" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>316</v>
-      </c>
-      <c r="B210" t="s">
-        <v>427</v>
-      </c>
-      <c r="C210">
-        <v>0</v>
-      </c>
-      <c r="E210" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>316</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C211" s="2">
-        <v>0</v>
-      </c>
+      <c r="E205" s="3"/>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B206" s="3"/>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B207" s="3"/>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
       <c r="D211" s="2"/>
-      <c r="E211" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>316</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C212" s="2">
-        <v>0</v>
-      </c>
+      <c r="E211" s="2"/>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
       <c r="D212" s="2"/>
-      <c r="E212" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>316</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C213" s="2">
-        <v>0</v>
-      </c>
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
       <c r="D213" s="2"/>
-      <c r="E213" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>316</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C214" s="2">
-        <v>0</v>
-      </c>
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
       <c r="D214" s="2"/>
-      <c r="E214" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>316</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C215" s="2">
-        <v>0</v>
-      </c>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
       <c r="D215" s="2"/>
-      <c r="E215" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>316</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="C216" s="6">
-        <v>0</v>
-      </c>
-      <c r="E216" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>316</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="C217" s="6">
-        <v>0</v>
-      </c>
-      <c r="E217" s="6" t="s">
-        <v>486</v>
-      </c>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="E216" s="6"/>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+      <c r="E217" s="6"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="166">
   <si>
     <t>name</t>
   </si>
@@ -138,12 +138,156 @@
     <t>Adres</t>
   </si>
   <si>
+    <t>Wijzig wachtwoord</t>
+  </si>
+  <si>
+    <t>Changer mot de passe</t>
+  </si>
+  <si>
+    <t>Stad</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>De inloggegevens klopten niet.</t>
+  </si>
+  <si>
+    <t>Wachtwoord vergeten?</t>
+  </si>
+  <si>
+    <t>Mot de passe oublié?</t>
+  </si>
+  <si>
+    <t>Deze link is ongeldig.</t>
+  </si>
+  <si>
+    <t>Ce lien n'est pas valable.</t>
+  </si>
+  <si>
     <t>Naam</t>
   </si>
   <si>
+    <t>Je bent nu uitgelogd.</t>
+  </si>
+  <si>
+    <t>Vous êtes déconnecté(e).</t>
+  </si>
+  <si>
+    <t>Log in</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Nog geen account?</t>
+  </si>
+  <si>
+    <t>Les données ne sont pas correctes.</t>
+  </si>
+  <si>
+    <t>Uw account is nog niet actief.</t>
+  </si>
+  <si>
+    <t>Votre compte n'est pas encore actif.</t>
+  </si>
+  <si>
+    <t>Uw wachtwoord werd gewijzigd.</t>
+  </si>
+  <si>
+    <t>Votre mot de passe a été changé.</t>
+  </si>
+  <si>
+    <t>Wachtwoord instellen</t>
+  </si>
+  <si>
     <t>Postcode</t>
   </si>
   <si>
+    <t>Registreer</t>
+  </si>
+  <si>
+    <t>Maak profiel aan</t>
+  </si>
+  <si>
+    <t>Créez votre profil</t>
+  </si>
+  <si>
+    <t>Naar login</t>
+  </si>
+  <si>
+    <t>Vers login</t>
+  </si>
+  <si>
+    <t>Je nieuwe wachtwoord moet minstens 8 karakters lang zijn.</t>
+  </si>
+  <si>
+    <t>Votre nouveau mot de passe doit contenir au moins 8 caractères.</t>
+  </si>
+  <si>
+    <t>Deze link is niet meer geldig.</t>
+  </si>
+  <si>
+    <t>Ce lien n'est plus valable.</t>
+  </si>
+  <si>
+    <t>Mail me</t>
+  </si>
+  <si>
+    <t>Envoyez-moi l'e-mail</t>
+  </si>
+  <si>
+    <t>Geef je e-mailadres op en we sturen je een link waarmee je je wachtwoord kan wijzigen</t>
+  </si>
+  <si>
+    <t>Donnez-nous votre adresse e-mail et nous vous envoyons un lien par lequel vous pouvez changer votre mot de passe</t>
+  </si>
+  <si>
+    <t>Wachtwoord opvragen</t>
+  </si>
+  <si>
+    <t>Demander mot de passe</t>
+  </si>
+  <si>
+    <t>Geef je e-mailadres op en we sturen je een link waarmee je je wachtwoord kan wijzigen.</t>
+  </si>
+  <si>
+    <t>Donnez votre adresse e-mail et nous vous envoyons un lien par lequel vous pouvez changer votre mot de passe.</t>
+  </si>
+  <si>
+    <t>Initialiser mot de passe</t>
+  </si>
+  <si>
+    <t>Inloggen?</t>
+  </si>
+  <si>
+    <t>Connecter?</t>
+  </si>
+  <si>
+    <t>Nog geen profiel?</t>
+  </si>
+  <si>
+    <t>Pas encore de profil?</t>
+  </si>
+  <si>
+    <t>Er is niemand geregistreerd met dit e-mailadres.</t>
+  </si>
+  <si>
+    <t>Cette adresse e-mail n'est pas connue.</t>
+  </si>
+  <si>
+    <t>Uw aanvraag is ontvangen. Er worden er bevestiging gestuurd zodra deze wordt goedgekeurd.</t>
+  </si>
+  <si>
+    <t>Nous avons reçu votre demande. Vous recevrez une confirmation dès qu'elle sera approuvée.</t>
+  </si>
+  <si>
+    <t>Uitloggen</t>
+  </si>
+  <si>
     <t>Voor deze sites gebruiken we cookies om de gebruikservaring te verbeteren. Indien u verder surft gaan we ervan uit dat u cookies toelaat.</t>
   </si>
   <si>
@@ -279,7 +423,103 @@
     <t>fieldsAreRequired</t>
   </si>
   <si>
+    <t>auth</t>
+  </si>
+  <si>
+    <t>changePassword</t>
+  </si>
+  <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>forgotPassword</t>
+  </si>
+  <si>
+    <t>invalidResetLink</t>
+  </si>
+  <si>
+    <t>loggedOut</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>logout.title</t>
+  </si>
+  <si>
+    <t>noAccount</t>
+  </si>
+  <si>
+    <t>notActivatedError</t>
+  </si>
+  <si>
+    <t>passwordChanged</t>
+  </si>
+  <si>
+    <t>passwordConfirm</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>register.submit</t>
+  </si>
+  <si>
+    <t>register.toLogin</t>
+  </si>
+  <si>
+    <t>resetInstructions</t>
+  </si>
+  <si>
+    <t>resetLinkExpired</t>
+  </si>
+  <si>
+    <t>resetPassword.button</t>
+  </si>
+  <si>
+    <t>resetPassword.intro</t>
+  </si>
+  <si>
+    <t>resetPassword.title</t>
+  </si>
+  <si>
+    <t>resetPassword.toLogin</t>
+  </si>
+  <si>
+    <t>resetPasswordButton</t>
+  </si>
+  <si>
+    <t>resetPasswordIntro</t>
+  </si>
+  <si>
+    <t>titleChangePassword</t>
+  </si>
+  <si>
+    <t>titleLogin</t>
+  </si>
+  <si>
+    <t>titleRegister</t>
+  </si>
+  <si>
+    <t>titleResetPassword</t>
+  </si>
+  <si>
+    <t>toLogin</t>
+  </si>
+  <si>
+    <t>toRegistrationForm</t>
+  </si>
+  <si>
+    <t>unknownUser</t>
+  </si>
+  <si>
+    <t>waitingForApproval</t>
   </si>
   <si>
     <t>company</t>
@@ -678,10 +918,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -719,10 +959,10 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -736,10 +976,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -753,10 +993,10 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -770,10 +1010,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -787,10 +1027,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -804,10 +1044,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -821,10 +1061,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -838,10 +1078,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -855,10 +1095,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -872,10 +1112,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -889,10 +1129,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -906,10 +1146,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -923,10 +1163,10 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -940,10 +1180,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -957,10 +1197,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -974,155 +1214,155 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
@@ -1135,10 +1375,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -1148,10 +1388,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -1161,10 +1401,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -1174,10 +1414,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
@@ -1187,10 +1427,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -1200,10 +1440,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
@@ -1213,10 +1453,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -1226,10 +1466,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -1253,8 +1493,8 @@
   <dimension ref="A1:AA217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F178" sqref="F178"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1269,10 +1509,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1308,6 +1548,653 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>

--- a/database/seeds/data/fragments.xlsx
+++ b/database/seeds/data/fragments.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freek/dev/sites/blender/database/seeds/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willem/Sites/blender/database/seeds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27200" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260"/>
   </bookViews>
   <sheets>
     <sheet name="fragments" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="174">
   <si>
     <t>name</t>
   </si>
@@ -529,6 +529,30 @@
   </si>
   <si>
     <t>fax</t>
+  </si>
+  <si>
+    <t>Spatie</t>
+  </si>
+  <si>
+    <t>Samberstraat 69D</t>
+  </si>
+  <si>
+    <t>Antwerpen</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>België</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>+32 3 292 56 79</t>
+  </si>
+  <si>
+    <t>info@spatie.be</t>
   </si>
 </sst>
 </file>
@@ -587,13 +611,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -901,9 +925,9 @@
   </sheetPr>
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -917,7 +941,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1371,7 +1395,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
@@ -1384,7 +1413,12 @@
         <v>0</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
@@ -1397,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="7"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
@@ -1410,7 +1444,12 @@
         <v>0</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2">
+        <v>2060</v>
+      </c>
+      <c r="F31">
+        <v>2060</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
@@ -1423,7 +1462,12 @@
         <v>0</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
@@ -1436,7 +1480,12 @@
         <v>0</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
@@ -1449,7 +1498,12 @@
         <v>0</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
@@ -1462,7 +1516,12 @@
         <v>0</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
@@ -1475,8 +1534,12 @@
         <v>0</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="4"/>
+      <c r="E36" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -1492,7 +1555,7 @@
   </sheetPr>
   <dimension ref="A1:AA217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E159" sqref="E159"/>
     </sheetView>
@@ -1508,7 +1571,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2289,14 +2352,14 @@
       <c r="E215" s="2"/>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B216" s="6"/>
-      <c r="C216" s="6"/>
-      <c r="E216" s="6"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="E216" s="5"/>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B217" s="6"/>
-      <c r="C217" s="6"/>
-      <c r="E217" s="6"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="E217" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
